--- a/Occupations/Occupations.xlsx
+++ b/Occupations/Occupations.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18818" uniqueCount="1183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47366" uniqueCount="1183">
   <si>
     <t>occupationname</t>
   </si>
@@ -30698,10 +30698,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B2" t="s">
-        <v>773</v>
+        <v>486</v>
       </c>
       <c r="C2" s="0"/>
       <c r="D2" t="s">
@@ -30716,10 +30716,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B3" t="s">
-        <v>486</v>
+        <v>773</v>
       </c>
       <c r="C3" s="0"/>
       <c r="D3" t="s">
@@ -30791,7 +30791,7 @@
         <v>748</v>
       </c>
       <c r="B7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C7" s="0"/>
       <c r="D7" t="s">
@@ -30806,10 +30806,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="B8" t="s">
-        <v>775</v>
+        <v>262</v>
       </c>
       <c r="C8" s="0"/>
       <c r="D8" t="s">
@@ -30824,10 +30824,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="B9" t="s">
-        <v>264</v>
+        <v>775</v>
       </c>
       <c r="C9" s="0"/>
       <c r="D9" t="s">
@@ -30842,10 +30842,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B10" t="s">
-        <v>262</v>
+        <v>776</v>
       </c>
       <c r="C10" s="0"/>
       <c r="D10" t="s">
@@ -30860,10 +30860,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B11" t="s">
-        <v>776</v>
+        <v>262</v>
       </c>
       <c r="C11" s="0"/>
       <c r="D11" t="s">
@@ -30950,10 +30950,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>748</v>
+        <v>1181</v>
       </c>
       <c r="B16" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C16" s="0"/>
       <c r="D16" t="s">
@@ -30966,10 +30966,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>1181</v>
+        <v>748</v>
       </c>
       <c r="B17" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C17" s="0"/>
       <c r="D17" t="s">
@@ -31158,10 +31158,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B28" t="s">
-        <v>776</v>
+        <v>264</v>
       </c>
       <c r="C28" s="0"/>
       <c r="D28" t="s">
@@ -31174,10 +31174,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B29" t="s">
-        <v>264</v>
+        <v>776</v>
       </c>
       <c r="C29" s="0"/>
       <c r="D29" t="s">
@@ -31190,10 +31190,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B30" t="s">
-        <v>775</v>
+        <v>463</v>
       </c>
       <c r="C30" s="0"/>
       <c r="D30" t="s">
@@ -31208,10 +31208,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B31" t="s">
-        <v>463</v>
+        <v>775</v>
       </c>
       <c r="C31" s="0"/>
       <c r="D31" t="s">
@@ -31283,7 +31283,7 @@
         <v>748</v>
       </c>
       <c r="B35" t="s">
-        <v>787</v>
+        <v>262</v>
       </c>
       <c r="C35" s="0"/>
       <c r="D35" t="s">
@@ -31299,7 +31299,7 @@
         <v>748</v>
       </c>
       <c r="B36" t="s">
-        <v>262</v>
+        <v>787</v>
       </c>
       <c r="C36" s="0"/>
       <c r="D36" t="s">
@@ -31402,10 +31402,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B42" t="s">
-        <v>790</v>
+        <v>300</v>
       </c>
       <c r="C42" s="0"/>
       <c r="D42" t="s">
@@ -31420,10 +31420,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B43" t="s">
-        <v>300</v>
+        <v>790</v>
       </c>
       <c r="C43" s="0"/>
       <c r="D43" t="s">
@@ -31459,7 +31459,7 @@
         <v>1181</v>
       </c>
       <c r="B45" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C45" s="0"/>
       <c r="D45" t="s">
@@ -31477,7 +31477,7 @@
         <v>1181</v>
       </c>
       <c r="B46" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C46" s="0"/>
       <c r="D46" t="s">
@@ -31826,10 +31826,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B66" t="s">
-        <v>804</v>
+        <v>624</v>
       </c>
       <c r="C66" s="0"/>
       <c r="D66" t="s">
@@ -31844,10 +31844,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B67" t="s">
-        <v>624</v>
+        <v>804</v>
       </c>
       <c r="C67" s="0"/>
       <c r="D67" t="s">
@@ -31880,10 +31880,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="B69" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C69" s="0"/>
       <c r="D69" t="s">
@@ -31912,10 +31912,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="B71" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C71" s="0"/>
       <c r="D71" t="s">
@@ -32084,10 +32084,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B81" t="s">
-        <v>309</v>
+        <v>811</v>
       </c>
       <c r="C81" s="0"/>
       <c r="D81" t="s">
@@ -32102,10 +32102,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B82" t="s">
-        <v>811</v>
+        <v>309</v>
       </c>
       <c r="C82" s="0"/>
       <c r="D82" t="s">
@@ -32258,10 +32258,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>748</v>
+        <v>1181</v>
       </c>
       <c r="B91" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C91" s="0"/>
       <c r="D91" t="s">
@@ -32274,10 +32274,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>1181</v>
+        <v>748</v>
       </c>
       <c r="B92" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="C92" s="0"/>
       <c r="D92" t="s">
@@ -32410,10 +32410,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B100" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="C100" s="0"/>
       <c r="D100" t="s">
@@ -32428,10 +32428,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B101" t="s">
-        <v>286</v>
+        <v>309</v>
       </c>
       <c r="C101" s="0"/>
       <c r="D101" t="s">
@@ -32658,10 +32658,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="B114" t="s">
-        <v>47</v>
+        <v>805</v>
       </c>
       <c r="C114" s="0"/>
       <c r="D114" t="s">
@@ -32676,10 +32676,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="B115" t="s">
-        <v>805</v>
+        <v>47</v>
       </c>
       <c r="C115" s="0"/>
       <c r="D115" t="s">
@@ -32846,10 +32846,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B125" t="s">
-        <v>300</v>
+        <v>791</v>
       </c>
       <c r="C125" s="0"/>
       <c r="D125" t="s">
@@ -32864,10 +32864,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B126" t="s">
-        <v>791</v>
+        <v>300</v>
       </c>
       <c r="C126" s="0"/>
       <c r="D126" t="s">
@@ -33072,10 +33072,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B138" t="s">
-        <v>791</v>
+        <v>775</v>
       </c>
       <c r="C138" s="0"/>
       <c r="D138" t="s">
@@ -33090,10 +33090,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B139" t="s">
-        <v>775</v>
+        <v>791</v>
       </c>
       <c r="C139" s="0"/>
       <c r="D139" t="s">
@@ -33318,10 +33318,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B152" t="s">
-        <v>813</v>
+        <v>282</v>
       </c>
       <c r="C152" s="0"/>
       <c r="D152" t="s">
@@ -33336,10 +33336,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B153" t="s">
-        <v>282</v>
+        <v>813</v>
       </c>
       <c r="C153" s="0"/>
       <c r="D153" t="s">
@@ -33386,10 +33386,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B156" t="s">
-        <v>262</v>
+        <v>789</v>
       </c>
       <c r="C156" s="0"/>
       <c r="D156" t="s">
@@ -33404,10 +33404,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B157" t="s">
-        <v>789</v>
+        <v>262</v>
       </c>
       <c r="C157" s="0"/>
       <c r="D157" t="s">
@@ -33488,10 +33488,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>748</v>
+        <v>1181</v>
       </c>
       <c r="B162" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C162" s="0"/>
       <c r="D162" t="s">
@@ -33504,10 +33504,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>1181</v>
+        <v>748</v>
       </c>
       <c r="B163" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="C163" s="0"/>
       <c r="D163" t="s">
@@ -33658,10 +33658,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B172" t="s">
-        <v>286</v>
+        <v>821</v>
       </c>
       <c r="C172" s="0"/>
       <c r="D172" t="s">
@@ -33676,10 +33676,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B173" t="s">
-        <v>821</v>
+        <v>286</v>
       </c>
       <c r="C173" s="0"/>
       <c r="D173" t="s">
@@ -33730,10 +33730,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>748</v>
+        <v>1181</v>
       </c>
       <c r="B176" t="s">
-        <v>817</v>
+        <v>842</v>
       </c>
       <c r="C176" s="0"/>
       <c r="D176" t="s">
@@ -33748,10 +33748,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>1181</v>
+        <v>748</v>
       </c>
       <c r="B177" t="s">
-        <v>842</v>
+        <v>817</v>
       </c>
       <c r="C177" s="0"/>
       <c r="D177" t="s">
@@ -33935,7 +33935,7 @@
         <v>748</v>
       </c>
       <c r="B188" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C188" s="0"/>
       <c r="D188" t="s">
@@ -33951,7 +33951,7 @@
         <v>748</v>
       </c>
       <c r="B189" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="C189" s="0"/>
       <c r="D189" t="s">
@@ -34140,10 +34140,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B200" t="s">
-        <v>860</v>
+        <v>786</v>
       </c>
       <c r="C200" s="0"/>
       <c r="D200" t="s">
@@ -34158,10 +34158,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B201" t="s">
-        <v>786</v>
+        <v>860</v>
       </c>
       <c r="C201" s="0"/>
       <c r="D201" t="s">
@@ -34382,10 +34382,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B214" t="s">
-        <v>867</v>
+        <v>535</v>
       </c>
       <c r="C214" s="0"/>
       <c r="D214" t="s">
@@ -34400,10 +34400,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B215" t="s">
-        <v>535</v>
+        <v>867</v>
       </c>
       <c r="C215" s="0"/>
       <c r="D215" t="s">
@@ -34558,10 +34558,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>1181</v>
+        <v>754</v>
       </c>
       <c r="B224" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C224" s="0"/>
       <c r="D224" t="s">
@@ -34576,10 +34576,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>754</v>
+        <v>1181</v>
       </c>
       <c r="B225" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C225" s="0"/>
       <c r="D225" t="s">
@@ -34630,10 +34630,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>1181</v>
+        <v>748</v>
       </c>
       <c r="B228" t="s">
-        <v>875</v>
+        <v>823</v>
       </c>
       <c r="C228" s="0"/>
       <c r="D228" t="s">
@@ -34648,10 +34648,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>748</v>
+        <v>1181</v>
       </c>
       <c r="B229" t="s">
-        <v>823</v>
+        <v>875</v>
       </c>
       <c r="C229" s="0"/>
       <c r="D229" t="s">
@@ -34682,10 +34682,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B231" t="s">
-        <v>517</v>
+        <v>324</v>
       </c>
       <c r="C231" s="0"/>
       <c r="D231" t="s">
@@ -34700,10 +34700,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B232" t="s">
-        <v>324</v>
+        <v>517</v>
       </c>
       <c r="C232" s="0"/>
       <c r="D232" t="s">
@@ -34754,10 +34754,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="B235" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="C235" s="0"/>
       <c r="D235" t="s">
@@ -34772,10 +34772,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
       <c r="B236" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C236" s="0"/>
       <c r="D236" t="s">
@@ -35309,7 +35309,7 @@
         <v>748</v>
       </c>
       <c r="B266" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C266" s="0"/>
       <c r="D266" t="s">
@@ -35325,7 +35325,7 @@
         <v>748</v>
       </c>
       <c r="B267" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="C267" s="0"/>
       <c r="D267" t="s">
@@ -35499,7 +35499,7 @@
         <v>750</v>
       </c>
       <c r="B277" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C277" s="0"/>
       <c r="D277" t="s">
@@ -35517,7 +35517,7 @@
         <v>750</v>
       </c>
       <c r="B278" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="C278" s="0"/>
       <c r="D278" t="s">
@@ -35548,10 +35548,10 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B280" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="C280" s="0"/>
       <c r="D280" t="s">
@@ -35564,10 +35564,10 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B281" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C281" s="0"/>
       <c r="D281" t="s">
@@ -35831,7 +35831,7 @@
         <v>748</v>
       </c>
       <c r="B296" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="C296" s="0"/>
       <c r="D296" t="s">
@@ -35847,7 +35847,7 @@
         <v>748</v>
       </c>
       <c r="B297" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C297" s="0"/>
       <c r="D297" t="s">
@@ -36329,7 +36329,7 @@
         <v>748</v>
       </c>
       <c r="B325" t="s">
-        <v>930</v>
+        <v>914</v>
       </c>
       <c r="C325" s="0"/>
       <c r="D325" t="s">
@@ -36347,7 +36347,7 @@
         <v>748</v>
       </c>
       <c r="B326" t="s">
-        <v>914</v>
+        <v>930</v>
       </c>
       <c r="C326" s="0"/>
       <c r="D326" t="s">
@@ -36430,10 +36430,10 @@
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B331" t="s">
-        <v>324</v>
+        <v>517</v>
       </c>
       <c r="C331" s="0"/>
       <c r="D331" t="s">
@@ -36448,10 +36448,10 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B332" t="s">
-        <v>517</v>
+        <v>324</v>
       </c>
       <c r="C332" s="0"/>
       <c r="D332" t="s">
@@ -36541,7 +36541,7 @@
         <v>750</v>
       </c>
       <c r="B337" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="C337" s="0"/>
       <c r="D337" t="s">
@@ -36559,7 +36559,7 @@
         <v>750</v>
       </c>
       <c r="B338" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C338" s="0"/>
       <c r="D338" t="s">
@@ -36736,10 +36736,10 @@
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>750</v>
+        <v>1181</v>
       </c>
       <c r="B348" t="s">
-        <v>278</v>
+        <v>899</v>
       </c>
       <c r="C348" s="0"/>
       <c r="D348" t="s">
@@ -36754,10 +36754,10 @@
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>1181</v>
+        <v>750</v>
       </c>
       <c r="B349" t="s">
-        <v>899</v>
+        <v>278</v>
       </c>
       <c r="C349" s="0"/>
       <c r="D349" t="s">
@@ -37642,10 +37642,10 @@
     </row>
     <row r="399">
       <c r="A399" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B399" t="s">
-        <v>967</v>
+        <v>198</v>
       </c>
       <c r="C399" s="0"/>
       <c r="D399" t="s">
@@ -37660,10 +37660,10 @@
     </row>
     <row r="400">
       <c r="A400" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B400" t="s">
-        <v>198</v>
+        <v>967</v>
       </c>
       <c r="C400" s="0"/>
       <c r="D400" t="s">
@@ -38064,10 +38064,10 @@
     </row>
     <row r="423">
       <c r="A423" t="s">
-        <v>752</v>
+        <v>1181</v>
       </c>
       <c r="B423" t="s">
-        <v>979</v>
+        <v>984</v>
       </c>
       <c r="C423" s="0"/>
       <c r="D423" t="s">
@@ -38082,10 +38082,10 @@
     </row>
     <row r="424">
       <c r="A424" t="s">
-        <v>1181</v>
+        <v>752</v>
       </c>
       <c r="B424" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="C424" s="0"/>
       <c r="D424" t="s">
@@ -38312,10 +38312,10 @@
     </row>
     <row r="437">
       <c r="A437" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B437" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C437" s="0"/>
       <c r="D437" t="s">
@@ -38348,10 +38348,10 @@
     </row>
     <row r="439">
       <c r="A439" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B439" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C439" s="0"/>
       <c r="D439" t="s">
@@ -38531,7 +38531,7 @@
         <v>748</v>
       </c>
       <c r="B449" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="C449" s="0"/>
       <c r="D449" t="s">
@@ -38549,7 +38549,7 @@
         <v>748</v>
       </c>
       <c r="B450" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="C450" s="0"/>
       <c r="D450" t="s">
@@ -38669,7 +38669,7 @@
         <v>748</v>
       </c>
       <c r="B457" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C457" s="0"/>
       <c r="D457" t="s">
@@ -38687,7 +38687,7 @@
         <v>748</v>
       </c>
       <c r="B458" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="C458" s="0"/>
       <c r="D458" t="s">
@@ -38862,10 +38862,10 @@
     </row>
     <row r="468">
       <c r="A468" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="B468" t="s">
-        <v>802</v>
+        <v>1009</v>
       </c>
       <c r="C468" s="0"/>
       <c r="D468" t="s">
@@ -38880,10 +38880,10 @@
     </row>
     <row r="469">
       <c r="A469" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="B469" t="s">
-        <v>1009</v>
+        <v>802</v>
       </c>
       <c r="C469" s="0"/>
       <c r="D469" t="s">
@@ -38934,10 +38934,10 @@
     </row>
     <row r="472">
       <c r="A472" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B472" t="s">
-        <v>1012</v>
+        <v>448</v>
       </c>
       <c r="C472" s="0"/>
       <c r="D472" t="s">
@@ -38970,10 +38970,10 @@
     </row>
     <row r="474">
       <c r="A474" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B474" t="s">
-        <v>448</v>
+        <v>1012</v>
       </c>
       <c r="C474" s="0"/>
       <c r="D474" t="s">
@@ -39058,10 +39058,10 @@
     </row>
     <row r="479">
       <c r="A479" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="B479" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C479" s="0"/>
       <c r="D479" t="s">
@@ -39074,10 +39074,10 @@
     </row>
     <row r="480">
       <c r="A480" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="B480" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="C480" s="0"/>
       <c r="D480" t="s">
@@ -40016,10 +40016,10 @@
     </row>
     <row r="534">
       <c r="A534" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B534" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="C534" s="0"/>
       <c r="D534" t="s">
@@ -40034,10 +40034,10 @@
     </row>
     <row r="535">
       <c r="A535" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B535" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="C535" s="0"/>
       <c r="D535" t="s">
@@ -40194,10 +40194,10 @@
     </row>
     <row r="544">
       <c r="A544" t="s">
-        <v>1181</v>
+        <v>755</v>
       </c>
       <c r="B544" t="s">
-        <v>736</v>
+        <v>1052</v>
       </c>
       <c r="C544" s="0"/>
       <c r="D544" t="s">
@@ -40212,10 +40212,10 @@
     </row>
     <row r="545">
       <c r="A545" t="s">
-        <v>755</v>
+        <v>1181</v>
       </c>
       <c r="B545" t="s">
-        <v>1052</v>
+        <v>736</v>
       </c>
       <c r="C545" s="0"/>
       <c r="D545" t="s">
@@ -40477,7 +40477,7 @@
         <v>750</v>
       </c>
       <c r="B560" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C560" s="0"/>
       <c r="D560" t="s">
@@ -40495,7 +40495,7 @@
         <v>750</v>
       </c>
       <c r="B561" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="C561" s="0"/>
       <c r="D561" t="s">
@@ -40774,10 +40774,10 @@
     </row>
     <row r="577">
       <c r="A577" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B577" t="s">
-        <v>1068</v>
+        <v>548</v>
       </c>
       <c r="C577" s="0"/>
       <c r="D577" t="s">
@@ -40792,10 +40792,10 @@
     </row>
     <row r="578">
       <c r="A578" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B578" t="s">
-        <v>548</v>
+        <v>1068</v>
       </c>
       <c r="C578" s="0"/>
       <c r="D578" t="s">
@@ -41274,10 +41274,10 @@
     </row>
     <row r="605">
       <c r="A605" t="s">
-        <v>1181</v>
+        <v>750</v>
       </c>
       <c r="B605" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="C605" s="0"/>
       <c r="D605" t="s">
@@ -41292,10 +41292,10 @@
     </row>
     <row r="606">
       <c r="A606" t="s">
-        <v>750</v>
+        <v>1181</v>
       </c>
       <c r="B606" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C606" s="0"/>
       <c r="D606" t="s">
@@ -41452,10 +41452,10 @@
     </row>
     <row r="615">
       <c r="A615" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B615" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="C615" s="0"/>
       <c r="D615" t="s">
@@ -41470,10 +41470,10 @@
     </row>
     <row r="616">
       <c r="A616" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B616" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C616" s="0"/>
       <c r="D616" t="s">
@@ -41633,7 +41633,7 @@
         <v>748</v>
       </c>
       <c r="B625" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="C625" s="0"/>
       <c r="D625" t="s">
@@ -41649,7 +41649,7 @@
         <v>748</v>
       </c>
       <c r="B626" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C626" s="0"/>
       <c r="D626" t="s">
@@ -41838,10 +41838,10 @@
     </row>
     <row r="637">
       <c r="A637" t="s">
-        <v>1181</v>
+        <v>750</v>
       </c>
       <c r="B637" t="s">
-        <v>973</v>
+        <v>262</v>
       </c>
       <c r="C637" s="0"/>
       <c r="D637" t="s">
@@ -41856,10 +41856,10 @@
     </row>
     <row r="638">
       <c r="A638" t="s">
-        <v>750</v>
+        <v>1181</v>
       </c>
       <c r="B638" t="s">
-        <v>262</v>
+        <v>973</v>
       </c>
       <c r="C638" s="0"/>
       <c r="D638" t="s">
@@ -41998,10 +41998,10 @@
     </row>
     <row r="646">
       <c r="A646" t="s">
-        <v>750</v>
+        <v>1181</v>
       </c>
       <c r="B646" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="C646" s="0"/>
       <c r="D646" t="s">
@@ -42016,10 +42016,10 @@
     </row>
     <row r="647">
       <c r="A647" t="s">
-        <v>1181</v>
+        <v>750</v>
       </c>
       <c r="B647" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="C647" s="0"/>
       <c r="D647" t="s">
@@ -42884,10 +42884,10 @@
     </row>
     <row r="696">
       <c r="A696" t="s">
-        <v>1181</v>
+        <v>750</v>
       </c>
       <c r="B696" t="s">
-        <v>1111</v>
+        <v>1155</v>
       </c>
       <c r="C696" s="0"/>
       <c r="D696" t="s">
@@ -42902,10 +42902,10 @@
     </row>
     <row r="697">
       <c r="A697" t="s">
-        <v>750</v>
+        <v>1181</v>
       </c>
       <c r="B697" t="s">
-        <v>1155</v>
+        <v>1111</v>
       </c>
       <c r="C697" s="0"/>
       <c r="D697" t="s">
@@ -43261,7 +43261,7 @@
         <v>750</v>
       </c>
       <c r="B717" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C717" s="0"/>
       <c r="D717" t="s">
@@ -43279,7 +43279,7 @@
         <v>750</v>
       </c>
       <c r="B718" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="C718" s="0"/>
       <c r="D718" t="s">

--- a/Occupations/Occupations.xlsx
+++ b/Occupations/Occupations.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47366" uniqueCount="1183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51758" uniqueCount="1183">
   <si>
     <t>occupationname</t>
   </si>
@@ -30698,10 +30698,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B2" t="s">
-        <v>486</v>
+        <v>773</v>
       </c>
       <c r="C2" s="0"/>
       <c r="D2" t="s">
@@ -30716,10 +30716,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B3" t="s">
-        <v>773</v>
+        <v>486</v>
       </c>
       <c r="C3" s="0"/>
       <c r="D3" t="s">
@@ -30734,10 +30734,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B4" t="s">
-        <v>773</v>
+        <v>48</v>
       </c>
       <c r="C4" s="0"/>
       <c r="D4" t="s">
@@ -30752,10 +30752,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>773</v>
       </c>
       <c r="C5" s="0"/>
       <c r="D5" t="s">
@@ -30791,7 +30791,7 @@
         <v>748</v>
       </c>
       <c r="B7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C7" s="0"/>
       <c r="D7" t="s">
@@ -30809,7 +30809,7 @@
         <v>748</v>
       </c>
       <c r="B8" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C8" s="0"/>
       <c r="D8" t="s">
@@ -31016,10 +31016,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>750</v>
+        <v>1181</v>
       </c>
       <c r="B20" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C20" s="0"/>
       <c r="D20" t="s">
@@ -31034,10 +31034,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>1181</v>
+        <v>750</v>
       </c>
       <c r="B21" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C21" s="0"/>
       <c r="D21" t="s">
@@ -31158,10 +31158,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B28" t="s">
-        <v>264</v>
+        <v>776</v>
       </c>
       <c r="C28" s="0"/>
       <c r="D28" t="s">
@@ -31174,10 +31174,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B29" t="s">
-        <v>776</v>
+        <v>264</v>
       </c>
       <c r="C29" s="0"/>
       <c r="D29" t="s">
@@ -31190,10 +31190,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B30" t="s">
-        <v>463</v>
+        <v>775</v>
       </c>
       <c r="C30" s="0"/>
       <c r="D30" t="s">
@@ -31208,10 +31208,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B31" t="s">
-        <v>775</v>
+        <v>463</v>
       </c>
       <c r="C31" s="0"/>
       <c r="D31" t="s">
@@ -31351,7 +31351,7 @@
         <v>750</v>
       </c>
       <c r="B39" t="s">
-        <v>789</v>
+        <v>486</v>
       </c>
       <c r="C39" s="0"/>
       <c r="D39" t="s">
@@ -31369,7 +31369,7 @@
         <v>750</v>
       </c>
       <c r="B40" t="s">
-        <v>486</v>
+        <v>789</v>
       </c>
       <c r="C40" s="0"/>
       <c r="D40" t="s">
@@ -31402,10 +31402,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B42" t="s">
-        <v>300</v>
+        <v>790</v>
       </c>
       <c r="C42" s="0"/>
       <c r="D42" t="s">
@@ -31420,10 +31420,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B43" t="s">
-        <v>790</v>
+        <v>300</v>
       </c>
       <c r="C43" s="0"/>
       <c r="D43" t="s">
@@ -31459,7 +31459,7 @@
         <v>1181</v>
       </c>
       <c r="B45" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C45" s="0"/>
       <c r="D45" t="s">
@@ -31477,7 +31477,7 @@
         <v>1181</v>
       </c>
       <c r="B46" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C46" s="0"/>
       <c r="D46" t="s">
@@ -31826,10 +31826,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B66" t="s">
-        <v>624</v>
+        <v>804</v>
       </c>
       <c r="C66" s="0"/>
       <c r="D66" t="s">
@@ -31844,10 +31844,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B67" t="s">
-        <v>804</v>
+        <v>624</v>
       </c>
       <c r="C67" s="0"/>
       <c r="D67" t="s">
@@ -31880,10 +31880,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="B69" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C69" s="0"/>
       <c r="D69" t="s">
@@ -31912,10 +31912,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="B71" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C71" s="0"/>
       <c r="D71" t="s">
@@ -32410,10 +32410,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B100" t="s">
-        <v>286</v>
+        <v>309</v>
       </c>
       <c r="C100" s="0"/>
       <c r="D100" t="s">
@@ -32428,10 +32428,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B101" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="C101" s="0"/>
       <c r="D101" t="s">
@@ -32591,7 +32591,7 @@
         <v>750</v>
       </c>
       <c r="B110" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="C110" s="0"/>
       <c r="D110" t="s">
@@ -32609,7 +32609,7 @@
         <v>750</v>
       </c>
       <c r="B111" t="s">
-        <v>821</v>
+        <v>827</v>
       </c>
       <c r="C111" s="0"/>
       <c r="D111" t="s">
@@ -32846,10 +32846,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B125" t="s">
-        <v>791</v>
+        <v>300</v>
       </c>
       <c r="C125" s="0"/>
       <c r="D125" t="s">
@@ -32864,10 +32864,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B126" t="s">
-        <v>300</v>
+        <v>791</v>
       </c>
       <c r="C126" s="0"/>
       <c r="D126" t="s">
@@ -33318,10 +33318,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B152" t="s">
-        <v>282</v>
+        <v>813</v>
       </c>
       <c r="C152" s="0"/>
       <c r="D152" t="s">
@@ -33336,10 +33336,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B153" t="s">
-        <v>813</v>
+        <v>282</v>
       </c>
       <c r="C153" s="0"/>
       <c r="D153" t="s">
@@ -33456,10 +33456,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>748</v>
+        <v>1181</v>
       </c>
       <c r="B160" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C160" s="0"/>
       <c r="D160" t="s">
@@ -33472,10 +33472,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>1181</v>
+        <v>748</v>
       </c>
       <c r="B161" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="C161" s="0"/>
       <c r="D161" t="s">
@@ -33488,10 +33488,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>1181</v>
+        <v>748</v>
       </c>
       <c r="B162" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="C162" s="0"/>
       <c r="D162" t="s">
@@ -33504,10 +33504,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>748</v>
+        <v>1181</v>
       </c>
       <c r="B163" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C163" s="0"/>
       <c r="D163" t="s">
@@ -33676,10 +33676,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B173" t="s">
-        <v>286</v>
+        <v>309</v>
       </c>
       <c r="C173" s="0"/>
       <c r="D173" t="s">
@@ -33694,10 +33694,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B174" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="C174" s="0"/>
       <c r="D174" t="s">
@@ -33730,10 +33730,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>1181</v>
+        <v>748</v>
       </c>
       <c r="B176" t="s">
-        <v>842</v>
+        <v>817</v>
       </c>
       <c r="C176" s="0"/>
       <c r="D176" t="s">
@@ -33748,10 +33748,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>748</v>
+        <v>1181</v>
       </c>
       <c r="B177" t="s">
-        <v>817</v>
+        <v>842</v>
       </c>
       <c r="C177" s="0"/>
       <c r="D177" t="s">
@@ -33782,10 +33782,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B179" t="s">
-        <v>820</v>
+        <v>780</v>
       </c>
       <c r="C179" s="0"/>
       <c r="D179" t="s">
@@ -33798,10 +33798,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B180" t="s">
-        <v>780</v>
+        <v>820</v>
       </c>
       <c r="C180" s="0"/>
       <c r="D180" t="s">
@@ -33935,7 +33935,7 @@
         <v>748</v>
       </c>
       <c r="B188" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="C188" s="0"/>
       <c r="D188" t="s">
@@ -33951,7 +33951,7 @@
         <v>748</v>
       </c>
       <c r="B189" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C189" s="0"/>
       <c r="D189" t="s">
@@ -34140,10 +34140,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B200" t="s">
-        <v>786</v>
+        <v>860</v>
       </c>
       <c r="C200" s="0"/>
       <c r="D200" t="s">
@@ -34158,10 +34158,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B201" t="s">
-        <v>860</v>
+        <v>786</v>
       </c>
       <c r="C201" s="0"/>
       <c r="D201" t="s">
@@ -34176,10 +34176,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B202" t="s">
-        <v>860</v>
+        <v>786</v>
       </c>
       <c r="C202" s="0"/>
       <c r="D202" t="s">
@@ -34192,10 +34192,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B203" t="s">
-        <v>786</v>
+        <v>860</v>
       </c>
       <c r="C203" s="0"/>
       <c r="D203" t="s">
@@ -34382,10 +34382,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B214" t="s">
-        <v>535</v>
+        <v>867</v>
       </c>
       <c r="C214" s="0"/>
       <c r="D214" t="s">
@@ -34400,10 +34400,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B215" t="s">
-        <v>867</v>
+        <v>535</v>
       </c>
       <c r="C215" s="0"/>
       <c r="D215" t="s">
@@ -34558,10 +34558,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>754</v>
+        <v>1181</v>
       </c>
       <c r="B224" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C224" s="0"/>
       <c r="D224" t="s">
@@ -34576,10 +34576,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>1181</v>
+        <v>754</v>
       </c>
       <c r="B225" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C225" s="0"/>
       <c r="D225" t="s">
@@ -34682,10 +34682,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B231" t="s">
-        <v>324</v>
+        <v>517</v>
       </c>
       <c r="C231" s="0"/>
       <c r="D231" t="s">
@@ -34700,10 +34700,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B232" t="s">
-        <v>517</v>
+        <v>324</v>
       </c>
       <c r="C232" s="0"/>
       <c r="D232" t="s">
@@ -34754,10 +34754,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
       <c r="B235" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C235" s="0"/>
       <c r="D235" t="s">
@@ -34772,10 +34772,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="B236" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="C236" s="0"/>
       <c r="D236" t="s">
@@ -35499,7 +35499,7 @@
         <v>750</v>
       </c>
       <c r="B277" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="C277" s="0"/>
       <c r="D277" t="s">
@@ -35517,7 +35517,7 @@
         <v>750</v>
       </c>
       <c r="B278" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C278" s="0"/>
       <c r="D278" t="s">
@@ -35815,7 +35815,7 @@
         <v>748</v>
       </c>
       <c r="B295" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C295" s="0"/>
       <c r="D295" t="s">
@@ -35831,7 +35831,7 @@
         <v>748</v>
       </c>
       <c r="B296" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C296" s="0"/>
       <c r="D296" t="s">
@@ -35847,7 +35847,7 @@
         <v>748</v>
       </c>
       <c r="B297" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="C297" s="0"/>
       <c r="D297" t="s">
@@ -36329,7 +36329,7 @@
         <v>748</v>
       </c>
       <c r="B325" t="s">
-        <v>914</v>
+        <v>930</v>
       </c>
       <c r="C325" s="0"/>
       <c r="D325" t="s">
@@ -36347,7 +36347,7 @@
         <v>748</v>
       </c>
       <c r="B326" t="s">
-        <v>930</v>
+        <v>914</v>
       </c>
       <c r="C326" s="0"/>
       <c r="D326" t="s">
@@ -36430,10 +36430,10 @@
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B331" t="s">
-        <v>517</v>
+        <v>324</v>
       </c>
       <c r="C331" s="0"/>
       <c r="D331" t="s">
@@ -36448,10 +36448,10 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B332" t="s">
-        <v>324</v>
+        <v>517</v>
       </c>
       <c r="C332" s="0"/>
       <c r="D332" t="s">
@@ -36523,7 +36523,7 @@
         <v>750</v>
       </c>
       <c r="B336" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="C336" s="0"/>
       <c r="D336" t="s">
@@ -36541,7 +36541,7 @@
         <v>750</v>
       </c>
       <c r="B337" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="C337" s="0"/>
       <c r="D337" t="s">
@@ -36559,7 +36559,7 @@
         <v>750</v>
       </c>
       <c r="B338" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="C338" s="0"/>
       <c r="D338" t="s">
@@ -36736,10 +36736,10 @@
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>1181</v>
+        <v>750</v>
       </c>
       <c r="B348" t="s">
-        <v>899</v>
+        <v>278</v>
       </c>
       <c r="C348" s="0"/>
       <c r="D348" t="s">
@@ -36754,10 +36754,10 @@
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>750</v>
+        <v>1181</v>
       </c>
       <c r="B349" t="s">
-        <v>278</v>
+        <v>899</v>
       </c>
       <c r="C349" s="0"/>
       <c r="D349" t="s">
@@ -37144,10 +37144,10 @@
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>750</v>
+        <v>1181</v>
       </c>
       <c r="B371" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="C371" s="0"/>
       <c r="D371" t="s">
@@ -37162,10 +37162,10 @@
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>1181</v>
+        <v>750</v>
       </c>
       <c r="B372" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="C372" s="0"/>
       <c r="D372" t="s">
@@ -37642,10 +37642,10 @@
     </row>
     <row r="399">
       <c r="A399" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B399" t="s">
-        <v>198</v>
+        <v>967</v>
       </c>
       <c r="C399" s="0"/>
       <c r="D399" t="s">
@@ -37660,10 +37660,10 @@
     </row>
     <row r="400">
       <c r="A400" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B400" t="s">
-        <v>967</v>
+        <v>198</v>
       </c>
       <c r="C400" s="0"/>
       <c r="D400" t="s">
@@ -38064,10 +38064,10 @@
     </row>
     <row r="423">
       <c r="A423" t="s">
-        <v>1181</v>
+        <v>752</v>
       </c>
       <c r="B423" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="C423" s="0"/>
       <c r="D423" t="s">
@@ -38082,10 +38082,10 @@
     </row>
     <row r="424">
       <c r="A424" t="s">
-        <v>752</v>
+        <v>1181</v>
       </c>
       <c r="B424" t="s">
-        <v>979</v>
+        <v>984</v>
       </c>
       <c r="C424" s="0"/>
       <c r="D424" t="s">
@@ -38225,7 +38225,7 @@
         <v>748</v>
       </c>
       <c r="B432" t="s">
-        <v>286</v>
+        <v>989</v>
       </c>
       <c r="C432" s="0"/>
       <c r="D432" t="s">
@@ -38243,7 +38243,7 @@
         <v>748</v>
       </c>
       <c r="B433" t="s">
-        <v>989</v>
+        <v>286</v>
       </c>
       <c r="C433" s="0"/>
       <c r="D433" t="s">
@@ -38312,10 +38312,10 @@
     </row>
     <row r="437">
       <c r="A437" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B437" t="s">
-        <v>264</v>
+        <v>790</v>
       </c>
       <c r="C437" s="0"/>
       <c r="D437" t="s">
@@ -38330,10 +38330,10 @@
     </row>
     <row r="438">
       <c r="A438" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B438" t="s">
-        <v>790</v>
+        <v>264</v>
       </c>
       <c r="C438" s="0"/>
       <c r="D438" t="s">
@@ -38441,7 +38441,7 @@
         <v>1181</v>
       </c>
       <c r="B444" t="s">
-        <v>275</v>
+        <v>727</v>
       </c>
       <c r="C444" s="0"/>
       <c r="D444" t="s">
@@ -38459,7 +38459,7 @@
         <v>1181</v>
       </c>
       <c r="B445" t="s">
-        <v>727</v>
+        <v>996</v>
       </c>
       <c r="C445" s="0"/>
       <c r="D445" t="s">
@@ -38477,7 +38477,7 @@
         <v>1181</v>
       </c>
       <c r="B446" t="s">
-        <v>996</v>
+        <v>275</v>
       </c>
       <c r="C446" s="0"/>
       <c r="D446" t="s">
@@ -38531,7 +38531,7 @@
         <v>748</v>
       </c>
       <c r="B449" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="C449" s="0"/>
       <c r="D449" t="s">
@@ -38549,7 +38549,7 @@
         <v>748</v>
       </c>
       <c r="B450" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="C450" s="0"/>
       <c r="D450" t="s">
@@ -39058,10 +39058,10 @@
     </row>
     <row r="479">
       <c r="A479" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="B479" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="C479" s="0"/>
       <c r="D479" t="s">
@@ -39074,10 +39074,10 @@
     </row>
     <row r="480">
       <c r="A480" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="B480" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C480" s="0"/>
       <c r="D480" t="s">
@@ -39881,7 +39881,7 @@
         <v>750</v>
       </c>
       <c r="B526" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="C526" s="0"/>
       <c r="D526" t="s">
@@ -39899,7 +39899,7 @@
         <v>750</v>
       </c>
       <c r="B527" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C527" s="0"/>
       <c r="D527" t="s">
@@ -40052,10 +40052,10 @@
     </row>
     <row r="536">
       <c r="A536" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B536" t="s">
-        <v>1048</v>
+        <v>987</v>
       </c>
       <c r="C536" s="0"/>
       <c r="D536" t="s">
@@ -40070,10 +40070,10 @@
     </row>
     <row r="537">
       <c r="A537" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B537" t="s">
-        <v>987</v>
+        <v>1048</v>
       </c>
       <c r="C537" s="0"/>
       <c r="D537" t="s">
@@ -40194,10 +40194,10 @@
     </row>
     <row r="544">
       <c r="A544" t="s">
-        <v>755</v>
+        <v>1181</v>
       </c>
       <c r="B544" t="s">
-        <v>1052</v>
+        <v>736</v>
       </c>
       <c r="C544" s="0"/>
       <c r="D544" t="s">
@@ -40212,10 +40212,10 @@
     </row>
     <row r="545">
       <c r="A545" t="s">
-        <v>1181</v>
+        <v>755</v>
       </c>
       <c r="B545" t="s">
-        <v>736</v>
+        <v>1052</v>
       </c>
       <c r="C545" s="0"/>
       <c r="D545" t="s">
@@ -40867,7 +40867,7 @@
         <v>748</v>
       </c>
       <c r="B582" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="C582" s="0"/>
       <c r="D582" t="s">
@@ -40885,7 +40885,7 @@
         <v>748</v>
       </c>
       <c r="B583" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C583" s="0"/>
       <c r="D583" t="s">
@@ -40970,10 +40970,10 @@
     </row>
     <row r="588">
       <c r="A588" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B588" t="s">
-        <v>198</v>
+        <v>938</v>
       </c>
       <c r="C588" s="0"/>
       <c r="D588" t="s">
@@ -40988,10 +40988,10 @@
     </row>
     <row r="589">
       <c r="A589" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B589" t="s">
-        <v>938</v>
+        <v>198</v>
       </c>
       <c r="C589" s="0"/>
       <c r="D589" t="s">
@@ -41202,10 +41202,10 @@
     </row>
     <row r="601">
       <c r="A601" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B601" t="s">
-        <v>1082</v>
+        <v>773</v>
       </c>
       <c r="C601" s="0"/>
       <c r="D601" t="s">
@@ -41220,10 +41220,10 @@
     </row>
     <row r="602">
       <c r="A602" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B602" t="s">
-        <v>773</v>
+        <v>1082</v>
       </c>
       <c r="C602" s="0"/>
       <c r="D602" t="s">
@@ -41310,10 +41310,10 @@
     </row>
     <row r="607">
       <c r="A607" t="s">
-        <v>750</v>
+        <v>1181</v>
       </c>
       <c r="B607" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="C607" s="0"/>
       <c r="D607" t="s">
@@ -41328,10 +41328,10 @@
     </row>
     <row r="608">
       <c r="A608" t="s">
-        <v>1181</v>
+        <v>750</v>
       </c>
       <c r="B608" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C608" s="0"/>
       <c r="D608" t="s">
@@ -41662,10 +41662,10 @@
     </row>
     <row r="627">
       <c r="A627" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B627" t="s">
-        <v>821</v>
+        <v>1100</v>
       </c>
       <c r="C627" s="0"/>
       <c r="D627" t="s">
@@ -41680,10 +41680,10 @@
     </row>
     <row r="628">
       <c r="A628" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B628" t="s">
-        <v>1100</v>
+        <v>821</v>
       </c>
       <c r="C628" s="0"/>
       <c r="D628" t="s">
@@ -41755,7 +41755,7 @@
         <v>748</v>
       </c>
       <c r="B632" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="C632" s="0"/>
       <c r="D632" t="s">
@@ -41773,7 +41773,7 @@
         <v>748</v>
       </c>
       <c r="B633" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="C633" s="0"/>
       <c r="D633" t="s">
@@ -41998,10 +41998,10 @@
     </row>
     <row r="646">
       <c r="A646" t="s">
-        <v>1181</v>
+        <v>750</v>
       </c>
       <c r="B646" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="C646" s="0"/>
       <c r="D646" t="s">
@@ -42016,10 +42016,10 @@
     </row>
     <row r="647">
       <c r="A647" t="s">
-        <v>750</v>
+        <v>1181</v>
       </c>
       <c r="B647" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="C647" s="0"/>
       <c r="D647" t="s">
@@ -43312,10 +43312,10 @@
     </row>
     <row r="720">
       <c r="A720" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B720" t="s">
-        <v>300</v>
+        <v>264</v>
       </c>
       <c r="C720" s="0"/>
       <c r="D720" t="s">
@@ -43328,10 +43328,10 @@
     </row>
     <row r="721">
       <c r="A721" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B721" t="s">
-        <v>264</v>
+        <v>300</v>
       </c>
       <c r="C721" s="0"/>
       <c r="D721" t="s">

--- a/Occupations/Occupations.xlsx
+++ b/Occupations/Occupations.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51758" uniqueCount="1183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86894" uniqueCount="1183">
   <si>
     <t>occupationname</t>
   </si>
@@ -30734,10 +30734,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>773</v>
       </c>
       <c r="C4" s="0"/>
       <c r="D4" t="s">
@@ -30752,10 +30752,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B5" t="s">
-        <v>773</v>
+        <v>48</v>
       </c>
       <c r="C5" s="0"/>
       <c r="D5" t="s">
@@ -30788,10 +30788,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="B7" t="s">
-        <v>262</v>
+        <v>775</v>
       </c>
       <c r="C7" s="0"/>
       <c r="D7" t="s">
@@ -30809,7 +30809,7 @@
         <v>748</v>
       </c>
       <c r="B8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C8" s="0"/>
       <c r="D8" t="s">
@@ -30824,10 +30824,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="B9" t="s">
-        <v>775</v>
+        <v>264</v>
       </c>
       <c r="C9" s="0"/>
       <c r="D9" t="s">
@@ -30842,10 +30842,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B10" t="s">
-        <v>776</v>
+        <v>262</v>
       </c>
       <c r="C10" s="0"/>
       <c r="D10" t="s">
@@ -30860,10 +30860,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B11" t="s">
-        <v>262</v>
+        <v>776</v>
       </c>
       <c r="C11" s="0"/>
       <c r="D11" t="s">
@@ -30950,10 +30950,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>1181</v>
+        <v>748</v>
       </c>
       <c r="B16" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C16" s="0"/>
       <c r="D16" t="s">
@@ -30966,10 +30966,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>748</v>
+        <v>1181</v>
       </c>
       <c r="B17" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C17" s="0"/>
       <c r="D17" t="s">
@@ -31016,10 +31016,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>1181</v>
+        <v>750</v>
       </c>
       <c r="B20" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C20" s="0"/>
       <c r="D20" t="s">
@@ -31034,10 +31034,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>750</v>
+        <v>1181</v>
       </c>
       <c r="B21" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C21" s="0"/>
       <c r="D21" t="s">
@@ -31158,10 +31158,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B28" t="s">
-        <v>776</v>
+        <v>264</v>
       </c>
       <c r="C28" s="0"/>
       <c r="D28" t="s">
@@ -31174,10 +31174,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B29" t="s">
-        <v>264</v>
+        <v>776</v>
       </c>
       <c r="C29" s="0"/>
       <c r="D29" t="s">
@@ -31190,10 +31190,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B30" t="s">
-        <v>775</v>
+        <v>463</v>
       </c>
       <c r="C30" s="0"/>
       <c r="D30" t="s">
@@ -31208,10 +31208,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B31" t="s">
-        <v>463</v>
+        <v>775</v>
       </c>
       <c r="C31" s="0"/>
       <c r="D31" t="s">
@@ -31283,7 +31283,7 @@
         <v>748</v>
       </c>
       <c r="B35" t="s">
-        <v>262</v>
+        <v>787</v>
       </c>
       <c r="C35" s="0"/>
       <c r="D35" t="s">
@@ -31299,7 +31299,7 @@
         <v>748</v>
       </c>
       <c r="B36" t="s">
-        <v>787</v>
+        <v>262</v>
       </c>
       <c r="C36" s="0"/>
       <c r="D36" t="s">
@@ -31312,10 +31312,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B37" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C37" s="0"/>
       <c r="D37" t="s">
@@ -31330,10 +31330,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B38" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C38" s="0"/>
       <c r="D38" t="s">
@@ -31459,7 +31459,7 @@
         <v>1181</v>
       </c>
       <c r="B45" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C45" s="0"/>
       <c r="D45" t="s">
@@ -31477,7 +31477,7 @@
         <v>1181</v>
       </c>
       <c r="B46" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C46" s="0"/>
       <c r="D46" t="s">
@@ -31844,10 +31844,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B67" t="s">
-        <v>624</v>
+        <v>280</v>
       </c>
       <c r="C67" s="0"/>
       <c r="D67" t="s">
@@ -31862,10 +31862,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B68" t="s">
-        <v>280</v>
+        <v>624</v>
       </c>
       <c r="C68" s="0"/>
       <c r="D68" t="s">
@@ -31880,10 +31880,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="B69" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C69" s="0"/>
       <c r="D69" t="s">
@@ -31896,10 +31896,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="B70" t="s">
-        <v>280</v>
+        <v>805</v>
       </c>
       <c r="C70" s="0"/>
       <c r="D70" t="s">
@@ -31915,7 +31915,7 @@
         <v>748</v>
       </c>
       <c r="B71" t="s">
-        <v>804</v>
+        <v>280</v>
       </c>
       <c r="C71" s="0"/>
       <c r="D71" t="s">
@@ -32084,10 +32084,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B81" t="s">
-        <v>811</v>
+        <v>309</v>
       </c>
       <c r="C81" s="0"/>
       <c r="D81" t="s">
@@ -32102,10 +32102,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B82" t="s">
-        <v>309</v>
+        <v>811</v>
       </c>
       <c r="C82" s="0"/>
       <c r="D82" t="s">
@@ -32258,10 +32258,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>1181</v>
+        <v>748</v>
       </c>
       <c r="B91" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="C91" s="0"/>
       <c r="D91" t="s">
@@ -32274,10 +32274,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>748</v>
+        <v>1181</v>
       </c>
       <c r="B92" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C92" s="0"/>
       <c r="D92" t="s">
@@ -32591,7 +32591,7 @@
         <v>750</v>
       </c>
       <c r="B110" t="s">
-        <v>821</v>
+        <v>827</v>
       </c>
       <c r="C110" s="0"/>
       <c r="D110" t="s">
@@ -32609,7 +32609,7 @@
         <v>750</v>
       </c>
       <c r="B111" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="C111" s="0"/>
       <c r="D111" t="s">
@@ -33386,10 +33386,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B156" t="s">
-        <v>789</v>
+        <v>262</v>
       </c>
       <c r="C156" s="0"/>
       <c r="D156" t="s">
@@ -33404,10 +33404,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B157" t="s">
-        <v>262</v>
+        <v>789</v>
       </c>
       <c r="C157" s="0"/>
       <c r="D157" t="s">
@@ -33658,10 +33658,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B172" t="s">
-        <v>821</v>
+        <v>286</v>
       </c>
       <c r="C172" s="0"/>
       <c r="D172" t="s">
@@ -33676,10 +33676,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B173" t="s">
-        <v>309</v>
+        <v>821</v>
       </c>
       <c r="C173" s="0"/>
       <c r="D173" t="s">
@@ -33694,10 +33694,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B174" t="s">
-        <v>286</v>
+        <v>309</v>
       </c>
       <c r="C174" s="0"/>
       <c r="D174" t="s">
@@ -33730,10 +33730,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>748</v>
+        <v>1181</v>
       </c>
       <c r="B176" t="s">
-        <v>817</v>
+        <v>842</v>
       </c>
       <c r="C176" s="0"/>
       <c r="D176" t="s">
@@ -33748,10 +33748,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>1181</v>
+        <v>748</v>
       </c>
       <c r="B177" t="s">
-        <v>842</v>
+        <v>817</v>
       </c>
       <c r="C177" s="0"/>
       <c r="D177" t="s">
@@ -33833,7 +33833,7 @@
         <v>750</v>
       </c>
       <c r="B182" t="s">
-        <v>822</v>
+        <v>851</v>
       </c>
       <c r="C182" s="0"/>
       <c r="D182" t="s">
@@ -33849,7 +33849,7 @@
         <v>750</v>
       </c>
       <c r="B183" t="s">
-        <v>851</v>
+        <v>822</v>
       </c>
       <c r="C183" s="0"/>
       <c r="D183" t="s">
@@ -33935,7 +33935,7 @@
         <v>748</v>
       </c>
       <c r="B188" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C188" s="0"/>
       <c r="D188" t="s">
@@ -33951,7 +33951,7 @@
         <v>748</v>
       </c>
       <c r="B189" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="C189" s="0"/>
       <c r="D189" t="s">
@@ -34140,10 +34140,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B200" t="s">
-        <v>860</v>
+        <v>786</v>
       </c>
       <c r="C200" s="0"/>
       <c r="D200" t="s">
@@ -34158,10 +34158,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B201" t="s">
-        <v>786</v>
+        <v>860</v>
       </c>
       <c r="C201" s="0"/>
       <c r="D201" t="s">
@@ -34176,10 +34176,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B202" t="s">
-        <v>786</v>
+        <v>860</v>
       </c>
       <c r="C202" s="0"/>
       <c r="D202" t="s">
@@ -34192,10 +34192,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B203" t="s">
-        <v>860</v>
+        <v>786</v>
       </c>
       <c r="C203" s="0"/>
       <c r="D203" t="s">
@@ -34382,10 +34382,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B214" t="s">
-        <v>867</v>
+        <v>535</v>
       </c>
       <c r="C214" s="0"/>
       <c r="D214" t="s">
@@ -34400,10 +34400,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B215" t="s">
-        <v>535</v>
+        <v>867</v>
       </c>
       <c r="C215" s="0"/>
       <c r="D215" t="s">
@@ -34682,10 +34682,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B231" t="s">
-        <v>517</v>
+        <v>324</v>
       </c>
       <c r="C231" s="0"/>
       <c r="D231" t="s">
@@ -34700,10 +34700,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B232" t="s">
-        <v>324</v>
+        <v>517</v>
       </c>
       <c r="C232" s="0"/>
       <c r="D232" t="s">
@@ -35309,7 +35309,7 @@
         <v>748</v>
       </c>
       <c r="B266" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="C266" s="0"/>
       <c r="D266" t="s">
@@ -35325,7 +35325,7 @@
         <v>748</v>
       </c>
       <c r="B267" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C267" s="0"/>
       <c r="D267" t="s">
@@ -35815,7 +35815,7 @@
         <v>748</v>
       </c>
       <c r="B295" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C295" s="0"/>
       <c r="D295" t="s">
@@ -35831,7 +35831,7 @@
         <v>748</v>
       </c>
       <c r="B296" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="C296" s="0"/>
       <c r="D296" t="s">
@@ -36523,7 +36523,7 @@
         <v>750</v>
       </c>
       <c r="B336" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="C336" s="0"/>
       <c r="D336" t="s">
@@ -36559,7 +36559,7 @@
         <v>750</v>
       </c>
       <c r="B338" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C338" s="0"/>
       <c r="D338" t="s">
@@ -36865,7 +36865,7 @@
         <v>750</v>
       </c>
       <c r="B355" t="s">
-        <v>946</v>
+        <v>316</v>
       </c>
       <c r="C355" s="0"/>
       <c r="D355" t="s">
@@ -36883,7 +36883,7 @@
         <v>750</v>
       </c>
       <c r="B356" t="s">
-        <v>316</v>
+        <v>946</v>
       </c>
       <c r="C356" s="0"/>
       <c r="D356" t="s">
@@ -37372,10 +37372,10 @@
     </row>
     <row r="384">
       <c r="A384" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B384" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="C384" s="0"/>
       <c r="D384" t="s">
@@ -37390,10 +37390,10 @@
     </row>
     <row r="385">
       <c r="A385" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B385" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C385" s="0"/>
       <c r="D385" t="s">
@@ -37642,10 +37642,10 @@
     </row>
     <row r="399">
       <c r="A399" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B399" t="s">
-        <v>967</v>
+        <v>198</v>
       </c>
       <c r="C399" s="0"/>
       <c r="D399" t="s">
@@ -37660,10 +37660,10 @@
     </row>
     <row r="400">
       <c r="A400" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B400" t="s">
-        <v>198</v>
+        <v>967</v>
       </c>
       <c r="C400" s="0"/>
       <c r="D400" t="s">
@@ -38312,10 +38312,10 @@
     </row>
     <row r="437">
       <c r="A437" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B437" t="s">
-        <v>790</v>
+        <v>264</v>
       </c>
       <c r="C437" s="0"/>
       <c r="D437" t="s">
@@ -38330,10 +38330,10 @@
     </row>
     <row r="438">
       <c r="A438" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B438" t="s">
-        <v>264</v>
+        <v>790</v>
       </c>
       <c r="C438" s="0"/>
       <c r="D438" t="s">
@@ -38441,7 +38441,7 @@
         <v>1181</v>
       </c>
       <c r="B444" t="s">
-        <v>727</v>
+        <v>275</v>
       </c>
       <c r="C444" s="0"/>
       <c r="D444" t="s">
@@ -38459,7 +38459,7 @@
         <v>1181</v>
       </c>
       <c r="B445" t="s">
-        <v>996</v>
+        <v>727</v>
       </c>
       <c r="C445" s="0"/>
       <c r="D445" t="s">
@@ -38477,7 +38477,7 @@
         <v>1181</v>
       </c>
       <c r="B446" t="s">
-        <v>275</v>
+        <v>996</v>
       </c>
       <c r="C446" s="0"/>
       <c r="D446" t="s">
@@ -38531,7 +38531,7 @@
         <v>748</v>
       </c>
       <c r="B449" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="C449" s="0"/>
       <c r="D449" t="s">
@@ -38549,7 +38549,7 @@
         <v>748</v>
       </c>
       <c r="B450" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="C450" s="0"/>
       <c r="D450" t="s">
@@ -38952,10 +38952,10 @@
     </row>
     <row r="473">
       <c r="A473" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="B473" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C473" s="0"/>
       <c r="D473" t="s">
@@ -38970,10 +38970,10 @@
     </row>
     <row r="474">
       <c r="A474" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="B474" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="C474" s="0"/>
       <c r="D474" t="s">
@@ -39058,10 +39058,10 @@
     </row>
     <row r="479">
       <c r="A479" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="B479" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C479" s="0"/>
       <c r="D479" t="s">
@@ -39074,10 +39074,10 @@
     </row>
     <row r="480">
       <c r="A480" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="B480" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="C480" s="0"/>
       <c r="D480" t="s">
@@ -39580,10 +39580,10 @@
     </row>
     <row r="509">
       <c r="A509" t="s">
-        <v>748</v>
+        <v>1181</v>
       </c>
       <c r="B509" t="s">
-        <v>689</v>
+        <v>547</v>
       </c>
       <c r="C509" s="0"/>
       <c r="D509" t="s">
@@ -39598,10 +39598,10 @@
     </row>
     <row r="510">
       <c r="A510" t="s">
-        <v>1181</v>
+        <v>748</v>
       </c>
       <c r="B510" t="s">
-        <v>547</v>
+        <v>689</v>
       </c>
       <c r="C510" s="0"/>
       <c r="D510" t="s">
@@ -39881,7 +39881,7 @@
         <v>750</v>
       </c>
       <c r="B526" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C526" s="0"/>
       <c r="D526" t="s">
@@ -39899,7 +39899,7 @@
         <v>750</v>
       </c>
       <c r="B527" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="C527" s="0"/>
       <c r="D527" t="s">
@@ -40477,7 +40477,7 @@
         <v>750</v>
       </c>
       <c r="B560" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="C560" s="0"/>
       <c r="D560" t="s">
@@ -40495,7 +40495,7 @@
         <v>750</v>
       </c>
       <c r="B561" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C561" s="0"/>
       <c r="D561" t="s">
@@ -40867,7 +40867,7 @@
         <v>748</v>
       </c>
       <c r="B582" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C582" s="0"/>
       <c r="D582" t="s">
@@ -40885,7 +40885,7 @@
         <v>748</v>
       </c>
       <c r="B583" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="C583" s="0"/>
       <c r="D583" t="s">
@@ -40970,10 +40970,10 @@
     </row>
     <row r="588">
       <c r="A588" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B588" t="s">
-        <v>938</v>
+        <v>198</v>
       </c>
       <c r="C588" s="0"/>
       <c r="D588" t="s">
@@ -40988,10 +40988,10 @@
     </row>
     <row r="589">
       <c r="A589" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B589" t="s">
-        <v>198</v>
+        <v>938</v>
       </c>
       <c r="C589" s="0"/>
       <c r="D589" t="s">
@@ -41202,10 +41202,10 @@
     </row>
     <row r="601">
       <c r="A601" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B601" t="s">
-        <v>773</v>
+        <v>1082</v>
       </c>
       <c r="C601" s="0"/>
       <c r="D601" t="s">
@@ -41220,10 +41220,10 @@
     </row>
     <row r="602">
       <c r="A602" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B602" t="s">
-        <v>1082</v>
+        <v>773</v>
       </c>
       <c r="C602" s="0"/>
       <c r="D602" t="s">
@@ -41452,10 +41452,10 @@
     </row>
     <row r="615">
       <c r="A615" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B615" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C615" s="0"/>
       <c r="D615" t="s">
@@ -41470,10 +41470,10 @@
     </row>
     <row r="616">
       <c r="A616" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B616" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="C616" s="0"/>
       <c r="D616" t="s">
@@ -41755,7 +41755,7 @@
         <v>748</v>
       </c>
       <c r="B632" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="C632" s="0"/>
       <c r="D632" t="s">
@@ -41773,7 +41773,7 @@
         <v>748</v>
       </c>
       <c r="B633" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="C633" s="0"/>
       <c r="D633" t="s">
@@ -41998,10 +41998,10 @@
     </row>
     <row r="646">
       <c r="A646" t="s">
-        <v>750</v>
+        <v>1181</v>
       </c>
       <c r="B646" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="C646" s="0"/>
       <c r="D646" t="s">
@@ -42016,10 +42016,10 @@
     </row>
     <row r="647">
       <c r="A647" t="s">
-        <v>1181</v>
+        <v>750</v>
       </c>
       <c r="B647" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="C647" s="0"/>
       <c r="D647" t="s">

--- a/Occupations/Occupations.xlsx
+++ b/Occupations/Occupations.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86894" uniqueCount="1183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111050" uniqueCount="1184">
   <si>
     <t>occupationname</t>
   </si>
@@ -3576,6 +3576,9 @@
   </si>
   <si>
     <t>kindofwork2020</t>
+  </si>
+  <si>
+    <t>kindofwork</t>
   </si>
 </sst>
 </file>
@@ -30678,7 +30681,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -30734,10 +30737,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B4" t="s">
-        <v>773</v>
+        <v>48</v>
       </c>
       <c r="C4" s="0"/>
       <c r="D4" t="s">
@@ -30752,10 +30755,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>773</v>
       </c>
       <c r="C5" s="0"/>
       <c r="D5" t="s">
@@ -30788,10 +30791,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="B7" t="s">
-        <v>775</v>
+        <v>262</v>
       </c>
       <c r="C7" s="0"/>
       <c r="D7" t="s">
@@ -30806,10 +30809,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="B8" t="s">
-        <v>262</v>
+        <v>775</v>
       </c>
       <c r="C8" s="0"/>
       <c r="D8" t="s">
@@ -30878,10 +30881,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B12" t="s">
-        <v>777</v>
+        <v>198</v>
       </c>
       <c r="C12" s="0"/>
       <c r="D12" t="s">
@@ -30896,10 +30899,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B13" t="s">
-        <v>198</v>
+        <v>777</v>
       </c>
       <c r="C13" s="0"/>
       <c r="D13" t="s">
@@ -30950,10 +30953,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>748</v>
+        <v>1181</v>
       </c>
       <c r="B16" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C16" s="0"/>
       <c r="D16" t="s">
@@ -30966,10 +30969,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>1181</v>
+        <v>748</v>
       </c>
       <c r="B17" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C17" s="0"/>
       <c r="D17" t="s">
@@ -31283,7 +31286,7 @@
         <v>748</v>
       </c>
       <c r="B35" t="s">
-        <v>787</v>
+        <v>262</v>
       </c>
       <c r="C35" s="0"/>
       <c r="D35" t="s">
@@ -31299,7 +31302,7 @@
         <v>748</v>
       </c>
       <c r="B36" t="s">
-        <v>262</v>
+        <v>787</v>
       </c>
       <c r="C36" s="0"/>
       <c r="D36" t="s">
@@ -31402,10 +31405,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B42" t="s">
-        <v>790</v>
+        <v>300</v>
       </c>
       <c r="C42" s="0"/>
       <c r="D42" t="s">
@@ -31420,10 +31423,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B43" t="s">
-        <v>300</v>
+        <v>790</v>
       </c>
       <c r="C43" s="0"/>
       <c r="D43" t="s">
@@ -31459,7 +31462,7 @@
         <v>1181</v>
       </c>
       <c r="B45" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C45" s="0"/>
       <c r="D45" t="s">
@@ -31477,7 +31480,7 @@
         <v>1181</v>
       </c>
       <c r="B46" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C46" s="0"/>
       <c r="D46" t="s">
@@ -31740,10 +31743,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B61" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C61" s="0"/>
       <c r="D61" t="s">
@@ -31758,10 +31761,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B62" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="C62" s="0"/>
       <c r="D62" t="s">
@@ -31844,10 +31847,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B67" t="s">
-        <v>280</v>
+        <v>624</v>
       </c>
       <c r="C67" s="0"/>
       <c r="D67" t="s">
@@ -31862,10 +31865,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B68" t="s">
-        <v>624</v>
+        <v>280</v>
       </c>
       <c r="C68" s="0"/>
       <c r="D68" t="s">
@@ -32120,10 +32123,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B83" t="s">
-        <v>286</v>
+        <v>309</v>
       </c>
       <c r="C83" s="0"/>
       <c r="D83" t="s">
@@ -32136,10 +32139,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B84" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="C84" s="0"/>
       <c r="D84" t="s">
@@ -32258,10 +32261,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>748</v>
+        <v>1181</v>
       </c>
       <c r="B91" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C91" s="0"/>
       <c r="D91" t="s">
@@ -32274,10 +32277,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>1181</v>
+        <v>748</v>
       </c>
       <c r="B92" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="C92" s="0"/>
       <c r="D92" t="s">
@@ -32934,10 +32937,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B130" t="s">
-        <v>804</v>
+        <v>47</v>
       </c>
       <c r="C130" s="0"/>
       <c r="D130" t="s">
@@ -32950,10 +32953,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B131" t="s">
-        <v>47</v>
+        <v>804</v>
       </c>
       <c r="C131" s="0"/>
       <c r="D131" t="s">
@@ -33456,10 +33459,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>1181</v>
+        <v>748</v>
       </c>
       <c r="B160" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="C160" s="0"/>
       <c r="D160" t="s">
@@ -33472,10 +33475,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>748</v>
+        <v>1181</v>
       </c>
       <c r="B161" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C161" s="0"/>
       <c r="D161" t="s">
@@ -33488,10 +33491,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>748</v>
+        <v>1181</v>
       </c>
       <c r="B162" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C162" s="0"/>
       <c r="D162" t="s">
@@ -33504,10 +33507,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>1181</v>
+        <v>748</v>
       </c>
       <c r="B163" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="C163" s="0"/>
       <c r="D163" t="s">
@@ -33520,10 +33523,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>749</v>
+        <v>1181</v>
       </c>
       <c r="B164" t="s">
-        <v>790</v>
+        <v>846</v>
       </c>
       <c r="C164" s="0"/>
       <c r="D164" t="s">
@@ -33538,10 +33541,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>1181</v>
+        <v>749</v>
       </c>
       <c r="B165" t="s">
-        <v>846</v>
+        <v>790</v>
       </c>
       <c r="C165" s="0"/>
       <c r="D165" t="s">
@@ -33676,10 +33679,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B173" t="s">
-        <v>821</v>
+        <v>309</v>
       </c>
       <c r="C173" s="0"/>
       <c r="D173" t="s">
@@ -33694,10 +33697,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B174" t="s">
-        <v>309</v>
+        <v>821</v>
       </c>
       <c r="C174" s="0"/>
       <c r="D174" t="s">
@@ -33730,10 +33733,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>1181</v>
+        <v>748</v>
       </c>
       <c r="B176" t="s">
-        <v>842</v>
+        <v>817</v>
       </c>
       <c r="C176" s="0"/>
       <c r="D176" t="s">
@@ -33748,10 +33751,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>748</v>
+        <v>1181</v>
       </c>
       <c r="B177" t="s">
-        <v>817</v>
+        <v>842</v>
       </c>
       <c r="C177" s="0"/>
       <c r="D177" t="s">
@@ -33782,10 +33785,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B179" t="s">
-        <v>780</v>
+        <v>820</v>
       </c>
       <c r="C179" s="0"/>
       <c r="D179" t="s">
@@ -33798,10 +33801,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B180" t="s">
-        <v>820</v>
+        <v>780</v>
       </c>
       <c r="C180" s="0"/>
       <c r="D180" t="s">
@@ -33833,7 +33836,7 @@
         <v>750</v>
       </c>
       <c r="B182" t="s">
-        <v>851</v>
+        <v>822</v>
       </c>
       <c r="C182" s="0"/>
       <c r="D182" t="s">
@@ -33849,7 +33852,7 @@
         <v>750</v>
       </c>
       <c r="B183" t="s">
-        <v>822</v>
+        <v>851</v>
       </c>
       <c r="C183" s="0"/>
       <c r="D183" t="s">
@@ -34176,10 +34179,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B202" t="s">
-        <v>860</v>
+        <v>786</v>
       </c>
       <c r="C202" s="0"/>
       <c r="D202" t="s">
@@ -34192,10 +34195,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B203" t="s">
-        <v>786</v>
+        <v>860</v>
       </c>
       <c r="C203" s="0"/>
       <c r="D203" t="s">
@@ -34382,10 +34385,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B214" t="s">
-        <v>535</v>
+        <v>867</v>
       </c>
       <c r="C214" s="0"/>
       <c r="D214" t="s">
@@ -34400,10 +34403,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B215" t="s">
-        <v>867</v>
+        <v>535</v>
       </c>
       <c r="C215" s="0"/>
       <c r="D215" t="s">
@@ -34754,10 +34757,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="B235" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="C235" s="0"/>
       <c r="D235" t="s">
@@ -34772,10 +34775,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
       <c r="B236" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C236" s="0"/>
       <c r="D236" t="s">
@@ -35499,7 +35502,7 @@
         <v>750</v>
       </c>
       <c r="B277" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C277" s="0"/>
       <c r="D277" t="s">
@@ -35517,7 +35520,7 @@
         <v>750</v>
       </c>
       <c r="B278" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="C278" s="0"/>
       <c r="D278" t="s">
@@ -35548,10 +35551,10 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B280" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C280" s="0"/>
       <c r="D280" t="s">
@@ -35564,10 +35567,10 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B281" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="C281" s="0"/>
       <c r="D281" t="s">
@@ -35815,7 +35818,7 @@
         <v>748</v>
       </c>
       <c r="B295" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="C295" s="0"/>
       <c r="D295" t="s">
@@ -35831,7 +35834,7 @@
         <v>748</v>
       </c>
       <c r="B296" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C296" s="0"/>
       <c r="D296" t="s">
@@ -35847,7 +35850,7 @@
         <v>748</v>
       </c>
       <c r="B297" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C297" s="0"/>
       <c r="D297" t="s">
@@ -36430,10 +36433,10 @@
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B331" t="s">
-        <v>324</v>
+        <v>517</v>
       </c>
       <c r="C331" s="0"/>
       <c r="D331" t="s">
@@ -36448,10 +36451,10 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B332" t="s">
-        <v>517</v>
+        <v>324</v>
       </c>
       <c r="C332" s="0"/>
       <c r="D332" t="s">
@@ -36523,7 +36526,7 @@
         <v>750</v>
       </c>
       <c r="B336" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="C336" s="0"/>
       <c r="D336" t="s">
@@ -36541,7 +36544,7 @@
         <v>750</v>
       </c>
       <c r="B337" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="C337" s="0"/>
       <c r="D337" t="s">
@@ -36559,7 +36562,7 @@
         <v>750</v>
       </c>
       <c r="B338" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="C338" s="0"/>
       <c r="D338" t="s">
@@ -37642,10 +37645,10 @@
     </row>
     <row r="399">
       <c r="A399" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B399" t="s">
-        <v>198</v>
+        <v>967</v>
       </c>
       <c r="C399" s="0"/>
       <c r="D399" t="s">
@@ -37660,10 +37663,10 @@
     </row>
     <row r="400">
       <c r="A400" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B400" t="s">
-        <v>967</v>
+        <v>198</v>
       </c>
       <c r="C400" s="0"/>
       <c r="D400" t="s">
@@ -38064,10 +38067,10 @@
     </row>
     <row r="423">
       <c r="A423" t="s">
-        <v>752</v>
+        <v>1181</v>
       </c>
       <c r="B423" t="s">
-        <v>979</v>
+        <v>984</v>
       </c>
       <c r="C423" s="0"/>
       <c r="D423" t="s">
@@ -38082,10 +38085,10 @@
     </row>
     <row r="424">
       <c r="A424" t="s">
-        <v>1181</v>
+        <v>752</v>
       </c>
       <c r="B424" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="C424" s="0"/>
       <c r="D424" t="s">
@@ -38172,10 +38175,10 @@
     </row>
     <row r="429">
       <c r="A429" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B429" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="C429" s="0"/>
       <c r="D429" t="s">
@@ -38188,10 +38191,10 @@
     </row>
     <row r="430">
       <c r="A430" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B430" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C430" s="0"/>
       <c r="D430" t="s">
@@ -38312,10 +38315,10 @@
     </row>
     <row r="437">
       <c r="A437" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B437" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C437" s="0"/>
       <c r="D437" t="s">
@@ -38330,10 +38333,10 @@
     </row>
     <row r="438">
       <c r="A438" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B438" t="s">
-        <v>790</v>
+        <v>264</v>
       </c>
       <c r="C438" s="0"/>
       <c r="D438" t="s">
@@ -38348,10 +38351,10 @@
     </row>
     <row r="439">
       <c r="A439" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B439" t="s">
-        <v>262</v>
+        <v>790</v>
       </c>
       <c r="C439" s="0"/>
       <c r="D439" t="s">
@@ -38531,7 +38534,7 @@
         <v>748</v>
       </c>
       <c r="B449" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="C449" s="0"/>
       <c r="D449" t="s">
@@ -38549,7 +38552,7 @@
         <v>748</v>
       </c>
       <c r="B450" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="C450" s="0"/>
       <c r="D450" t="s">
@@ -38862,10 +38865,10 @@
     </row>
     <row r="468">
       <c r="A468" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="B468" t="s">
-        <v>1009</v>
+        <v>802</v>
       </c>
       <c r="C468" s="0"/>
       <c r="D468" t="s">
@@ -38880,10 +38883,10 @@
     </row>
     <row r="469">
       <c r="A469" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="B469" t="s">
-        <v>802</v>
+        <v>1009</v>
       </c>
       <c r="C469" s="0"/>
       <c r="D469" t="s">
@@ -38934,10 +38937,10 @@
     </row>
     <row r="472">
       <c r="A472" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B472" t="s">
-        <v>448</v>
+        <v>1013</v>
       </c>
       <c r="C472" s="0"/>
       <c r="D472" t="s">
@@ -38970,10 +38973,10 @@
     </row>
     <row r="474">
       <c r="A474" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B474" t="s">
-        <v>1013</v>
+        <v>448</v>
       </c>
       <c r="C474" s="0"/>
       <c r="D474" t="s">
@@ -39058,10 +39061,10 @@
     </row>
     <row r="479">
       <c r="A479" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="B479" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="C479" s="0"/>
       <c r="D479" t="s">
@@ -39074,10 +39077,10 @@
     </row>
     <row r="480">
       <c r="A480" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="B480" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C480" s="0"/>
       <c r="D480" t="s">
@@ -39580,10 +39583,10 @@
     </row>
     <row r="509">
       <c r="A509" t="s">
-        <v>1181</v>
+        <v>748</v>
       </c>
       <c r="B509" t="s">
-        <v>547</v>
+        <v>689</v>
       </c>
       <c r="C509" s="0"/>
       <c r="D509" t="s">
@@ -39598,10 +39601,10 @@
     </row>
     <row r="510">
       <c r="A510" t="s">
-        <v>748</v>
+        <v>1181</v>
       </c>
       <c r="B510" t="s">
-        <v>689</v>
+        <v>547</v>
       </c>
       <c r="C510" s="0"/>
       <c r="D510" t="s">
@@ -39881,7 +39884,7 @@
         <v>750</v>
       </c>
       <c r="B526" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="C526" s="0"/>
       <c r="D526" t="s">
@@ -39899,7 +39902,7 @@
         <v>750</v>
       </c>
       <c r="B527" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C527" s="0"/>
       <c r="D527" t="s">
@@ -40016,10 +40019,10 @@
     </row>
     <row r="534">
       <c r="A534" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B534" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="C534" s="0"/>
       <c r="D534" t="s">
@@ -40034,10 +40037,10 @@
     </row>
     <row r="535">
       <c r="A535" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B535" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="C535" s="0"/>
       <c r="D535" t="s">
@@ -40052,10 +40055,10 @@
     </row>
     <row r="536">
       <c r="A536" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B536" t="s">
-        <v>987</v>
+        <v>1048</v>
       </c>
       <c r="C536" s="0"/>
       <c r="D536" t="s">
@@ -40070,10 +40073,10 @@
     </row>
     <row r="537">
       <c r="A537" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B537" t="s">
-        <v>1048</v>
+        <v>987</v>
       </c>
       <c r="C537" s="0"/>
       <c r="D537" t="s">
@@ -40774,10 +40777,10 @@
     </row>
     <row r="577">
       <c r="A577" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B577" t="s">
-        <v>548</v>
+        <v>1068</v>
       </c>
       <c r="C577" s="0"/>
       <c r="D577" t="s">
@@ -40792,10 +40795,10 @@
     </row>
     <row r="578">
       <c r="A578" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B578" t="s">
-        <v>1068</v>
+        <v>548</v>
       </c>
       <c r="C578" s="0"/>
       <c r="D578" t="s">
@@ -40867,7 +40870,7 @@
         <v>748</v>
       </c>
       <c r="B582" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="C582" s="0"/>
       <c r="D582" t="s">
@@ -40885,7 +40888,7 @@
         <v>748</v>
       </c>
       <c r="B583" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C583" s="0"/>
       <c r="D583" t="s">
@@ -41310,10 +41313,10 @@
     </row>
     <row r="607">
       <c r="A607" t="s">
-        <v>1181</v>
+        <v>750</v>
       </c>
       <c r="B607" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C607" s="0"/>
       <c r="D607" t="s">
@@ -41328,10 +41331,10 @@
     </row>
     <row r="608">
       <c r="A608" t="s">
-        <v>750</v>
+        <v>1181</v>
       </c>
       <c r="B608" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="C608" s="0"/>
       <c r="D608" t="s">
@@ -41452,10 +41455,10 @@
     </row>
     <row r="615">
       <c r="A615" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B615" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="C615" s="0"/>
       <c r="D615" t="s">
@@ -41470,10 +41473,10 @@
     </row>
     <row r="616">
       <c r="A616" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B616" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C616" s="0"/>
       <c r="D616" t="s">
@@ -41662,10 +41665,10 @@
     </row>
     <row r="627">
       <c r="A627" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B627" t="s">
-        <v>1100</v>
+        <v>821</v>
       </c>
       <c r="C627" s="0"/>
       <c r="D627" t="s">
@@ -41680,10 +41683,10 @@
     </row>
     <row r="628">
       <c r="A628" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B628" t="s">
-        <v>821</v>
+        <v>1100</v>
       </c>
       <c r="C628" s="0"/>
       <c r="D628" t="s">
@@ -41755,7 +41758,7 @@
         <v>748</v>
       </c>
       <c r="B632" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="C632" s="0"/>
       <c r="D632" t="s">
@@ -41773,7 +41776,7 @@
         <v>748</v>
       </c>
       <c r="B633" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="C633" s="0"/>
       <c r="D633" t="s">
@@ -41838,10 +41841,10 @@
     </row>
     <row r="637">
       <c r="A637" t="s">
-        <v>750</v>
+        <v>1181</v>
       </c>
       <c r="B637" t="s">
-        <v>262</v>
+        <v>973</v>
       </c>
       <c r="C637" s="0"/>
       <c r="D637" t="s">
@@ -41856,10 +41859,10 @@
     </row>
     <row r="638">
       <c r="A638" t="s">
-        <v>1181</v>
+        <v>750</v>
       </c>
       <c r="B638" t="s">
-        <v>973</v>
+        <v>262</v>
       </c>
       <c r="C638" s="0"/>
       <c r="D638" t="s">
@@ -43116,10 +43119,10 @@
     </row>
     <row r="709">
       <c r="A709" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="B709" t="s">
-        <v>278</v>
+        <v>1164</v>
       </c>
       <c r="C709" s="0"/>
       <c r="D709" t="s">
@@ -43134,10 +43137,10 @@
     </row>
     <row r="710">
       <c r="A710" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="B710" t="s">
-        <v>1164</v>
+        <v>278</v>
       </c>
       <c r="C710" s="0"/>
       <c r="D710" t="s">
@@ -43312,10 +43315,10 @@
     </row>
     <row r="720">
       <c r="A720" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B720" t="s">
-        <v>264</v>
+        <v>300</v>
       </c>
       <c r="C720" s="0"/>
       <c r="D720" t="s">
@@ -43328,10 +43331,10 @@
     </row>
     <row r="721">
       <c r="A721" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B721" t="s">
-        <v>300</v>
+        <v>264</v>
       </c>
       <c r="C721" s="0"/>
       <c r="D721" t="s">

--- a/Occupations/Occupations.xlsx
+++ b/Occupations/Occupations.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111050" uniqueCount="1184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115442" uniqueCount="1184">
   <si>
     <t>occupationname</t>
   </si>
@@ -30845,10 +30845,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B10" t="s">
-        <v>262</v>
+        <v>776</v>
       </c>
       <c r="C10" s="0"/>
       <c r="D10" t="s">
@@ -30863,10 +30863,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B11" t="s">
-        <v>776</v>
+        <v>262</v>
       </c>
       <c r="C11" s="0"/>
       <c r="D11" t="s">
@@ -30881,10 +30881,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B12" t="s">
-        <v>198</v>
+        <v>777</v>
       </c>
       <c r="C12" s="0"/>
       <c r="D12" t="s">
@@ -30899,10 +30899,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B13" t="s">
-        <v>777</v>
+        <v>198</v>
       </c>
       <c r="C13" s="0"/>
       <c r="D13" t="s">
@@ -30953,10 +30953,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>1181</v>
+        <v>748</v>
       </c>
       <c r="B16" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C16" s="0"/>
       <c r="D16" t="s">
@@ -30969,10 +30969,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>748</v>
+        <v>1181</v>
       </c>
       <c r="B17" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C17" s="0"/>
       <c r="D17" t="s">
@@ -31019,10 +31019,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>750</v>
+        <v>1181</v>
       </c>
       <c r="B20" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C20" s="0"/>
       <c r="D20" t="s">
@@ -31037,10 +31037,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>1181</v>
+        <v>750</v>
       </c>
       <c r="B21" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C21" s="0"/>
       <c r="D21" t="s">
@@ -31247,10 +31247,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B33" t="s">
-        <v>685</v>
+        <v>780</v>
       </c>
       <c r="C33" s="0"/>
       <c r="D33" t="s">
@@ -31265,10 +31265,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B34" t="s">
-        <v>780</v>
+        <v>685</v>
       </c>
       <c r="C34" s="0"/>
       <c r="D34" t="s">
@@ -31286,7 +31286,7 @@
         <v>748</v>
       </c>
       <c r="B35" t="s">
-        <v>262</v>
+        <v>787</v>
       </c>
       <c r="C35" s="0"/>
       <c r="D35" t="s">
@@ -31302,7 +31302,7 @@
         <v>748</v>
       </c>
       <c r="B36" t="s">
-        <v>787</v>
+        <v>262</v>
       </c>
       <c r="C36" s="0"/>
       <c r="D36" t="s">
@@ -31405,10 +31405,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B42" t="s">
-        <v>300</v>
+        <v>790</v>
       </c>
       <c r="C42" s="0"/>
       <c r="D42" t="s">
@@ -31423,10 +31423,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B43" t="s">
-        <v>790</v>
+        <v>300</v>
       </c>
       <c r="C43" s="0"/>
       <c r="D43" t="s">
@@ -31462,7 +31462,7 @@
         <v>1181</v>
       </c>
       <c r="B45" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C45" s="0"/>
       <c r="D45" t="s">
@@ -31480,7 +31480,7 @@
         <v>1181</v>
       </c>
       <c r="B46" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C46" s="0"/>
       <c r="D46" t="s">
@@ -31743,10 +31743,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B61" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="C61" s="0"/>
       <c r="D61" t="s">
@@ -31761,10 +31761,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B62" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C62" s="0"/>
       <c r="D62" t="s">
@@ -31829,10 +31829,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B66" t="s">
-        <v>804</v>
+        <v>624</v>
       </c>
       <c r="C66" s="0"/>
       <c r="D66" t="s">
@@ -31847,10 +31847,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B67" t="s">
-        <v>624</v>
+        <v>280</v>
       </c>
       <c r="C67" s="0"/>
       <c r="D67" t="s">
@@ -31865,10 +31865,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B68" t="s">
-        <v>280</v>
+        <v>804</v>
       </c>
       <c r="C68" s="0"/>
       <c r="D68" t="s">
@@ -31883,10 +31883,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="B69" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C69" s="0"/>
       <c r="D69" t="s">
@@ -31899,10 +31899,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="B70" t="s">
-        <v>805</v>
+        <v>280</v>
       </c>
       <c r="C70" s="0"/>
       <c r="D70" t="s">
@@ -31918,7 +31918,7 @@
         <v>748</v>
       </c>
       <c r="B71" t="s">
-        <v>280</v>
+        <v>804</v>
       </c>
       <c r="C71" s="0"/>
       <c r="D71" t="s">
@@ -32261,10 +32261,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>1181</v>
+        <v>748</v>
       </c>
       <c r="B91" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="C91" s="0"/>
       <c r="D91" t="s">
@@ -32277,10 +32277,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>748</v>
+        <v>1181</v>
       </c>
       <c r="B92" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C92" s="0"/>
       <c r="D92" t="s">
@@ -32661,10 +32661,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="B114" t="s">
-        <v>805</v>
+        <v>47</v>
       </c>
       <c r="C114" s="0"/>
       <c r="D114" t="s">
@@ -32679,10 +32679,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="B115" t="s">
-        <v>47</v>
+        <v>805</v>
       </c>
       <c r="C115" s="0"/>
       <c r="D115" t="s">
@@ -32849,10 +32849,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B125" t="s">
-        <v>300</v>
+        <v>791</v>
       </c>
       <c r="C125" s="0"/>
       <c r="D125" t="s">
@@ -32867,10 +32867,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B126" t="s">
-        <v>791</v>
+        <v>300</v>
       </c>
       <c r="C126" s="0"/>
       <c r="D126" t="s">
@@ -32937,10 +32937,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B130" t="s">
-        <v>47</v>
+        <v>804</v>
       </c>
       <c r="C130" s="0"/>
       <c r="D130" t="s">
@@ -32953,10 +32953,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B131" t="s">
-        <v>804</v>
+        <v>47</v>
       </c>
       <c r="C131" s="0"/>
       <c r="D131" t="s">
@@ -33321,10 +33321,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B152" t="s">
-        <v>813</v>
+        <v>282</v>
       </c>
       <c r="C152" s="0"/>
       <c r="D152" t="s">
@@ -33339,10 +33339,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B153" t="s">
-        <v>282</v>
+        <v>813</v>
       </c>
       <c r="C153" s="0"/>
       <c r="D153" t="s">
@@ -33389,10 +33389,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B156" t="s">
-        <v>262</v>
+        <v>789</v>
       </c>
       <c r="C156" s="0"/>
       <c r="D156" t="s">
@@ -33407,10 +33407,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B157" t="s">
-        <v>789</v>
+        <v>262</v>
       </c>
       <c r="C157" s="0"/>
       <c r="D157" t="s">
@@ -33491,10 +33491,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>1181</v>
+        <v>748</v>
       </c>
       <c r="B162" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="C162" s="0"/>
       <c r="D162" t="s">
@@ -33507,10 +33507,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>748</v>
+        <v>1181</v>
       </c>
       <c r="B163" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C163" s="0"/>
       <c r="D163" t="s">
@@ -33523,10 +33523,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>1181</v>
+        <v>749</v>
       </c>
       <c r="B164" t="s">
-        <v>846</v>
+        <v>790</v>
       </c>
       <c r="C164" s="0"/>
       <c r="D164" t="s">
@@ -33541,10 +33541,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>749</v>
+        <v>1181</v>
       </c>
       <c r="B165" t="s">
-        <v>790</v>
+        <v>846</v>
       </c>
       <c r="C165" s="0"/>
       <c r="D165" t="s">
@@ -33661,10 +33661,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B172" t="s">
-        <v>286</v>
+        <v>821</v>
       </c>
       <c r="C172" s="0"/>
       <c r="D172" t="s">
@@ -33697,10 +33697,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B174" t="s">
-        <v>821</v>
+        <v>286</v>
       </c>
       <c r="C174" s="0"/>
       <c r="D174" t="s">
@@ -33785,10 +33785,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B179" t="s">
-        <v>820</v>
+        <v>780</v>
       </c>
       <c r="C179" s="0"/>
       <c r="D179" t="s">
@@ -33801,10 +33801,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B180" t="s">
-        <v>780</v>
+        <v>820</v>
       </c>
       <c r="C180" s="0"/>
       <c r="D180" t="s">
@@ -34143,10 +34143,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B200" t="s">
-        <v>786</v>
+        <v>860</v>
       </c>
       <c r="C200" s="0"/>
       <c r="D200" t="s">
@@ -34161,10 +34161,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B201" t="s">
-        <v>860</v>
+        <v>786</v>
       </c>
       <c r="C201" s="0"/>
       <c r="D201" t="s">
@@ -34385,10 +34385,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B214" t="s">
-        <v>867</v>
+        <v>535</v>
       </c>
       <c r="C214" s="0"/>
       <c r="D214" t="s">
@@ -34403,10 +34403,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B215" t="s">
-        <v>535</v>
+        <v>867</v>
       </c>
       <c r="C215" s="0"/>
       <c r="D215" t="s">
@@ -34633,10 +34633,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>748</v>
+        <v>1181</v>
       </c>
       <c r="B228" t="s">
-        <v>823</v>
+        <v>875</v>
       </c>
       <c r="C228" s="0"/>
       <c r="D228" t="s">
@@ -34651,10 +34651,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>1181</v>
+        <v>748</v>
       </c>
       <c r="B229" t="s">
-        <v>875</v>
+        <v>823</v>
       </c>
       <c r="C229" s="0"/>
       <c r="D229" t="s">
@@ -34685,10 +34685,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B231" t="s">
-        <v>324</v>
+        <v>517</v>
       </c>
       <c r="C231" s="0"/>
       <c r="D231" t="s">
@@ -34703,10 +34703,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B232" t="s">
-        <v>517</v>
+        <v>324</v>
       </c>
       <c r="C232" s="0"/>
       <c r="D232" t="s">
@@ -34757,10 +34757,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
       <c r="B235" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C235" s="0"/>
       <c r="D235" t="s">
@@ -34775,10 +34775,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="B236" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="C236" s="0"/>
       <c r="D236" t="s">
@@ -35312,7 +35312,7 @@
         <v>748</v>
       </c>
       <c r="B266" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C266" s="0"/>
       <c r="D266" t="s">
@@ -35328,7 +35328,7 @@
         <v>748</v>
       </c>
       <c r="B267" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="C267" s="0"/>
       <c r="D267" t="s">
@@ -35551,10 +35551,10 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B280" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="C280" s="0"/>
       <c r="D280" t="s">
@@ -35567,10 +35567,10 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B281" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C281" s="0"/>
       <c r="D281" t="s">
@@ -35599,10 +35599,10 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="B283" t="s">
-        <v>904</v>
+        <v>278</v>
       </c>
       <c r="C283" s="0"/>
       <c r="D283" t="s">
@@ -35617,10 +35617,10 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="B284" t="s">
-        <v>278</v>
+        <v>904</v>
       </c>
       <c r="C284" s="0"/>
       <c r="D284" t="s">
@@ -35818,7 +35818,7 @@
         <v>748</v>
       </c>
       <c r="B295" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C295" s="0"/>
       <c r="D295" t="s">
@@ -35850,7 +35850,7 @@
         <v>748</v>
       </c>
       <c r="B297" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="C297" s="0"/>
       <c r="D297" t="s">
@@ -36433,10 +36433,10 @@
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B331" t="s">
-        <v>517</v>
+        <v>324</v>
       </c>
       <c r="C331" s="0"/>
       <c r="D331" t="s">
@@ -36451,10 +36451,10 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B332" t="s">
-        <v>324</v>
+        <v>517</v>
       </c>
       <c r="C332" s="0"/>
       <c r="D332" t="s">
@@ -36526,7 +36526,7 @@
         <v>750</v>
       </c>
       <c r="B336" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="C336" s="0"/>
       <c r="D336" t="s">
@@ -36562,7 +36562,7 @@
         <v>750</v>
       </c>
       <c r="B338" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="C338" s="0"/>
       <c r="D338" t="s">
@@ -36739,10 +36739,10 @@
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>750</v>
+        <v>1181</v>
       </c>
       <c r="B348" t="s">
-        <v>278</v>
+        <v>899</v>
       </c>
       <c r="C348" s="0"/>
       <c r="D348" t="s">
@@ -36757,10 +36757,10 @@
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>1181</v>
+        <v>750</v>
       </c>
       <c r="B349" t="s">
-        <v>899</v>
+        <v>278</v>
       </c>
       <c r="C349" s="0"/>
       <c r="D349" t="s">
@@ -37645,10 +37645,10 @@
     </row>
     <row r="399">
       <c r="A399" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B399" t="s">
-        <v>967</v>
+        <v>198</v>
       </c>
       <c r="C399" s="0"/>
       <c r="D399" t="s">
@@ -37663,10 +37663,10 @@
     </row>
     <row r="400">
       <c r="A400" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B400" t="s">
-        <v>198</v>
+        <v>967</v>
       </c>
       <c r="C400" s="0"/>
       <c r="D400" t="s">
@@ -38067,10 +38067,10 @@
     </row>
     <row r="423">
       <c r="A423" t="s">
-        <v>1181</v>
+        <v>752</v>
       </c>
       <c r="B423" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="C423" s="0"/>
       <c r="D423" t="s">
@@ -38085,10 +38085,10 @@
     </row>
     <row r="424">
       <c r="A424" t="s">
-        <v>752</v>
+        <v>1181</v>
       </c>
       <c r="B424" t="s">
-        <v>979</v>
+        <v>984</v>
       </c>
       <c r="C424" s="0"/>
       <c r="D424" t="s">
@@ -38175,10 +38175,10 @@
     </row>
     <row r="429">
       <c r="A429" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B429" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C429" s="0"/>
       <c r="D429" t="s">
@@ -38191,10 +38191,10 @@
     </row>
     <row r="430">
       <c r="A430" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B430" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="C430" s="0"/>
       <c r="D430" t="s">
@@ -38444,7 +38444,7 @@
         <v>1181</v>
       </c>
       <c r="B444" t="s">
-        <v>275</v>
+        <v>996</v>
       </c>
       <c r="C444" s="0"/>
       <c r="D444" t="s">
@@ -38480,7 +38480,7 @@
         <v>1181</v>
       </c>
       <c r="B446" t="s">
-        <v>996</v>
+        <v>275</v>
       </c>
       <c r="C446" s="0"/>
       <c r="D446" t="s">
@@ -38534,7 +38534,7 @@
         <v>748</v>
       </c>
       <c r="B449" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="C449" s="0"/>
       <c r="D449" t="s">
@@ -38552,7 +38552,7 @@
         <v>748</v>
       </c>
       <c r="B450" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="C450" s="0"/>
       <c r="D450" t="s">
@@ -38672,7 +38672,7 @@
         <v>748</v>
       </c>
       <c r="B457" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="C457" s="0"/>
       <c r="D457" t="s">
@@ -38690,7 +38690,7 @@
         <v>748</v>
       </c>
       <c r="B458" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C458" s="0"/>
       <c r="D458" t="s">
@@ -38865,10 +38865,10 @@
     </row>
     <row r="468">
       <c r="A468" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="B468" t="s">
-        <v>802</v>
+        <v>1009</v>
       </c>
       <c r="C468" s="0"/>
       <c r="D468" t="s">
@@ -38883,10 +38883,10 @@
     </row>
     <row r="469">
       <c r="A469" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="B469" t="s">
-        <v>1009</v>
+        <v>802</v>
       </c>
       <c r="C469" s="0"/>
       <c r="D469" t="s">
@@ -38955,10 +38955,10 @@
     </row>
     <row r="473">
       <c r="A473" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B473" t="s">
-        <v>1012</v>
+        <v>448</v>
       </c>
       <c r="C473" s="0"/>
       <c r="D473" t="s">
@@ -38973,10 +38973,10 @@
     </row>
     <row r="474">
       <c r="A474" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B474" t="s">
-        <v>448</v>
+        <v>1012</v>
       </c>
       <c r="C474" s="0"/>
       <c r="D474" t="s">
@@ -39061,10 +39061,10 @@
     </row>
     <row r="479">
       <c r="A479" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="B479" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C479" s="0"/>
       <c r="D479" t="s">
@@ -39077,10 +39077,10 @@
     </row>
     <row r="480">
       <c r="A480" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="B480" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="C480" s="0"/>
       <c r="D480" t="s">
@@ -39583,10 +39583,10 @@
     </row>
     <row r="509">
       <c r="A509" t="s">
-        <v>748</v>
+        <v>1181</v>
       </c>
       <c r="B509" t="s">
-        <v>689</v>
+        <v>547</v>
       </c>
       <c r="C509" s="0"/>
       <c r="D509" t="s">
@@ -39601,10 +39601,10 @@
     </row>
     <row r="510">
       <c r="A510" t="s">
-        <v>1181</v>
+        <v>748</v>
       </c>
       <c r="B510" t="s">
-        <v>547</v>
+        <v>689</v>
       </c>
       <c r="C510" s="0"/>
       <c r="D510" t="s">
@@ -39884,7 +39884,7 @@
         <v>750</v>
       </c>
       <c r="B526" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C526" s="0"/>
       <c r="D526" t="s">
@@ -39902,7 +39902,7 @@
         <v>750</v>
       </c>
       <c r="B527" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="C527" s="0"/>
       <c r="D527" t="s">
@@ -40055,10 +40055,10 @@
     </row>
     <row r="536">
       <c r="A536" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B536" t="s">
-        <v>1048</v>
+        <v>987</v>
       </c>
       <c r="C536" s="0"/>
       <c r="D536" t="s">
@@ -40073,10 +40073,10 @@
     </row>
     <row r="537">
       <c r="A537" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B537" t="s">
-        <v>987</v>
+        <v>1048</v>
       </c>
       <c r="C537" s="0"/>
       <c r="D537" t="s">
@@ -40777,10 +40777,10 @@
     </row>
     <row r="577">
       <c r="A577" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B577" t="s">
-        <v>1068</v>
+        <v>548</v>
       </c>
       <c r="C577" s="0"/>
       <c r="D577" t="s">
@@ -40795,10 +40795,10 @@
     </row>
     <row r="578">
       <c r="A578" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B578" t="s">
-        <v>548</v>
+        <v>1068</v>
       </c>
       <c r="C578" s="0"/>
       <c r="D578" t="s">
@@ -40870,7 +40870,7 @@
         <v>748</v>
       </c>
       <c r="B582" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C582" s="0"/>
       <c r="D582" t="s">
@@ -40888,7 +40888,7 @@
         <v>748</v>
       </c>
       <c r="B583" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="C583" s="0"/>
       <c r="D583" t="s">
@@ -40973,10 +40973,10 @@
     </row>
     <row r="588">
       <c r="A588" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B588" t="s">
-        <v>198</v>
+        <v>938</v>
       </c>
       <c r="C588" s="0"/>
       <c r="D588" t="s">
@@ -40991,10 +40991,10 @@
     </row>
     <row r="589">
       <c r="A589" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B589" t="s">
-        <v>938</v>
+        <v>198</v>
       </c>
       <c r="C589" s="0"/>
       <c r="D589" t="s">
@@ -41277,10 +41277,10 @@
     </row>
     <row r="605">
       <c r="A605" t="s">
-        <v>750</v>
+        <v>1181</v>
       </c>
       <c r="B605" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C605" s="0"/>
       <c r="D605" t="s">
@@ -41295,10 +41295,10 @@
     </row>
     <row r="606">
       <c r="A606" t="s">
-        <v>1181</v>
+        <v>750</v>
       </c>
       <c r="B606" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="C606" s="0"/>
       <c r="D606" t="s">
@@ -41455,10 +41455,10 @@
     </row>
     <row r="615">
       <c r="A615" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B615" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C615" s="0"/>
       <c r="D615" t="s">
@@ -41473,10 +41473,10 @@
     </row>
     <row r="616">
       <c r="A616" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B616" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="C616" s="0"/>
       <c r="D616" t="s">
@@ -41758,7 +41758,7 @@
         <v>748</v>
       </c>
       <c r="B632" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="C632" s="0"/>
       <c r="D632" t="s">
@@ -41776,7 +41776,7 @@
         <v>748</v>
       </c>
       <c r="B633" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="C633" s="0"/>
       <c r="D633" t="s">
@@ -42001,10 +42001,10 @@
     </row>
     <row r="646">
       <c r="A646" t="s">
-        <v>1181</v>
+        <v>750</v>
       </c>
       <c r="B646" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="C646" s="0"/>
       <c r="D646" t="s">
@@ -42019,10 +42019,10 @@
     </row>
     <row r="647">
       <c r="A647" t="s">
-        <v>750</v>
+        <v>1181</v>
       </c>
       <c r="B647" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="C647" s="0"/>
       <c r="D647" t="s">
@@ -42887,10 +42887,10 @@
     </row>
     <row r="696">
       <c r="A696" t="s">
-        <v>750</v>
+        <v>1181</v>
       </c>
       <c r="B696" t="s">
-        <v>1155</v>
+        <v>1111</v>
       </c>
       <c r="C696" s="0"/>
       <c r="D696" t="s">
@@ -42905,10 +42905,10 @@
     </row>
     <row r="697">
       <c r="A697" t="s">
-        <v>1181</v>
+        <v>750</v>
       </c>
       <c r="B697" t="s">
-        <v>1111</v>
+        <v>1155</v>
       </c>
       <c r="C697" s="0"/>
       <c r="D697" t="s">
@@ -43264,7 +43264,7 @@
         <v>750</v>
       </c>
       <c r="B717" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="C717" s="0"/>
       <c r="D717" t="s">
@@ -43282,7 +43282,7 @@
         <v>750</v>
       </c>
       <c r="B718" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C718" s="0"/>
       <c r="D718" t="s">

--- a/Occupations/Occupations.xlsx
+++ b/Occupations/Occupations.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115442" uniqueCount="1184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135206" uniqueCount="1184">
   <si>
     <t>occupationname</t>
   </si>
@@ -30737,10 +30737,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>773</v>
       </c>
       <c r="C4" s="0"/>
       <c r="D4" t="s">
@@ -30755,10 +30755,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B5" t="s">
-        <v>773</v>
+        <v>48</v>
       </c>
       <c r="C5" s="0"/>
       <c r="D5" t="s">
@@ -30794,7 +30794,7 @@
         <v>748</v>
       </c>
       <c r="B7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C7" s="0"/>
       <c r="D7" t="s">
@@ -30830,7 +30830,7 @@
         <v>748</v>
       </c>
       <c r="B9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C9" s="0"/>
       <c r="D9" t="s">
@@ -30845,10 +30845,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B10" t="s">
-        <v>776</v>
+        <v>262</v>
       </c>
       <c r="C10" s="0"/>
       <c r="D10" t="s">
@@ -30863,10 +30863,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B11" t="s">
-        <v>262</v>
+        <v>776</v>
       </c>
       <c r="C11" s="0"/>
       <c r="D11" t="s">
@@ -30881,10 +30881,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B12" t="s">
-        <v>777</v>
+        <v>198</v>
       </c>
       <c r="C12" s="0"/>
       <c r="D12" t="s">
@@ -30899,10 +30899,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B13" t="s">
-        <v>198</v>
+        <v>777</v>
       </c>
       <c r="C13" s="0"/>
       <c r="D13" t="s">
@@ -30953,10 +30953,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>748</v>
+        <v>1181</v>
       </c>
       <c r="B16" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C16" s="0"/>
       <c r="D16" t="s">
@@ -30969,10 +30969,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>1181</v>
+        <v>748</v>
       </c>
       <c r="B17" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C17" s="0"/>
       <c r="D17" t="s">
@@ -31193,10 +31193,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B30" t="s">
-        <v>463</v>
+        <v>775</v>
       </c>
       <c r="C30" s="0"/>
       <c r="D30" t="s">
@@ -31211,10 +31211,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B31" t="s">
-        <v>775</v>
+        <v>463</v>
       </c>
       <c r="C31" s="0"/>
       <c r="D31" t="s">
@@ -31354,7 +31354,7 @@
         <v>750</v>
       </c>
       <c r="B39" t="s">
-        <v>486</v>
+        <v>789</v>
       </c>
       <c r="C39" s="0"/>
       <c r="D39" t="s">
@@ -31372,7 +31372,7 @@
         <v>750</v>
       </c>
       <c r="B40" t="s">
-        <v>789</v>
+        <v>486</v>
       </c>
       <c r="C40" s="0"/>
       <c r="D40" t="s">
@@ -31405,10 +31405,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B42" t="s">
-        <v>790</v>
+        <v>300</v>
       </c>
       <c r="C42" s="0"/>
       <c r="D42" t="s">
@@ -31423,10 +31423,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B43" t="s">
-        <v>300</v>
+        <v>790</v>
       </c>
       <c r="C43" s="0"/>
       <c r="D43" t="s">
@@ -31829,10 +31829,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B66" t="s">
-        <v>624</v>
+        <v>804</v>
       </c>
       <c r="C66" s="0"/>
       <c r="D66" t="s">
@@ -31865,10 +31865,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B68" t="s">
-        <v>804</v>
+        <v>624</v>
       </c>
       <c r="C68" s="0"/>
       <c r="D68" t="s">
@@ -31883,10 +31883,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="B69" t="s">
-        <v>805</v>
+        <v>280</v>
       </c>
       <c r="C69" s="0"/>
       <c r="D69" t="s">
@@ -31902,7 +31902,7 @@
         <v>748</v>
       </c>
       <c r="B70" t="s">
-        <v>280</v>
+        <v>804</v>
       </c>
       <c r="C70" s="0"/>
       <c r="D70" t="s">
@@ -31915,10 +31915,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="B71" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C71" s="0"/>
       <c r="D71" t="s">
@@ -32123,10 +32123,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B83" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="C83" s="0"/>
       <c r="D83" t="s">
@@ -32139,10 +32139,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B84" t="s">
-        <v>286</v>
+        <v>309</v>
       </c>
       <c r="C84" s="0"/>
       <c r="D84" t="s">
@@ -32661,10 +32661,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="B114" t="s">
-        <v>47</v>
+        <v>805</v>
       </c>
       <c r="C114" s="0"/>
       <c r="D114" t="s">
@@ -32679,10 +32679,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="B115" t="s">
-        <v>805</v>
+        <v>47</v>
       </c>
       <c r="C115" s="0"/>
       <c r="D115" t="s">
@@ -32849,10 +32849,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B125" t="s">
-        <v>791</v>
+        <v>300</v>
       </c>
       <c r="C125" s="0"/>
       <c r="D125" t="s">
@@ -32867,10 +32867,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B126" t="s">
-        <v>300</v>
+        <v>791</v>
       </c>
       <c r="C126" s="0"/>
       <c r="D126" t="s">
@@ -33075,10 +33075,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B138" t="s">
-        <v>775</v>
+        <v>791</v>
       </c>
       <c r="C138" s="0"/>
       <c r="D138" t="s">
@@ -33093,10 +33093,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B139" t="s">
-        <v>791</v>
+        <v>775</v>
       </c>
       <c r="C139" s="0"/>
       <c r="D139" t="s">
@@ -33389,10 +33389,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B156" t="s">
-        <v>789</v>
+        <v>262</v>
       </c>
       <c r="C156" s="0"/>
       <c r="D156" t="s">
@@ -33407,10 +33407,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B157" t="s">
-        <v>262</v>
+        <v>789</v>
       </c>
       <c r="C157" s="0"/>
       <c r="D157" t="s">
@@ -33523,10 +33523,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>749</v>
+        <v>1181</v>
       </c>
       <c r="B164" t="s">
-        <v>790</v>
+        <v>846</v>
       </c>
       <c r="C164" s="0"/>
       <c r="D164" t="s">
@@ -33541,10 +33541,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>1181</v>
+        <v>749</v>
       </c>
       <c r="B165" t="s">
-        <v>846</v>
+        <v>790</v>
       </c>
       <c r="C165" s="0"/>
       <c r="D165" t="s">
@@ -33679,10 +33679,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B173" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="C173" s="0"/>
       <c r="D173" t="s">
@@ -33697,10 +33697,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B174" t="s">
-        <v>286</v>
+        <v>309</v>
       </c>
       <c r="C174" s="0"/>
       <c r="D174" t="s">
@@ -33733,10 +33733,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>748</v>
+        <v>1181</v>
       </c>
       <c r="B176" t="s">
-        <v>817</v>
+        <v>842</v>
       </c>
       <c r="C176" s="0"/>
       <c r="D176" t="s">
@@ -33751,10 +33751,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>1181</v>
+        <v>748</v>
       </c>
       <c r="B177" t="s">
-        <v>842</v>
+        <v>817</v>
       </c>
       <c r="C177" s="0"/>
       <c r="D177" t="s">
@@ -33785,10 +33785,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B179" t="s">
-        <v>780</v>
+        <v>820</v>
       </c>
       <c r="C179" s="0"/>
       <c r="D179" t="s">
@@ -33801,10 +33801,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B180" t="s">
-        <v>820</v>
+        <v>780</v>
       </c>
       <c r="C180" s="0"/>
       <c r="D180" t="s">
@@ -34143,10 +34143,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B200" t="s">
-        <v>860</v>
+        <v>786</v>
       </c>
       <c r="C200" s="0"/>
       <c r="D200" t="s">
@@ -34161,10 +34161,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B201" t="s">
-        <v>786</v>
+        <v>860</v>
       </c>
       <c r="C201" s="0"/>
       <c r="D201" t="s">
@@ -34385,10 +34385,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B214" t="s">
-        <v>535</v>
+        <v>867</v>
       </c>
       <c r="C214" s="0"/>
       <c r="D214" t="s">
@@ -34403,10 +34403,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B215" t="s">
-        <v>867</v>
+        <v>535</v>
       </c>
       <c r="C215" s="0"/>
       <c r="D215" t="s">
@@ -34561,10 +34561,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>1181</v>
+        <v>754</v>
       </c>
       <c r="B224" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C224" s="0"/>
       <c r="D224" t="s">
@@ -34579,10 +34579,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>754</v>
+        <v>1181</v>
       </c>
       <c r="B225" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C225" s="0"/>
       <c r="D225" t="s">
@@ -35312,7 +35312,7 @@
         <v>748</v>
       </c>
       <c r="B266" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="C266" s="0"/>
       <c r="D266" t="s">
@@ -35328,7 +35328,7 @@
         <v>748</v>
       </c>
       <c r="B267" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C267" s="0"/>
       <c r="D267" t="s">
@@ -35551,10 +35551,10 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B280" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C280" s="0"/>
       <c r="D280" t="s">
@@ -35567,10 +35567,10 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B281" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="C281" s="0"/>
       <c r="D281" t="s">
@@ -36332,7 +36332,7 @@
         <v>748</v>
       </c>
       <c r="B325" t="s">
-        <v>930</v>
+        <v>914</v>
       </c>
       <c r="C325" s="0"/>
       <c r="D325" t="s">
@@ -36350,7 +36350,7 @@
         <v>748</v>
       </c>
       <c r="B326" t="s">
-        <v>914</v>
+        <v>930</v>
       </c>
       <c r="C326" s="0"/>
       <c r="D326" t="s">
@@ -36404,7 +36404,7 @@
         <v>750</v>
       </c>
       <c r="B329" t="s">
-        <v>517</v>
+        <v>932</v>
       </c>
       <c r="C329" s="0"/>
       <c r="D329" t="s">
@@ -36420,7 +36420,7 @@
         <v>750</v>
       </c>
       <c r="B330" t="s">
-        <v>932</v>
+        <v>517</v>
       </c>
       <c r="C330" s="0"/>
       <c r="D330" t="s">
@@ -36739,10 +36739,10 @@
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>1181</v>
+        <v>750</v>
       </c>
       <c r="B348" t="s">
-        <v>899</v>
+        <v>278</v>
       </c>
       <c r="C348" s="0"/>
       <c r="D348" t="s">
@@ -36757,10 +36757,10 @@
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>750</v>
+        <v>1181</v>
       </c>
       <c r="B349" t="s">
-        <v>278</v>
+        <v>899</v>
       </c>
       <c r="C349" s="0"/>
       <c r="D349" t="s">
@@ -36868,7 +36868,7 @@
         <v>750</v>
       </c>
       <c r="B355" t="s">
-        <v>316</v>
+        <v>946</v>
       </c>
       <c r="C355" s="0"/>
       <c r="D355" t="s">
@@ -36886,7 +36886,7 @@
         <v>750</v>
       </c>
       <c r="B356" t="s">
-        <v>946</v>
+        <v>316</v>
       </c>
       <c r="C356" s="0"/>
       <c r="D356" t="s">
@@ -37147,10 +37147,10 @@
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>1181</v>
+        <v>750</v>
       </c>
       <c r="B371" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="C371" s="0"/>
       <c r="D371" t="s">
@@ -37165,10 +37165,10 @@
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>750</v>
+        <v>1181</v>
       </c>
       <c r="B372" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="C372" s="0"/>
       <c r="D372" t="s">
@@ -37450,7 +37450,7 @@
         <v>748</v>
       </c>
       <c r="B388" t="s">
-        <v>47</v>
+        <v>804</v>
       </c>
       <c r="C388" s="0"/>
       <c r="D388" t="s">
@@ -37468,7 +37468,7 @@
         <v>748</v>
       </c>
       <c r="B389" t="s">
-        <v>804</v>
+        <v>47</v>
       </c>
       <c r="C389" s="0"/>
       <c r="D389" t="s">
@@ -38175,10 +38175,10 @@
     </row>
     <row r="429">
       <c r="A429" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B429" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="C429" s="0"/>
       <c r="D429" t="s">
@@ -38191,10 +38191,10 @@
     </row>
     <row r="430">
       <c r="A430" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B430" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C430" s="0"/>
       <c r="D430" t="s">
@@ -38333,10 +38333,10 @@
     </row>
     <row r="438">
       <c r="A438" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B438" t="s">
-        <v>264</v>
+        <v>790</v>
       </c>
       <c r="C438" s="0"/>
       <c r="D438" t="s">
@@ -38351,10 +38351,10 @@
     </row>
     <row r="439">
       <c r="A439" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B439" t="s">
-        <v>790</v>
+        <v>264</v>
       </c>
       <c r="C439" s="0"/>
       <c r="D439" t="s">
@@ -38444,7 +38444,7 @@
         <v>1181</v>
       </c>
       <c r="B444" t="s">
-        <v>996</v>
+        <v>275</v>
       </c>
       <c r="C444" s="0"/>
       <c r="D444" t="s">
@@ -38462,7 +38462,7 @@
         <v>1181</v>
       </c>
       <c r="B445" t="s">
-        <v>727</v>
+        <v>996</v>
       </c>
       <c r="C445" s="0"/>
       <c r="D445" t="s">
@@ -38480,7 +38480,7 @@
         <v>1181</v>
       </c>
       <c r="B446" t="s">
-        <v>275</v>
+        <v>727</v>
       </c>
       <c r="C446" s="0"/>
       <c r="D446" t="s">
@@ -38534,7 +38534,7 @@
         <v>748</v>
       </c>
       <c r="B449" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="C449" s="0"/>
       <c r="D449" t="s">
@@ -38552,7 +38552,7 @@
         <v>748</v>
       </c>
       <c r="B450" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="C450" s="0"/>
       <c r="D450" t="s">
@@ -38672,7 +38672,7 @@
         <v>748</v>
       </c>
       <c r="B457" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C457" s="0"/>
       <c r="D457" t="s">
@@ -38690,7 +38690,7 @@
         <v>748</v>
       </c>
       <c r="B458" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="C458" s="0"/>
       <c r="D458" t="s">
@@ -38865,10 +38865,10 @@
     </row>
     <row r="468">
       <c r="A468" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="B468" t="s">
-        <v>1009</v>
+        <v>802</v>
       </c>
       <c r="C468" s="0"/>
       <c r="D468" t="s">
@@ -38883,10 +38883,10 @@
     </row>
     <row r="469">
       <c r="A469" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="B469" t="s">
-        <v>802</v>
+        <v>1009</v>
       </c>
       <c r="C469" s="0"/>
       <c r="D469" t="s">
@@ -38937,10 +38937,10 @@
     </row>
     <row r="472">
       <c r="A472" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="B472" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C472" s="0"/>
       <c r="D472" t="s">
@@ -38973,10 +38973,10 @@
     </row>
     <row r="474">
       <c r="A474" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="B474" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="C474" s="0"/>
       <c r="D474" t="s">
@@ -40019,10 +40019,10 @@
     </row>
     <row r="534">
       <c r="A534" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B534" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="C534" s="0"/>
       <c r="D534" t="s">
@@ -40037,10 +40037,10 @@
     </row>
     <row r="535">
       <c r="A535" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B535" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="C535" s="0"/>
       <c r="D535" t="s">
@@ -40055,10 +40055,10 @@
     </row>
     <row r="536">
       <c r="A536" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B536" t="s">
-        <v>987</v>
+        <v>1048</v>
       </c>
       <c r="C536" s="0"/>
       <c r="D536" t="s">
@@ -40073,10 +40073,10 @@
     </row>
     <row r="537">
       <c r="A537" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B537" t="s">
-        <v>1048</v>
+        <v>987</v>
       </c>
       <c r="C537" s="0"/>
       <c r="D537" t="s">
@@ -40197,10 +40197,10 @@
     </row>
     <row r="544">
       <c r="A544" t="s">
-        <v>1181</v>
+        <v>755</v>
       </c>
       <c r="B544" t="s">
-        <v>736</v>
+        <v>1052</v>
       </c>
       <c r="C544" s="0"/>
       <c r="D544" t="s">
@@ -40215,10 +40215,10 @@
     </row>
     <row r="545">
       <c r="A545" t="s">
-        <v>755</v>
+        <v>1181</v>
       </c>
       <c r="B545" t="s">
-        <v>1052</v>
+        <v>736</v>
       </c>
       <c r="C545" s="0"/>
       <c r="D545" t="s">
@@ -40777,10 +40777,10 @@
     </row>
     <row r="577">
       <c r="A577" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B577" t="s">
-        <v>548</v>
+        <v>1068</v>
       </c>
       <c r="C577" s="0"/>
       <c r="D577" t="s">
@@ -40795,10 +40795,10 @@
     </row>
     <row r="578">
       <c r="A578" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B578" t="s">
-        <v>1068</v>
+        <v>548</v>
       </c>
       <c r="C578" s="0"/>
       <c r="D578" t="s">
@@ -40870,7 +40870,7 @@
         <v>748</v>
       </c>
       <c r="B582" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="C582" s="0"/>
       <c r="D582" t="s">
@@ -40888,7 +40888,7 @@
         <v>748</v>
       </c>
       <c r="B583" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C583" s="0"/>
       <c r="D583" t="s">
@@ -40973,10 +40973,10 @@
     </row>
     <row r="588">
       <c r="A588" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B588" t="s">
-        <v>938</v>
+        <v>198</v>
       </c>
       <c r="C588" s="0"/>
       <c r="D588" t="s">
@@ -40991,10 +40991,10 @@
     </row>
     <row r="589">
       <c r="A589" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B589" t="s">
-        <v>198</v>
+        <v>938</v>
       </c>
       <c r="C589" s="0"/>
       <c r="D589" t="s">
@@ -41205,10 +41205,10 @@
     </row>
     <row r="601">
       <c r="A601" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B601" t="s">
-        <v>1082</v>
+        <v>773</v>
       </c>
       <c r="C601" s="0"/>
       <c r="D601" t="s">
@@ -41223,10 +41223,10 @@
     </row>
     <row r="602">
       <c r="A602" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B602" t="s">
-        <v>773</v>
+        <v>1082</v>
       </c>
       <c r="C602" s="0"/>
       <c r="D602" t="s">
@@ -41277,10 +41277,10 @@
     </row>
     <row r="605">
       <c r="A605" t="s">
-        <v>1181</v>
+        <v>750</v>
       </c>
       <c r="B605" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="C605" s="0"/>
       <c r="D605" t="s">
@@ -41295,10 +41295,10 @@
     </row>
     <row r="606">
       <c r="A606" t="s">
-        <v>750</v>
+        <v>1181</v>
       </c>
       <c r="B606" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C606" s="0"/>
       <c r="D606" t="s">
@@ -41455,10 +41455,10 @@
     </row>
     <row r="615">
       <c r="A615" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B615" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="C615" s="0"/>
       <c r="D615" t="s">
@@ -41473,10 +41473,10 @@
     </row>
     <row r="616">
       <c r="A616" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B616" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C616" s="0"/>
       <c r="D616" t="s">
@@ -41494,7 +41494,7 @@
         <v>1181</v>
       </c>
       <c r="B617" t="s">
-        <v>1094</v>
+        <v>842</v>
       </c>
       <c r="C617" s="0"/>
       <c r="D617" t="s">
@@ -41512,7 +41512,7 @@
         <v>1181</v>
       </c>
       <c r="B618" t="s">
-        <v>842</v>
+        <v>1094</v>
       </c>
       <c r="C618" s="0"/>
       <c r="D618" t="s">
@@ -41636,7 +41636,7 @@
         <v>748</v>
       </c>
       <c r="B625" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C625" s="0"/>
       <c r="D625" t="s">
@@ -41652,7 +41652,7 @@
         <v>748</v>
       </c>
       <c r="B626" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="C626" s="0"/>
       <c r="D626" t="s">
@@ -41665,10 +41665,10 @@
     </row>
     <row r="627">
       <c r="A627" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B627" t="s">
-        <v>821</v>
+        <v>1100</v>
       </c>
       <c r="C627" s="0"/>
       <c r="D627" t="s">
@@ -41683,10 +41683,10 @@
     </row>
     <row r="628">
       <c r="A628" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B628" t="s">
-        <v>1100</v>
+        <v>821</v>
       </c>
       <c r="C628" s="0"/>
       <c r="D628" t="s">
@@ -41841,10 +41841,10 @@
     </row>
     <row r="637">
       <c r="A637" t="s">
-        <v>1181</v>
+        <v>750</v>
       </c>
       <c r="B637" t="s">
-        <v>973</v>
+        <v>262</v>
       </c>
       <c r="C637" s="0"/>
       <c r="D637" t="s">
@@ -41859,10 +41859,10 @@
     </row>
     <row r="638">
       <c r="A638" t="s">
-        <v>750</v>
+        <v>1181</v>
       </c>
       <c r="B638" t="s">
-        <v>262</v>
+        <v>973</v>
       </c>
       <c r="C638" s="0"/>
       <c r="D638" t="s">
@@ -42001,10 +42001,10 @@
     </row>
     <row r="646">
       <c r="A646" t="s">
-        <v>750</v>
+        <v>1181</v>
       </c>
       <c r="B646" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="C646" s="0"/>
       <c r="D646" t="s">
@@ -42019,10 +42019,10 @@
     </row>
     <row r="647">
       <c r="A647" t="s">
-        <v>1181</v>
+        <v>750</v>
       </c>
       <c r="B647" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="C647" s="0"/>
       <c r="D647" t="s">
@@ -42887,10 +42887,10 @@
     </row>
     <row r="696">
       <c r="A696" t="s">
-        <v>1181</v>
+        <v>750</v>
       </c>
       <c r="B696" t="s">
-        <v>1111</v>
+        <v>1155</v>
       </c>
       <c r="C696" s="0"/>
       <c r="D696" t="s">
@@ -42905,10 +42905,10 @@
     </row>
     <row r="697">
       <c r="A697" t="s">
-        <v>750</v>
+        <v>1181</v>
       </c>
       <c r="B697" t="s">
-        <v>1155</v>
+        <v>1111</v>
       </c>
       <c r="C697" s="0"/>
       <c r="D697" t="s">
@@ -43119,10 +43119,10 @@
     </row>
     <row r="709">
       <c r="A709" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="B709" t="s">
-        <v>1164</v>
+        <v>278</v>
       </c>
       <c r="C709" s="0"/>
       <c r="D709" t="s">
@@ -43137,10 +43137,10 @@
     </row>
     <row r="710">
       <c r="A710" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="B710" t="s">
-        <v>278</v>
+        <v>1164</v>
       </c>
       <c r="C710" s="0"/>
       <c r="D710" t="s">
@@ -43264,7 +43264,7 @@
         <v>750</v>
       </c>
       <c r="B717" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C717" s="0"/>
       <c r="D717" t="s">
@@ -43282,7 +43282,7 @@
         <v>750</v>
       </c>
       <c r="B718" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="C718" s="0"/>
       <c r="D718" t="s">
@@ -43315,10 +43315,10 @@
     </row>
     <row r="720">
       <c r="A720" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B720" t="s">
-        <v>300</v>
+        <v>264</v>
       </c>
       <c r="C720" s="0"/>
       <c r="D720" t="s">
@@ -43331,10 +43331,10 @@
     </row>
     <row r="721">
       <c r="A721" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B721" t="s">
-        <v>264</v>
+        <v>300</v>
       </c>
       <c r="C721" s="0"/>
       <c r="D721" t="s">

--- a/Occupations/Occupations.xlsx
+++ b/Occupations/Occupations.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135206" uniqueCount="1184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168146" uniqueCount="1184">
   <si>
     <t>occupationname</t>
   </si>
@@ -30737,10 +30737,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B4" t="s">
-        <v>773</v>
+        <v>48</v>
       </c>
       <c r="C4" s="0"/>
       <c r="D4" t="s">
@@ -30755,10 +30755,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>773</v>
       </c>
       <c r="C5" s="0"/>
       <c r="D5" t="s">
@@ -30791,10 +30791,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="B7" t="s">
-        <v>264</v>
+        <v>775</v>
       </c>
       <c r="C7" s="0"/>
       <c r="D7" t="s">
@@ -30809,10 +30809,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="B8" t="s">
-        <v>775</v>
+        <v>264</v>
       </c>
       <c r="C8" s="0"/>
       <c r="D8" t="s">
@@ -30845,10 +30845,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B10" t="s">
-        <v>262</v>
+        <v>776</v>
       </c>
       <c r="C10" s="0"/>
       <c r="D10" t="s">
@@ -30863,10 +30863,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B11" t="s">
-        <v>776</v>
+        <v>262</v>
       </c>
       <c r="C11" s="0"/>
       <c r="D11" t="s">
@@ -30881,10 +30881,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B12" t="s">
-        <v>198</v>
+        <v>777</v>
       </c>
       <c r="C12" s="0"/>
       <c r="D12" t="s">
@@ -30899,10 +30899,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B13" t="s">
-        <v>777</v>
+        <v>198</v>
       </c>
       <c r="C13" s="0"/>
       <c r="D13" t="s">
@@ -30953,10 +30953,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>1181</v>
+        <v>748</v>
       </c>
       <c r="B16" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C16" s="0"/>
       <c r="D16" t="s">
@@ -30969,10 +30969,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>748</v>
+        <v>1181</v>
       </c>
       <c r="B17" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C17" s="0"/>
       <c r="D17" t="s">
@@ -31161,10 +31161,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B28" t="s">
-        <v>264</v>
+        <v>776</v>
       </c>
       <c r="C28" s="0"/>
       <c r="D28" t="s">
@@ -31177,10 +31177,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B29" t="s">
-        <v>776</v>
+        <v>264</v>
       </c>
       <c r="C29" s="0"/>
       <c r="D29" t="s">
@@ -31247,10 +31247,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B33" t="s">
-        <v>780</v>
+        <v>685</v>
       </c>
       <c r="C33" s="0"/>
       <c r="D33" t="s">
@@ -31265,10 +31265,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B34" t="s">
-        <v>685</v>
+        <v>780</v>
       </c>
       <c r="C34" s="0"/>
       <c r="D34" t="s">
@@ -31315,10 +31315,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B37" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C37" s="0"/>
       <c r="D37" t="s">
@@ -31333,10 +31333,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B38" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C38" s="0"/>
       <c r="D38" t="s">
@@ -31354,7 +31354,7 @@
         <v>750</v>
       </c>
       <c r="B39" t="s">
-        <v>789</v>
+        <v>486</v>
       </c>
       <c r="C39" s="0"/>
       <c r="D39" t="s">
@@ -31372,7 +31372,7 @@
         <v>750</v>
       </c>
       <c r="B40" t="s">
-        <v>486</v>
+        <v>789</v>
       </c>
       <c r="C40" s="0"/>
       <c r="D40" t="s">
@@ -31462,7 +31462,7 @@
         <v>1181</v>
       </c>
       <c r="B45" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C45" s="0"/>
       <c r="D45" t="s">
@@ -31480,7 +31480,7 @@
         <v>1181</v>
       </c>
       <c r="B46" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C46" s="0"/>
       <c r="D46" t="s">
@@ -31899,10 +31899,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="B70" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C70" s="0"/>
       <c r="D70" t="s">
@@ -31915,10 +31915,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="B71" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C71" s="0"/>
       <c r="D71" t="s">
@@ -32087,10 +32087,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B81" t="s">
-        <v>309</v>
+        <v>811</v>
       </c>
       <c r="C81" s="0"/>
       <c r="D81" t="s">
@@ -32105,10 +32105,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B82" t="s">
-        <v>811</v>
+        <v>309</v>
       </c>
       <c r="C82" s="0"/>
       <c r="D82" t="s">
@@ -32261,10 +32261,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>748</v>
+        <v>1181</v>
       </c>
       <c r="B91" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C91" s="0"/>
       <c r="D91" t="s">
@@ -32277,10 +32277,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>1181</v>
+        <v>748</v>
       </c>
       <c r="B92" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="C92" s="0"/>
       <c r="D92" t="s">
@@ -32413,10 +32413,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B100" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="C100" s="0"/>
       <c r="D100" t="s">
@@ -32431,10 +32431,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B101" t="s">
-        <v>286</v>
+        <v>309</v>
       </c>
       <c r="C101" s="0"/>
       <c r="D101" t="s">
@@ -32594,7 +32594,7 @@
         <v>750</v>
       </c>
       <c r="B110" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="C110" s="0"/>
       <c r="D110" t="s">
@@ -32612,7 +32612,7 @@
         <v>750</v>
       </c>
       <c r="B111" t="s">
-        <v>821</v>
+        <v>827</v>
       </c>
       <c r="C111" s="0"/>
       <c r="D111" t="s">
@@ -33075,10 +33075,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B138" t="s">
-        <v>791</v>
+        <v>775</v>
       </c>
       <c r="C138" s="0"/>
       <c r="D138" t="s">
@@ -33093,10 +33093,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B139" t="s">
-        <v>775</v>
+        <v>791</v>
       </c>
       <c r="C139" s="0"/>
       <c r="D139" t="s">
@@ -33321,10 +33321,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B152" t="s">
-        <v>282</v>
+        <v>813</v>
       </c>
       <c r="C152" s="0"/>
       <c r="D152" t="s">
@@ -33339,10 +33339,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B153" t="s">
-        <v>813</v>
+        <v>282</v>
       </c>
       <c r="C153" s="0"/>
       <c r="D153" t="s">
@@ -33389,10 +33389,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B156" t="s">
-        <v>262</v>
+        <v>789</v>
       </c>
       <c r="C156" s="0"/>
       <c r="D156" t="s">
@@ -33407,10 +33407,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B157" t="s">
-        <v>789</v>
+        <v>262</v>
       </c>
       <c r="C157" s="0"/>
       <c r="D157" t="s">
@@ -33459,10 +33459,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>748</v>
+        <v>1181</v>
       </c>
       <c r="B160" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C160" s="0"/>
       <c r="D160" t="s">
@@ -33475,10 +33475,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>1181</v>
+        <v>748</v>
       </c>
       <c r="B161" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="C161" s="0"/>
       <c r="D161" t="s">
@@ -33491,10 +33491,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>748</v>
+        <v>1181</v>
       </c>
       <c r="B162" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C162" s="0"/>
       <c r="D162" t="s">
@@ -33507,10 +33507,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>1181</v>
+        <v>748</v>
       </c>
       <c r="B163" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="C163" s="0"/>
       <c r="D163" t="s">
@@ -33733,10 +33733,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>1181</v>
+        <v>748</v>
       </c>
       <c r="B176" t="s">
-        <v>842</v>
+        <v>817</v>
       </c>
       <c r="C176" s="0"/>
       <c r="D176" t="s">
@@ -33751,10 +33751,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>748</v>
+        <v>1181</v>
       </c>
       <c r="B177" t="s">
-        <v>817</v>
+        <v>842</v>
       </c>
       <c r="C177" s="0"/>
       <c r="D177" t="s">
@@ -34143,10 +34143,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B200" t="s">
-        <v>786</v>
+        <v>860</v>
       </c>
       <c r="C200" s="0"/>
       <c r="D200" t="s">
@@ -34161,10 +34161,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B201" t="s">
-        <v>860</v>
+        <v>786</v>
       </c>
       <c r="C201" s="0"/>
       <c r="D201" t="s">
@@ -34385,10 +34385,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B214" t="s">
-        <v>867</v>
+        <v>535</v>
       </c>
       <c r="C214" s="0"/>
       <c r="D214" t="s">
@@ -34403,10 +34403,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B215" t="s">
-        <v>535</v>
+        <v>867</v>
       </c>
       <c r="C215" s="0"/>
       <c r="D215" t="s">
@@ -34561,10 +34561,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>754</v>
+        <v>1181</v>
       </c>
       <c r="B224" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C224" s="0"/>
       <c r="D224" t="s">
@@ -34579,10 +34579,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>1181</v>
+        <v>754</v>
       </c>
       <c r="B225" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C225" s="0"/>
       <c r="D225" t="s">
@@ -34685,10 +34685,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B231" t="s">
-        <v>517</v>
+        <v>324</v>
       </c>
       <c r="C231" s="0"/>
       <c r="D231" t="s">
@@ -34703,10 +34703,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B232" t="s">
-        <v>324</v>
+        <v>517</v>
       </c>
       <c r="C232" s="0"/>
       <c r="D232" t="s">
@@ -35312,7 +35312,7 @@
         <v>748</v>
       </c>
       <c r="B266" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C266" s="0"/>
       <c r="D266" t="s">
@@ -35328,7 +35328,7 @@
         <v>748</v>
       </c>
       <c r="B267" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="C267" s="0"/>
       <c r="D267" t="s">
@@ -35502,7 +35502,7 @@
         <v>750</v>
       </c>
       <c r="B277" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="C277" s="0"/>
       <c r="D277" t="s">
@@ -35520,7 +35520,7 @@
         <v>750</v>
       </c>
       <c r="B278" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C278" s="0"/>
       <c r="D278" t="s">
@@ -35818,7 +35818,7 @@
         <v>748</v>
       </c>
       <c r="B295" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C295" s="0"/>
       <c r="D295" t="s">
@@ -35834,7 +35834,7 @@
         <v>748</v>
       </c>
       <c r="B296" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="C296" s="0"/>
       <c r="D296" t="s">
@@ -36433,10 +36433,10 @@
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B331" t="s">
-        <v>324</v>
+        <v>517</v>
       </c>
       <c r="C331" s="0"/>
       <c r="D331" t="s">
@@ -36451,10 +36451,10 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B332" t="s">
-        <v>517</v>
+        <v>324</v>
       </c>
       <c r="C332" s="0"/>
       <c r="D332" t="s">
@@ -36526,7 +36526,7 @@
         <v>750</v>
       </c>
       <c r="B336" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C336" s="0"/>
       <c r="D336" t="s">
@@ -36544,7 +36544,7 @@
         <v>750</v>
       </c>
       <c r="B337" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C337" s="0"/>
       <c r="D337" t="s">
@@ -36562,7 +36562,7 @@
         <v>750</v>
       </c>
       <c r="B338" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="C338" s="0"/>
       <c r="D338" t="s">
@@ -36739,10 +36739,10 @@
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>750</v>
+        <v>1181</v>
       </c>
       <c r="B348" t="s">
-        <v>278</v>
+        <v>899</v>
       </c>
       <c r="C348" s="0"/>
       <c r="D348" t="s">
@@ -36757,10 +36757,10 @@
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>1181</v>
+        <v>750</v>
       </c>
       <c r="B349" t="s">
-        <v>899</v>
+        <v>278</v>
       </c>
       <c r="C349" s="0"/>
       <c r="D349" t="s">
@@ -37375,10 +37375,10 @@
     </row>
     <row r="384">
       <c r="A384" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B384" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C384" s="0"/>
       <c r="D384" t="s">
@@ -37393,10 +37393,10 @@
     </row>
     <row r="385">
       <c r="A385" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B385" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="C385" s="0"/>
       <c r="D385" t="s">
@@ -37450,7 +37450,7 @@
         <v>748</v>
       </c>
       <c r="B388" t="s">
-        <v>804</v>
+        <v>47</v>
       </c>
       <c r="C388" s="0"/>
       <c r="D388" t="s">
@@ -37468,7 +37468,7 @@
         <v>748</v>
       </c>
       <c r="B389" t="s">
-        <v>47</v>
+        <v>804</v>
       </c>
       <c r="C389" s="0"/>
       <c r="D389" t="s">
@@ -38067,10 +38067,10 @@
     </row>
     <row r="423">
       <c r="A423" t="s">
-        <v>752</v>
+        <v>1181</v>
       </c>
       <c r="B423" t="s">
-        <v>979</v>
+        <v>984</v>
       </c>
       <c r="C423" s="0"/>
       <c r="D423" t="s">
@@ -38085,10 +38085,10 @@
     </row>
     <row r="424">
       <c r="A424" t="s">
-        <v>1181</v>
+        <v>752</v>
       </c>
       <c r="B424" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="C424" s="0"/>
       <c r="D424" t="s">
@@ -38333,10 +38333,10 @@
     </row>
     <row r="438">
       <c r="A438" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B438" t="s">
-        <v>790</v>
+        <v>264</v>
       </c>
       <c r="C438" s="0"/>
       <c r="D438" t="s">
@@ -38351,10 +38351,10 @@
     </row>
     <row r="439">
       <c r="A439" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B439" t="s">
-        <v>264</v>
+        <v>790</v>
       </c>
       <c r="C439" s="0"/>
       <c r="D439" t="s">
@@ -38444,7 +38444,7 @@
         <v>1181</v>
       </c>
       <c r="B444" t="s">
-        <v>275</v>
+        <v>727</v>
       </c>
       <c r="C444" s="0"/>
       <c r="D444" t="s">
@@ -38462,7 +38462,7 @@
         <v>1181</v>
       </c>
       <c r="B445" t="s">
-        <v>996</v>
+        <v>275</v>
       </c>
       <c r="C445" s="0"/>
       <c r="D445" t="s">
@@ -38480,7 +38480,7 @@
         <v>1181</v>
       </c>
       <c r="B446" t="s">
-        <v>727</v>
+        <v>996</v>
       </c>
       <c r="C446" s="0"/>
       <c r="D446" t="s">
@@ -38937,10 +38937,10 @@
     </row>
     <row r="472">
       <c r="A472" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="B472" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="C472" s="0"/>
       <c r="D472" t="s">
@@ -38955,10 +38955,10 @@
     </row>
     <row r="473">
       <c r="A473" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B473" t="s">
-        <v>448</v>
+        <v>1012</v>
       </c>
       <c r="C473" s="0"/>
       <c r="D473" t="s">
@@ -38973,10 +38973,10 @@
     </row>
     <row r="474">
       <c r="A474" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B474" t="s">
-        <v>1013</v>
+        <v>448</v>
       </c>
       <c r="C474" s="0"/>
       <c r="D474" t="s">
@@ -39583,10 +39583,10 @@
     </row>
     <row r="509">
       <c r="A509" t="s">
-        <v>1181</v>
+        <v>748</v>
       </c>
       <c r="B509" t="s">
-        <v>547</v>
+        <v>689</v>
       </c>
       <c r="C509" s="0"/>
       <c r="D509" t="s">
@@ -39601,10 +39601,10 @@
     </row>
     <row r="510">
       <c r="A510" t="s">
-        <v>748</v>
+        <v>1181</v>
       </c>
       <c r="B510" t="s">
-        <v>689</v>
+        <v>547</v>
       </c>
       <c r="C510" s="0"/>
       <c r="D510" t="s">
@@ -39884,7 +39884,7 @@
         <v>750</v>
       </c>
       <c r="B526" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="C526" s="0"/>
       <c r="D526" t="s">
@@ -39902,7 +39902,7 @@
         <v>750</v>
       </c>
       <c r="B527" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C527" s="0"/>
       <c r="D527" t="s">
@@ -40055,10 +40055,10 @@
     </row>
     <row r="536">
       <c r="A536" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B536" t="s">
-        <v>1048</v>
+        <v>987</v>
       </c>
       <c r="C536" s="0"/>
       <c r="D536" t="s">
@@ -40073,10 +40073,10 @@
     </row>
     <row r="537">
       <c r="A537" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B537" t="s">
-        <v>987</v>
+        <v>1048</v>
       </c>
       <c r="C537" s="0"/>
       <c r="D537" t="s">
@@ -40777,10 +40777,10 @@
     </row>
     <row r="577">
       <c r="A577" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B577" t="s">
-        <v>1068</v>
+        <v>548</v>
       </c>
       <c r="C577" s="0"/>
       <c r="D577" t="s">
@@ -40795,10 +40795,10 @@
     </row>
     <row r="578">
       <c r="A578" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B578" t="s">
-        <v>548</v>
+        <v>1068</v>
       </c>
       <c r="C578" s="0"/>
       <c r="D578" t="s">
@@ -40870,7 +40870,7 @@
         <v>748</v>
       </c>
       <c r="B582" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C582" s="0"/>
       <c r="D582" t="s">
@@ -40888,7 +40888,7 @@
         <v>748</v>
       </c>
       <c r="B583" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="C583" s="0"/>
       <c r="D583" t="s">
@@ -40973,10 +40973,10 @@
     </row>
     <row r="588">
       <c r="A588" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B588" t="s">
-        <v>198</v>
+        <v>938</v>
       </c>
       <c r="C588" s="0"/>
       <c r="D588" t="s">
@@ -40991,10 +40991,10 @@
     </row>
     <row r="589">
       <c r="A589" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B589" t="s">
-        <v>938</v>
+        <v>198</v>
       </c>
       <c r="C589" s="0"/>
       <c r="D589" t="s">
@@ -41205,10 +41205,10 @@
     </row>
     <row r="601">
       <c r="A601" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B601" t="s">
-        <v>773</v>
+        <v>1082</v>
       </c>
       <c r="C601" s="0"/>
       <c r="D601" t="s">
@@ -41223,10 +41223,10 @@
     </row>
     <row r="602">
       <c r="A602" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B602" t="s">
-        <v>1082</v>
+        <v>773</v>
       </c>
       <c r="C602" s="0"/>
       <c r="D602" t="s">
@@ -41277,10 +41277,10 @@
     </row>
     <row r="605">
       <c r="A605" t="s">
-        <v>750</v>
+        <v>1181</v>
       </c>
       <c r="B605" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C605" s="0"/>
       <c r="D605" t="s">
@@ -41295,10 +41295,10 @@
     </row>
     <row r="606">
       <c r="A606" t="s">
-        <v>1181</v>
+        <v>750</v>
       </c>
       <c r="B606" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="C606" s="0"/>
       <c r="D606" t="s">
@@ -41494,7 +41494,7 @@
         <v>1181</v>
       </c>
       <c r="B617" t="s">
-        <v>842</v>
+        <v>1094</v>
       </c>
       <c r="C617" s="0"/>
       <c r="D617" t="s">
@@ -41512,7 +41512,7 @@
         <v>1181</v>
       </c>
       <c r="B618" t="s">
-        <v>1094</v>
+        <v>842</v>
       </c>
       <c r="C618" s="0"/>
       <c r="D618" t="s">
@@ -41665,10 +41665,10 @@
     </row>
     <row r="627">
       <c r="A627" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B627" t="s">
-        <v>1100</v>
+        <v>821</v>
       </c>
       <c r="C627" s="0"/>
       <c r="D627" t="s">
@@ -41683,10 +41683,10 @@
     </row>
     <row r="628">
       <c r="A628" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B628" t="s">
-        <v>821</v>
+        <v>1100</v>
       </c>
       <c r="C628" s="0"/>
       <c r="D628" t="s">
@@ -41841,10 +41841,10 @@
     </row>
     <row r="637">
       <c r="A637" t="s">
-        <v>750</v>
+        <v>1181</v>
       </c>
       <c r="B637" t="s">
-        <v>262</v>
+        <v>973</v>
       </c>
       <c r="C637" s="0"/>
       <c r="D637" t="s">
@@ -41859,10 +41859,10 @@
     </row>
     <row r="638">
       <c r="A638" t="s">
-        <v>1181</v>
+        <v>750</v>
       </c>
       <c r="B638" t="s">
-        <v>973</v>
+        <v>262</v>
       </c>
       <c r="C638" s="0"/>
       <c r="D638" t="s">
@@ -42001,10 +42001,10 @@
     </row>
     <row r="646">
       <c r="A646" t="s">
-        <v>1181</v>
+        <v>750</v>
       </c>
       <c r="B646" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="C646" s="0"/>
       <c r="D646" t="s">
@@ -42019,10 +42019,10 @@
     </row>
     <row r="647">
       <c r="A647" t="s">
-        <v>750</v>
+        <v>1181</v>
       </c>
       <c r="B647" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="C647" s="0"/>
       <c r="D647" t="s">
@@ -43119,10 +43119,10 @@
     </row>
     <row r="709">
       <c r="A709" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="B709" t="s">
-        <v>278</v>
+        <v>1164</v>
       </c>
       <c r="C709" s="0"/>
       <c r="D709" t="s">
@@ -43137,10 +43137,10 @@
     </row>
     <row r="710">
       <c r="A710" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="B710" t="s">
-        <v>1164</v>
+        <v>278</v>
       </c>
       <c r="C710" s="0"/>
       <c r="D710" t="s">
@@ -43264,7 +43264,7 @@
         <v>750</v>
       </c>
       <c r="B717" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="C717" s="0"/>
       <c r="D717" t="s">
@@ -43282,7 +43282,7 @@
         <v>750</v>
       </c>
       <c r="B718" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C718" s="0"/>
       <c r="D718" t="s">
@@ -43315,10 +43315,10 @@
     </row>
     <row r="720">
       <c r="A720" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B720" t="s">
-        <v>264</v>
+        <v>300</v>
       </c>
       <c r="C720" s="0"/>
       <c r="D720" t="s">
@@ -43331,10 +43331,10 @@
     </row>
     <row r="721">
       <c r="A721" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B721" t="s">
-        <v>300</v>
+        <v>264</v>
       </c>
       <c r="C721" s="0"/>
       <c r="D721" t="s">

--- a/Occupations/Occupations.xlsx
+++ b/Occupations/Occupations.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228905" uniqueCount="1314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234431" uniqueCount="1314">
   <si>
     <t>occupationname</t>
   </si>
@@ -31127,10 +31127,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>773</v>
       </c>
       <c r="C4" s="0"/>
       <c r="D4" t="s">
@@ -31145,10 +31145,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B5" t="s">
-        <v>773</v>
+        <v>48</v>
       </c>
       <c r="C5" s="0"/>
       <c r="D5" t="s">
@@ -31256,7 +31256,7 @@
         <v>748</v>
       </c>
       <c r="B11" t="s">
-        <v>336</v>
+        <v>804</v>
       </c>
       <c r="C11" s="0"/>
       <c r="D11" t="s">
@@ -31272,7 +31272,7 @@
         <v>748</v>
       </c>
       <c r="B12" t="s">
-        <v>804</v>
+        <v>336</v>
       </c>
       <c r="C12" s="0"/>
       <c r="D12" t="s">
@@ -31303,10 +31303,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="B14" t="s">
-        <v>775</v>
+        <v>262</v>
       </c>
       <c r="C14" s="0"/>
       <c r="D14" t="s">
@@ -31321,10 +31321,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="B15" t="s">
-        <v>262</v>
+        <v>775</v>
       </c>
       <c r="C15" s="0"/>
       <c r="D15" t="s">
@@ -31339,10 +31339,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B16" t="s">
-        <v>262</v>
+        <v>776</v>
       </c>
       <c r="C16" s="0"/>
       <c r="D16" t="s">
@@ -31357,10 +31357,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B17" t="s">
-        <v>776</v>
+        <v>262</v>
       </c>
       <c r="C17" s="0"/>
       <c r="D17" t="s">
@@ -31375,10 +31375,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B18" t="s">
-        <v>198</v>
+        <v>777</v>
       </c>
       <c r="C18" s="0"/>
       <c r="D18" t="s">
@@ -31393,10 +31393,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B19" t="s">
-        <v>777</v>
+        <v>198</v>
       </c>
       <c r="C19" s="0"/>
       <c r="D19" t="s">
@@ -31447,10 +31447,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>1181</v>
+        <v>748</v>
       </c>
       <c r="B22" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C22" s="0"/>
       <c r="D22" t="s">
@@ -31463,10 +31463,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>748</v>
+        <v>1181</v>
       </c>
       <c r="B23" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C23" s="0"/>
       <c r="D23" t="s">
@@ -31513,10 +31513,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>750</v>
+        <v>1181</v>
       </c>
       <c r="B26" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C26" s="0"/>
       <c r="D26" t="s">
@@ -31531,10 +31531,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>1181</v>
+        <v>750</v>
       </c>
       <c r="B27" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C27" s="0"/>
       <c r="D27" t="s">
@@ -31655,10 +31655,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B34" t="s">
-        <v>776</v>
+        <v>264</v>
       </c>
       <c r="C34" s="0"/>
       <c r="D34" t="s">
@@ -31671,10 +31671,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B35" t="s">
-        <v>264</v>
+        <v>776</v>
       </c>
       <c r="C35" s="0"/>
       <c r="D35" t="s">
@@ -31687,10 +31687,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B36" t="s">
-        <v>463</v>
+        <v>775</v>
       </c>
       <c r="C36" s="0"/>
       <c r="D36" t="s">
@@ -31705,10 +31705,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B37" t="s">
-        <v>775</v>
+        <v>463</v>
       </c>
       <c r="C37" s="0"/>
       <c r="D37" t="s">
@@ -31780,7 +31780,7 @@
         <v>748</v>
       </c>
       <c r="B41" t="s">
-        <v>262</v>
+        <v>787</v>
       </c>
       <c r="C41" s="0"/>
       <c r="D41" t="s">
@@ -31796,7 +31796,7 @@
         <v>748</v>
       </c>
       <c r="B42" t="s">
-        <v>787</v>
+        <v>262</v>
       </c>
       <c r="C42" s="0"/>
       <c r="D42" t="s">
@@ -31863,10 +31863,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>748</v>
+        <v>1181</v>
       </c>
       <c r="B46" t="s">
-        <v>48</v>
+        <v>1185</v>
       </c>
       <c r="C46" s="0"/>
       <c r="D46" t="s">
@@ -31879,10 +31879,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="B47" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="C47" s="0"/>
       <c r="D47" t="s">
@@ -31895,10 +31895,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>1181</v>
+        <v>748</v>
       </c>
       <c r="B48" t="s">
-        <v>1185</v>
+        <v>48</v>
       </c>
       <c r="C48" s="0"/>
       <c r="D48" t="s">
@@ -31911,10 +31911,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="B49" t="s">
-        <v>286</v>
+        <v>309</v>
       </c>
       <c r="C49" s="0"/>
       <c r="D49" t="s">
@@ -31963,10 +31963,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>749</v>
+        <v>1181</v>
       </c>
       <c r="B52" t="s">
-        <v>790</v>
+        <v>1188</v>
       </c>
       <c r="C52" s="0"/>
       <c r="D52" t="s">
@@ -31981,10 +31981,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>1181</v>
+        <v>749</v>
       </c>
       <c r="B53" t="s">
-        <v>1188</v>
+        <v>790</v>
       </c>
       <c r="C53" s="0"/>
       <c r="D53" t="s">
@@ -32054,7 +32054,7 @@
         <v>750</v>
       </c>
       <c r="B57" t="s">
-        <v>789</v>
+        <v>486</v>
       </c>
       <c r="C57" s="0"/>
       <c r="D57" t="s">
@@ -32072,7 +32072,7 @@
         <v>750</v>
       </c>
       <c r="B58" t="s">
-        <v>486</v>
+        <v>789</v>
       </c>
       <c r="C58" s="0"/>
       <c r="D58" t="s">
@@ -32144,7 +32144,7 @@
         <v>1181</v>
       </c>
       <c r="B62" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C62" s="0"/>
       <c r="D62" t="s">
@@ -32162,7 +32162,7 @@
         <v>1181</v>
       </c>
       <c r="B63" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C63" s="0"/>
       <c r="D63" t="s">
@@ -32441,10 +32441,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B79" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C79" s="0"/>
       <c r="D79" t="s">
@@ -32459,10 +32459,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B80" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="C80" s="0"/>
       <c r="D80" t="s">
@@ -32527,10 +32527,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B84" t="s">
-        <v>280</v>
+        <v>804</v>
       </c>
       <c r="C84" s="0"/>
       <c r="D84" t="s">
@@ -32545,10 +32545,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B85" t="s">
-        <v>624</v>
+        <v>280</v>
       </c>
       <c r="C85" s="0"/>
       <c r="D85" t="s">
@@ -32563,10 +32563,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B86" t="s">
-        <v>804</v>
+        <v>624</v>
       </c>
       <c r="C86" s="0"/>
       <c r="D86" t="s">
@@ -32945,10 +32945,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>1181</v>
+        <v>748</v>
       </c>
       <c r="B108" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="C108" s="0"/>
       <c r="D108" t="s">
@@ -32961,10 +32961,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>748</v>
+        <v>1181</v>
       </c>
       <c r="B109" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C109" s="0"/>
       <c r="D109" t="s">
@@ -33347,10 +33347,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="B131" t="s">
-        <v>47</v>
+        <v>805</v>
       </c>
       <c r="C131" s="0"/>
       <c r="D131" t="s">
@@ -33365,10 +33365,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="B132" t="s">
-        <v>805</v>
+        <v>47</v>
       </c>
       <c r="C132" s="0"/>
       <c r="D132" t="s">
@@ -33621,10 +33621,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B147" t="s">
-        <v>300</v>
+        <v>791</v>
       </c>
       <c r="C147" s="0"/>
       <c r="D147" t="s">
@@ -33639,10 +33639,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B148" t="s">
-        <v>791</v>
+        <v>300</v>
       </c>
       <c r="C148" s="0"/>
       <c r="D148" t="s">
@@ -33815,10 +33815,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B158" t="s">
-        <v>804</v>
+        <v>47</v>
       </c>
       <c r="C158" s="0"/>
       <c r="D158" t="s">
@@ -33831,10 +33831,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B159" t="s">
-        <v>47</v>
+        <v>804</v>
       </c>
       <c r="C159" s="0"/>
       <c r="D159" t="s">
@@ -34201,10 +34201,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B180" t="s">
-        <v>536</v>
+        <v>1198</v>
       </c>
       <c r="C180" s="0"/>
       <c r="D180" t="s">
@@ -34219,10 +34219,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B181" t="s">
-        <v>1198</v>
+        <v>536</v>
       </c>
       <c r="C181" s="0"/>
       <c r="D181" t="s">
@@ -34289,10 +34289,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B185" t="s">
-        <v>282</v>
+        <v>813</v>
       </c>
       <c r="C185" s="0"/>
       <c r="D185" t="s">
@@ -34307,10 +34307,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B186" t="s">
-        <v>813</v>
+        <v>282</v>
       </c>
       <c r="C186" s="0"/>
       <c r="D186" t="s">
@@ -34357,10 +34357,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B189" t="s">
-        <v>789</v>
+        <v>262</v>
       </c>
       <c r="C189" s="0"/>
       <c r="D189" t="s">
@@ -34375,10 +34375,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B190" t="s">
-        <v>262</v>
+        <v>789</v>
       </c>
       <c r="C190" s="0"/>
       <c r="D190" t="s">
@@ -34459,10 +34459,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>1181</v>
+        <v>748</v>
       </c>
       <c r="B195" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="C195" s="0"/>
       <c r="D195" t="s">
@@ -34475,10 +34475,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>748</v>
+        <v>1181</v>
       </c>
       <c r="B196" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C196" s="0"/>
       <c r="D196" t="s">
@@ -34491,10 +34491,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>1181</v>
+        <v>749</v>
       </c>
       <c r="B197" t="s">
-        <v>846</v>
+        <v>790</v>
       </c>
       <c r="C197" s="0"/>
       <c r="D197" t="s">
@@ -34509,10 +34509,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>749</v>
+        <v>1181</v>
       </c>
       <c r="B198" t="s">
-        <v>790</v>
+        <v>846</v>
       </c>
       <c r="C198" s="0"/>
       <c r="D198" t="s">
@@ -34629,10 +34629,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B205" t="s">
-        <v>286</v>
+        <v>821</v>
       </c>
       <c r="C205" s="0"/>
       <c r="D205" t="s">
@@ -34647,10 +34647,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B206" t="s">
-        <v>821</v>
+        <v>309</v>
       </c>
       <c r="C206" s="0"/>
       <c r="D206" t="s">
@@ -34665,10 +34665,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B207" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="C207" s="0"/>
       <c r="D207" t="s">
@@ -34858,7 +34858,7 @@
         <v>750</v>
       </c>
       <c r="B218" t="s">
-        <v>822</v>
+        <v>851</v>
       </c>
       <c r="C218" s="0"/>
       <c r="D218" t="s">
@@ -34874,7 +34874,7 @@
         <v>750</v>
       </c>
       <c r="B219" t="s">
-        <v>851</v>
+        <v>822</v>
       </c>
       <c r="C219" s="0"/>
       <c r="D219" t="s">
@@ -34994,7 +34994,7 @@
         <v>748</v>
       </c>
       <c r="B226" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C226" s="0"/>
       <c r="D226" t="s">
@@ -35010,7 +35010,7 @@
         <v>748</v>
       </c>
       <c r="B227" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="C227" s="0"/>
       <c r="D227" t="s">
@@ -35253,10 +35253,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B241" t="s">
-        <v>786</v>
+        <v>860</v>
       </c>
       <c r="C241" s="0"/>
       <c r="D241" t="s">
@@ -35271,10 +35271,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B242" t="s">
-        <v>860</v>
+        <v>786</v>
       </c>
       <c r="C242" s="0"/>
       <c r="D242" t="s">
@@ -35289,10 +35289,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B243" t="s">
-        <v>786</v>
+        <v>860</v>
       </c>
       <c r="C243" s="0"/>
       <c r="D243" t="s">
@@ -35305,10 +35305,10 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B244" t="s">
-        <v>860</v>
+        <v>786</v>
       </c>
       <c r="C244" s="0"/>
       <c r="D244" t="s">
@@ -35393,10 +35393,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>750</v>
+        <v>1181</v>
       </c>
       <c r="B249" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C249" s="0"/>
       <c r="D249" t="s">
@@ -35411,10 +35411,10 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>1181</v>
+        <v>750</v>
       </c>
       <c r="B250" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="C250" s="0"/>
       <c r="D250" t="s">
@@ -36045,10 +36045,10 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
       <c r="B286" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C286" s="0"/>
       <c r="D286" t="s">
@@ -36063,10 +36063,10 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="B287" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="C287" s="0"/>
       <c r="D287" t="s">
@@ -37113,10 +37113,10 @@
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="B347" t="s">
-        <v>278</v>
+        <v>904</v>
       </c>
       <c r="C347" s="0"/>
       <c r="D347" t="s">
@@ -37131,10 +37131,10 @@
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="B348" t="s">
-        <v>904</v>
+        <v>278</v>
       </c>
       <c r="C348" s="0"/>
       <c r="D348" t="s">
@@ -37348,7 +37348,7 @@
         <v>748</v>
       </c>
       <c r="B360" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="C360" s="0"/>
       <c r="D360" t="s">
@@ -37364,7 +37364,7 @@
         <v>748</v>
       </c>
       <c r="B361" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C361" s="0"/>
       <c r="D361" t="s">
@@ -37571,10 +37571,10 @@
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>749</v>
+        <v>1181</v>
       </c>
       <c r="B373" t="s">
-        <v>1217</v>
+        <v>727</v>
       </c>
       <c r="C373" s="0"/>
       <c r="D373" t="s">
@@ -37589,10 +37589,10 @@
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>1181</v>
+        <v>749</v>
       </c>
       <c r="B374" t="s">
-        <v>727</v>
+        <v>1217</v>
       </c>
       <c r="C374" s="0"/>
       <c r="D374" t="s">
@@ -37954,7 +37954,7 @@
         <v>748</v>
       </c>
       <c r="B395" t="s">
-        <v>914</v>
+        <v>930</v>
       </c>
       <c r="C395" s="0"/>
       <c r="D395" t="s">
@@ -37972,7 +37972,7 @@
         <v>748</v>
       </c>
       <c r="B396" t="s">
-        <v>930</v>
+        <v>914</v>
       </c>
       <c r="C396" s="0"/>
       <c r="D396" t="s">
@@ -38044,7 +38044,7 @@
         <v>750</v>
       </c>
       <c r="B400" t="s">
-        <v>517</v>
+        <v>932</v>
       </c>
       <c r="C400" s="0"/>
       <c r="D400" t="s">
@@ -38060,7 +38060,7 @@
         <v>750</v>
       </c>
       <c r="B401" t="s">
-        <v>932</v>
+        <v>517</v>
       </c>
       <c r="C401" s="0"/>
       <c r="D401" t="s">
@@ -38254,7 +38254,7 @@
         <v>750</v>
       </c>
       <c r="B412" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C412" s="0"/>
       <c r="D412" t="s">
@@ -38272,7 +38272,7 @@
         <v>750</v>
       </c>
       <c r="B413" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="C413" s="0"/>
       <c r="D413" t="s">
@@ -38431,10 +38431,10 @@
     </row>
     <row r="422">
       <c r="A422" t="s">
-        <v>1181</v>
+        <v>750</v>
       </c>
       <c r="B422" t="s">
-        <v>899</v>
+        <v>278</v>
       </c>
       <c r="C422" s="0"/>
       <c r="D422" t="s">
@@ -38449,10 +38449,10 @@
     </row>
     <row r="423">
       <c r="A423" t="s">
-        <v>750</v>
+        <v>1181</v>
       </c>
       <c r="B423" t="s">
-        <v>278</v>
+        <v>899</v>
       </c>
       <c r="C423" s="0"/>
       <c r="D423" t="s">
@@ -38485,10 +38485,10 @@
     </row>
     <row r="425">
       <c r="A425" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B425" t="s">
-        <v>300</v>
+        <v>1223</v>
       </c>
       <c r="C425" s="0"/>
       <c r="D425" t="s">
@@ -38501,10 +38501,10 @@
     </row>
     <row r="426">
       <c r="A426" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B426" t="s">
-        <v>1223</v>
+        <v>300</v>
       </c>
       <c r="C426" s="0"/>
       <c r="D426" t="s">
@@ -38643,10 +38643,10 @@
     </row>
     <row r="434">
       <c r="A434" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B434" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="C434" s="0"/>
       <c r="D434" t="s">
@@ -38659,10 +38659,10 @@
     </row>
     <row r="435">
       <c r="A435" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B435" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="C435" s="0"/>
       <c r="D435" t="s">
@@ -38768,7 +38768,7 @@
         <v>1181</v>
       </c>
       <c r="B441" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="C441" s="0"/>
       <c r="D441" t="s">
@@ -38786,7 +38786,7 @@
         <v>1181</v>
       </c>
       <c r="B442" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="C442" s="0"/>
       <c r="D442" t="s">
@@ -39029,10 +39029,10 @@
     </row>
     <row r="456">
       <c r="A456" t="s">
-        <v>750</v>
+        <v>1181</v>
       </c>
       <c r="B456" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="C456" s="0"/>
       <c r="D456" t="s">
@@ -39047,10 +39047,10 @@
     </row>
     <row r="457">
       <c r="A457" t="s">
-        <v>1181</v>
+        <v>750</v>
       </c>
       <c r="B457" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="C457" s="0"/>
       <c r="D457" t="s">
@@ -39345,10 +39345,10 @@
     </row>
     <row r="474">
       <c r="A474" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B474" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="C474" s="0"/>
       <c r="D474" t="s">
@@ -39363,10 +39363,10 @@
     </row>
     <row r="475">
       <c r="A475" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B475" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C475" s="0"/>
       <c r="D475" t="s">
@@ -39420,7 +39420,7 @@
         <v>748</v>
       </c>
       <c r="B478" t="s">
-        <v>804</v>
+        <v>47</v>
       </c>
       <c r="C478" s="0"/>
       <c r="D478" t="s">
@@ -39438,7 +39438,7 @@
         <v>748</v>
       </c>
       <c r="B479" t="s">
-        <v>47</v>
+        <v>804</v>
       </c>
       <c r="C479" s="0"/>
       <c r="D479" t="s">
@@ -39651,10 +39651,10 @@
     </row>
     <row r="491">
       <c r="A491" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B491" t="s">
-        <v>198</v>
+        <v>967</v>
       </c>
       <c r="C491" s="0"/>
       <c r="D491" t="s">
@@ -39669,10 +39669,10 @@
     </row>
     <row r="492">
       <c r="A492" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B492" t="s">
-        <v>967</v>
+        <v>198</v>
       </c>
       <c r="C492" s="0"/>
       <c r="D492" t="s">
@@ -39705,10 +39705,10 @@
     </row>
     <row r="494">
       <c r="A494" t="s">
-        <v>750</v>
+        <v>1181</v>
       </c>
       <c r="B494" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C494" s="0"/>
       <c r="D494" t="s">
@@ -39723,10 +39723,10 @@
     </row>
     <row r="495">
       <c r="A495" t="s">
-        <v>1181</v>
+        <v>750</v>
       </c>
       <c r="B495" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="C495" s="0"/>
       <c r="D495" t="s">
@@ -40281,10 +40281,10 @@
     </row>
     <row r="527">
       <c r="A527" t="s">
-        <v>1181</v>
+        <v>752</v>
       </c>
       <c r="B527" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="C527" s="0"/>
       <c r="D527" t="s">
@@ -40299,10 +40299,10 @@
     </row>
     <row r="528">
       <c r="A528" t="s">
-        <v>752</v>
+        <v>1181</v>
       </c>
       <c r="B528" t="s">
-        <v>979</v>
+        <v>984</v>
       </c>
       <c r="C528" s="0"/>
       <c r="D528" t="s">
@@ -40335,10 +40335,10 @@
     </row>
     <row r="530">
       <c r="A530" t="s">
-        <v>748</v>
+        <v>1181</v>
       </c>
       <c r="B530" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="C530" s="0"/>
       <c r="D530" t="s">
@@ -40353,10 +40353,10 @@
     </row>
     <row r="531">
       <c r="A531" t="s">
-        <v>1181</v>
+        <v>748</v>
       </c>
       <c r="B531" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="C531" s="0"/>
       <c r="D531" t="s">
@@ -40495,10 +40495,10 @@
     </row>
     <row r="539">
       <c r="A539" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B539" t="s">
-        <v>264</v>
+        <v>790</v>
       </c>
       <c r="C539" s="0"/>
       <c r="D539" t="s">
@@ -40513,10 +40513,10 @@
     </row>
     <row r="540">
       <c r="A540" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B540" t="s">
-        <v>790</v>
+        <v>262</v>
       </c>
       <c r="C540" s="0"/>
       <c r="D540" t="s">
@@ -40531,10 +40531,10 @@
     </row>
     <row r="541">
       <c r="A541" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B541" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C541" s="0"/>
       <c r="D541" t="s">
@@ -40818,7 +40818,7 @@
         <v>748</v>
       </c>
       <c r="B557" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="C557" s="0"/>
       <c r="D557" t="s">
@@ -40836,7 +40836,7 @@
         <v>748</v>
       </c>
       <c r="B558" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C558" s="0"/>
       <c r="D558" t="s">
@@ -41167,10 +41167,10 @@
     </row>
     <row r="577">
       <c r="A577" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B577" t="s">
-        <v>1012</v>
+        <v>448</v>
       </c>
       <c r="C577" s="0"/>
       <c r="D577" t="s">
@@ -41203,10 +41203,10 @@
     </row>
     <row r="579">
       <c r="A579" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B579" t="s">
-        <v>448</v>
+        <v>1012</v>
       </c>
       <c r="C579" s="0"/>
       <c r="D579" t="s">
@@ -41935,10 +41935,10 @@
     </row>
     <row r="621">
       <c r="A621" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="B621" t="s">
-        <v>273</v>
+        <v>925</v>
       </c>
       <c r="C621" s="0"/>
       <c r="D621" t="s">
@@ -41953,10 +41953,10 @@
     </row>
     <row r="622">
       <c r="A622" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="B622" t="s">
-        <v>925</v>
+        <v>273</v>
       </c>
       <c r="C622" s="0"/>
       <c r="D622" t="s">
@@ -42360,7 +42360,7 @@
         <v>750</v>
       </c>
       <c r="B645" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="C645" s="0"/>
       <c r="D645" t="s">
@@ -42378,7 +42378,7 @@
         <v>750</v>
       </c>
       <c r="B646" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C646" s="0"/>
       <c r="D646" t="s">
@@ -43521,10 +43521,10 @@
     </row>
     <row r="711">
       <c r="A711" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B711" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="C711" s="0"/>
       <c r="D711" t="s">
@@ -43539,10 +43539,10 @@
     </row>
     <row r="712">
       <c r="A712" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B712" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C712" s="0"/>
       <c r="D712" t="s">
@@ -43560,7 +43560,7 @@
         <v>750</v>
       </c>
       <c r="B713" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="C713" s="0"/>
       <c r="D713" t="s">
@@ -43578,7 +43578,7 @@
         <v>750</v>
       </c>
       <c r="B714" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="C714" s="0"/>
       <c r="D714" t="s">
@@ -43596,7 +43596,7 @@
         <v>748</v>
       </c>
       <c r="B715" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="C715" s="0"/>
       <c r="D715" t="s">
@@ -43612,7 +43612,7 @@
         <v>748</v>
       </c>
       <c r="B716" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C716" s="0"/>
       <c r="D716" t="s">
@@ -43836,7 +43836,7 @@
         <v>748</v>
       </c>
       <c r="B729" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="C729" s="0"/>
       <c r="D729" t="s">
@@ -43854,7 +43854,7 @@
         <v>748</v>
       </c>
       <c r="B730" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C730" s="0"/>
       <c r="D730" t="s">
@@ -44457,10 +44457,10 @@
     </row>
     <row r="764">
       <c r="A764" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B764" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="C764" s="0"/>
       <c r="D764" t="s">
@@ -44475,10 +44475,10 @@
     </row>
     <row r="765">
       <c r="A765" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B765" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C765" s="0"/>
       <c r="D765" t="s">
@@ -44496,7 +44496,7 @@
         <v>1181</v>
       </c>
       <c r="B766" t="s">
-        <v>842</v>
+        <v>1094</v>
       </c>
       <c r="C766" s="0"/>
       <c r="D766" t="s">
@@ -44514,7 +44514,7 @@
         <v>1181</v>
       </c>
       <c r="B767" t="s">
-        <v>1094</v>
+        <v>842</v>
       </c>
       <c r="C767" s="0"/>
       <c r="D767" t="s">
@@ -44629,10 +44629,10 @@
     </row>
     <row r="774">
       <c r="A774" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B774" t="s">
-        <v>1286</v>
+        <v>1257</v>
       </c>
       <c r="C774" s="0"/>
       <c r="D774" t="s">
@@ -44647,10 +44647,10 @@
     </row>
     <row r="775">
       <c r="A775" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B775" t="s">
-        <v>1257</v>
+        <v>1286</v>
       </c>
       <c r="C775" s="0"/>
       <c r="D775" t="s">
@@ -44756,7 +44756,7 @@
         <v>748</v>
       </c>
       <c r="B781" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C781" s="0"/>
       <c r="D781" t="s">
@@ -44772,7 +44772,7 @@
         <v>748</v>
       </c>
       <c r="B782" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="C782" s="0"/>
       <c r="D782" t="s">
@@ -44878,7 +44878,7 @@
         <v>748</v>
       </c>
       <c r="B788" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="C788" s="0"/>
       <c r="D788" t="s">
@@ -44896,7 +44896,7 @@
         <v>748</v>
       </c>
       <c r="B789" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="C789" s="0"/>
       <c r="D789" t="s">
@@ -45315,10 +45315,10 @@
     </row>
     <row r="813">
       <c r="A813" t="s">
-        <v>1181</v>
+        <v>750</v>
       </c>
       <c r="B813" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="C813" s="0"/>
       <c r="D813" t="s">
@@ -45333,10 +45333,10 @@
     </row>
     <row r="814">
       <c r="A814" t="s">
-        <v>750</v>
+        <v>1181</v>
       </c>
       <c r="B814" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="C814" s="0"/>
       <c r="D814" t="s">
@@ -46769,10 +46769,10 @@
     </row>
     <row r="895">
       <c r="A895" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="B895" t="s">
-        <v>1164</v>
+        <v>278</v>
       </c>
       <c r="C895" s="0"/>
       <c r="D895" t="s">
@@ -46787,10 +46787,10 @@
     </row>
     <row r="896">
       <c r="A896" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="B896" t="s">
-        <v>278</v>
+        <v>1164</v>
       </c>
       <c r="C896" s="0"/>
       <c r="D896" t="s">
@@ -46914,7 +46914,7 @@
         <v>750</v>
       </c>
       <c r="B903" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C903" s="0"/>
       <c r="D903" t="s">
@@ -46932,7 +46932,7 @@
         <v>750</v>
       </c>
       <c r="B904" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="C904" s="0"/>
       <c r="D904" t="s">

--- a/Occupations/Occupations.xlsx
+++ b/Occupations/Occupations.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242978" uniqueCount="1314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245999" uniqueCount="1314">
   <si>
     <t>occupationname</t>
   </si>
@@ -31127,10 +31127,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>773</v>
       </c>
       <c r="C4" s="0"/>
       <c r="D4" t="s">
@@ -31145,10 +31145,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B5" t="s">
-        <v>773</v>
+        <v>48</v>
       </c>
       <c r="C5" s="0"/>
       <c r="D5" t="s">
@@ -31163,10 +31163,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B6" t="s">
-        <v>1184</v>
+        <v>309</v>
       </c>
       <c r="C6" s="0"/>
       <c r="D6" t="s">
@@ -31179,10 +31179,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B7" t="s">
-        <v>309</v>
+        <v>1184</v>
       </c>
       <c r="C7" s="0"/>
       <c r="D7" t="s">
@@ -31363,10 +31363,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B18" t="s">
-        <v>777</v>
+        <v>198</v>
       </c>
       <c r="C18" s="0"/>
       <c r="D18" t="s">
@@ -31381,10 +31381,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B19" t="s">
-        <v>198</v>
+        <v>777</v>
       </c>
       <c r="C19" s="0"/>
       <c r="D19" t="s">
@@ -31435,10 +31435,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>748</v>
+        <v>1181</v>
       </c>
       <c r="B22" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C22" s="0"/>
       <c r="D22" t="s">
@@ -31451,10 +31451,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>1181</v>
+        <v>748</v>
       </c>
       <c r="B23" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C23" s="0"/>
       <c r="D23" t="s">
@@ -31501,10 +31501,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>1181</v>
+        <v>750</v>
       </c>
       <c r="B26" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C26" s="0"/>
       <c r="D26" t="s">
@@ -31519,10 +31519,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>750</v>
+        <v>1181</v>
       </c>
       <c r="B27" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C27" s="0"/>
       <c r="D27" t="s">
@@ -31643,10 +31643,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B34" t="s">
-        <v>264</v>
+        <v>776</v>
       </c>
       <c r="C34" s="0"/>
       <c r="D34" t="s">
@@ -31659,10 +31659,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B35" t="s">
-        <v>776</v>
+        <v>264</v>
       </c>
       <c r="C35" s="0"/>
       <c r="D35" t="s">
@@ -31675,10 +31675,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B36" t="s">
-        <v>463</v>
+        <v>775</v>
       </c>
       <c r="C36" s="0"/>
       <c r="D36" t="s">
@@ -31693,10 +31693,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B37" t="s">
-        <v>775</v>
+        <v>463</v>
       </c>
       <c r="C37" s="0"/>
       <c r="D37" t="s">
@@ -31729,10 +31729,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B39" t="s">
-        <v>685</v>
+        <v>780</v>
       </c>
       <c r="C39" s="0"/>
       <c r="D39" t="s">
@@ -31747,10 +31747,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B40" t="s">
-        <v>780</v>
+        <v>685</v>
       </c>
       <c r="C40" s="0"/>
       <c r="D40" t="s">
@@ -31768,7 +31768,7 @@
         <v>748</v>
       </c>
       <c r="B41" t="s">
-        <v>262</v>
+        <v>787</v>
       </c>
       <c r="C41" s="0"/>
       <c r="D41" t="s">
@@ -31784,7 +31784,7 @@
         <v>748</v>
       </c>
       <c r="B42" t="s">
-        <v>787</v>
+        <v>262</v>
       </c>
       <c r="C42" s="0"/>
       <c r="D42" t="s">
@@ -31849,10 +31849,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>1181</v>
+        <v>752</v>
       </c>
       <c r="B46" t="s">
-        <v>1185</v>
+        <v>309</v>
       </c>
       <c r="C46" s="0"/>
       <c r="D46" t="s">
@@ -31863,10 +31863,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>752</v>
+        <v>1181</v>
       </c>
       <c r="B47" t="s">
-        <v>309</v>
+        <v>1185</v>
       </c>
       <c r="C47" s="0"/>
       <c r="D47" t="s">
@@ -31937,10 +31937,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>749</v>
+        <v>1181</v>
       </c>
       <c r="B52" t="s">
-        <v>790</v>
+        <v>1188</v>
       </c>
       <c r="C52" s="0"/>
       <c r="D52" t="s">
@@ -31953,10 +31953,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>1181</v>
+        <v>749</v>
       </c>
       <c r="B53" t="s">
-        <v>1188</v>
+        <v>790</v>
       </c>
       <c r="C53" s="0"/>
       <c r="D53" t="s">
@@ -32069,10 +32069,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B60" t="s">
-        <v>790</v>
+        <v>300</v>
       </c>
       <c r="C60" s="0"/>
       <c r="D60" t="s">
@@ -32087,10 +32087,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B61" t="s">
-        <v>300</v>
+        <v>790</v>
       </c>
       <c r="C61" s="0"/>
       <c r="D61" t="s">
@@ -32507,10 +32507,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B85" t="s">
-        <v>624</v>
+        <v>804</v>
       </c>
       <c r="C85" s="0"/>
       <c r="D85" t="s">
@@ -32525,10 +32525,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B86" t="s">
-        <v>280</v>
+        <v>624</v>
       </c>
       <c r="C86" s="0"/>
       <c r="D86" t="s">
@@ -32543,10 +32543,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B87" t="s">
-        <v>804</v>
+        <v>280</v>
       </c>
       <c r="C87" s="0"/>
       <c r="D87" t="s">
@@ -32561,10 +32561,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="B88" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C88" s="0"/>
       <c r="D88" t="s">
@@ -32593,10 +32593,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="B90" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C90" s="0"/>
       <c r="D90" t="s">
@@ -33326,7 +33326,7 @@
         <v>750</v>
       </c>
       <c r="B133" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="C133" s="0"/>
       <c r="D133" t="s">
@@ -33344,7 +33344,7 @@
         <v>750</v>
       </c>
       <c r="B134" t="s">
-        <v>821</v>
+        <v>827</v>
       </c>
       <c r="C134" s="0"/>
       <c r="D134" t="s">
@@ -33677,10 +33677,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B154" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C154" s="0"/>
       <c r="D154" t="s">
@@ -33691,10 +33691,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B155" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="C155" s="0"/>
       <c r="D155" t="s">
@@ -33737,10 +33737,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B158" t="s">
-        <v>300</v>
+        <v>791</v>
       </c>
       <c r="C158" s="0"/>
       <c r="D158" t="s">
@@ -33755,10 +33755,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B159" t="s">
-        <v>791</v>
+        <v>300</v>
       </c>
       <c r="C159" s="0"/>
       <c r="D159" t="s">
@@ -33919,10 +33919,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B169" t="s">
-        <v>804</v>
+        <v>47</v>
       </c>
       <c r="C169" s="0"/>
       <c r="D169" t="s">
@@ -33935,10 +33935,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B170" t="s">
-        <v>47</v>
+        <v>804</v>
       </c>
       <c r="C170" s="0"/>
       <c r="D170" t="s">
@@ -34089,10 +34089,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B179" t="s">
-        <v>791</v>
+        <v>775</v>
       </c>
       <c r="C179" s="0"/>
       <c r="D179" t="s">
@@ -34107,10 +34107,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B180" t="s">
-        <v>775</v>
+        <v>791</v>
       </c>
       <c r="C180" s="0"/>
       <c r="D180" t="s">
@@ -34313,10 +34313,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B192" t="s">
-        <v>1198</v>
+        <v>536</v>
       </c>
       <c r="C192" s="0"/>
       <c r="D192" t="s">
@@ -34329,10 +34329,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B193" t="s">
-        <v>536</v>
+        <v>1198</v>
       </c>
       <c r="C193" s="0"/>
       <c r="D193" t="s">
@@ -34781,10 +34781,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B220" t="s">
-        <v>309</v>
+        <v>821</v>
       </c>
       <c r="C220" s="0"/>
       <c r="D220" t="s">
@@ -34817,10 +34817,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B222" t="s">
-        <v>821</v>
+        <v>309</v>
       </c>
       <c r="C222" s="0"/>
       <c r="D222" t="s">
@@ -35455,10 +35455,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B260" t="s">
-        <v>786</v>
+        <v>860</v>
       </c>
       <c r="C260" s="0"/>
       <c r="D260" t="s">
@@ -35471,10 +35471,10 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B261" t="s">
-        <v>860</v>
+        <v>786</v>
       </c>
       <c r="C261" s="0"/>
       <c r="D261" t="s">
@@ -35587,10 +35587,10 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>1181</v>
+        <v>750</v>
       </c>
       <c r="B268" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="C268" s="0"/>
       <c r="D268" t="s">
@@ -35603,10 +35603,10 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>750</v>
+        <v>1181</v>
       </c>
       <c r="B269" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C269" s="0"/>
       <c r="D269" t="s">
@@ -36007,10 +36007,10 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>1181</v>
+        <v>754</v>
       </c>
       <c r="B293" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C293" s="0"/>
       <c r="D293" t="s">
@@ -36025,10 +36025,10 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>754</v>
+        <v>1181</v>
       </c>
       <c r="B294" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C294" s="0"/>
       <c r="D294" t="s">
@@ -36079,10 +36079,10 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>748</v>
+        <v>1181</v>
       </c>
       <c r="B297" t="s">
-        <v>823</v>
+        <v>875</v>
       </c>
       <c r="C297" s="0"/>
       <c r="D297" t="s">
@@ -36097,10 +36097,10 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>1181</v>
+        <v>748</v>
       </c>
       <c r="B298" t="s">
-        <v>875</v>
+        <v>823</v>
       </c>
       <c r="C298" s="0"/>
       <c r="D298" t="s">
@@ -37371,10 +37371,10 @@
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="B373" t="s">
-        <v>904</v>
+        <v>278</v>
       </c>
       <c r="C373" s="0"/>
       <c r="D373" t="s">
@@ -37389,10 +37389,10 @@
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="B374" t="s">
-        <v>278</v>
+        <v>904</v>
       </c>
       <c r="C374" s="0"/>
       <c r="D374" t="s">
@@ -37654,7 +37654,7 @@
         <v>748</v>
       </c>
       <c r="B389" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="C389" s="0"/>
       <c r="D389" t="s">
@@ -37670,7 +37670,7 @@
         <v>748</v>
       </c>
       <c r="B390" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="C390" s="0"/>
       <c r="D390" t="s">
@@ -38322,7 +38322,7 @@
         <v>748</v>
       </c>
       <c r="B429" t="s">
-        <v>930</v>
+        <v>914</v>
       </c>
       <c r="C429" s="0"/>
       <c r="D429" t="s">
@@ -38340,7 +38340,7 @@
         <v>748</v>
       </c>
       <c r="B430" t="s">
-        <v>914</v>
+        <v>930</v>
       </c>
       <c r="C430" s="0"/>
       <c r="D430" t="s">
@@ -38442,7 +38442,7 @@
         <v>750</v>
       </c>
       <c r="B436" t="s">
-        <v>932</v>
+        <v>517</v>
       </c>
       <c r="C436" s="0"/>
       <c r="D436" t="s">
@@ -38458,7 +38458,7 @@
         <v>750</v>
       </c>
       <c r="B437" t="s">
-        <v>517</v>
+        <v>932</v>
       </c>
       <c r="C437" s="0"/>
       <c r="D437" t="s">
@@ -38471,10 +38471,10 @@
     </row>
     <row r="438">
       <c r="A438" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B438" t="s">
-        <v>517</v>
+        <v>324</v>
       </c>
       <c r="C438" s="0"/>
       <c r="D438" t="s">
@@ -38489,10 +38489,10 @@
     </row>
     <row r="439">
       <c r="A439" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B439" t="s">
-        <v>324</v>
+        <v>517</v>
       </c>
       <c r="C439" s="0"/>
       <c r="D439" t="s">
@@ -38541,10 +38541,10 @@
     </row>
     <row r="442">
       <c r="A442" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B442" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="C442" s="0"/>
       <c r="D442" t="s">
@@ -38555,10 +38555,10 @@
     </row>
     <row r="443">
       <c r="A443" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B443" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="C443" s="0"/>
       <c r="D443" t="s">
@@ -38622,7 +38622,7 @@
         <v>750</v>
       </c>
       <c r="B447" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C447" s="0"/>
       <c r="D447" t="s">
@@ -38640,7 +38640,7 @@
         <v>750</v>
       </c>
       <c r="B448" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="C448" s="0"/>
       <c r="D448" t="s">
@@ -38911,10 +38911,10 @@
     </row>
     <row r="464">
       <c r="A464" t="s">
-        <v>1181</v>
+        <v>750</v>
       </c>
       <c r="B464" t="s">
-        <v>899</v>
+        <v>278</v>
       </c>
       <c r="C464" s="0"/>
       <c r="D464" t="s">
@@ -38929,10 +38929,10 @@
     </row>
     <row r="465">
       <c r="A465" t="s">
-        <v>750</v>
+        <v>1181</v>
       </c>
       <c r="B465" t="s">
-        <v>278</v>
+        <v>899</v>
       </c>
       <c r="C465" s="0"/>
       <c r="D465" t="s">
@@ -39061,10 +39061,10 @@
     </row>
     <row r="473">
       <c r="A473" t="s">
-        <v>752</v>
+        <v>1181</v>
       </c>
       <c r="B473" t="s">
-        <v>1224</v>
+        <v>1129</v>
       </c>
       <c r="C473" s="0"/>
       <c r="D473" t="s">
@@ -39077,10 +39077,10 @@
     </row>
     <row r="474">
       <c r="A474" t="s">
-        <v>1181</v>
+        <v>750</v>
       </c>
       <c r="B474" t="s">
-        <v>1129</v>
+        <v>429</v>
       </c>
       <c r="C474" s="0"/>
       <c r="D474" t="s">
@@ -39093,10 +39093,10 @@
     </row>
     <row r="475">
       <c r="A475" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B475" t="s">
-        <v>429</v>
+        <v>1224</v>
       </c>
       <c r="C475" s="0"/>
       <c r="D475" t="s">
@@ -39125,10 +39125,10 @@
     </row>
     <row r="477">
       <c r="A477" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B477" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="C477" s="0"/>
       <c r="D477" t="s">
@@ -39139,10 +39139,10 @@
     </row>
     <row r="478">
       <c r="A478" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B478" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="C478" s="0"/>
       <c r="D478" t="s">
@@ -39192,7 +39192,7 @@
         <v>750</v>
       </c>
       <c r="B481" t="s">
-        <v>316</v>
+        <v>946</v>
       </c>
       <c r="C481" s="0"/>
       <c r="D481" t="s">
@@ -39210,7 +39210,7 @@
         <v>750</v>
       </c>
       <c r="B482" t="s">
-        <v>946</v>
+        <v>316</v>
       </c>
       <c r="C482" s="0"/>
       <c r="D482" t="s">
@@ -39711,10 +39711,10 @@
     </row>
     <row r="511">
       <c r="A511" t="s">
-        <v>749</v>
+        <v>1181</v>
       </c>
       <c r="B511" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="C511" s="0"/>
       <c r="D511" t="s">
@@ -39727,10 +39727,10 @@
     </row>
     <row r="512">
       <c r="A512" t="s">
-        <v>1181</v>
+        <v>749</v>
       </c>
       <c r="B512" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="C512" s="0"/>
       <c r="D512" t="s">
@@ -39819,10 +39819,10 @@
     </row>
     <row r="518">
       <c r="A518" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B518" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C518" s="0"/>
       <c r="D518" t="s">
@@ -39835,10 +39835,10 @@
     </row>
     <row r="519">
       <c r="A519" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B519" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="C519" s="0"/>
       <c r="D519" t="s">
@@ -40131,10 +40131,10 @@
     </row>
     <row r="536">
       <c r="A536" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B536" t="s">
-        <v>198</v>
+        <v>967</v>
       </c>
       <c r="C536" s="0"/>
       <c r="D536" t="s">
@@ -40149,10 +40149,10 @@
     </row>
     <row r="537">
       <c r="A537" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B537" t="s">
-        <v>967</v>
+        <v>198</v>
       </c>
       <c r="C537" s="0"/>
       <c r="D537" t="s">
@@ -40185,10 +40185,10 @@
     </row>
     <row r="539">
       <c r="A539" t="s">
-        <v>750</v>
+        <v>1181</v>
       </c>
       <c r="B539" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C539" s="0"/>
       <c r="D539" t="s">
@@ -40201,10 +40201,10 @@
     </row>
     <row r="540">
       <c r="A540" t="s">
-        <v>1181</v>
+        <v>750</v>
       </c>
       <c r="B540" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="C540" s="0"/>
       <c r="D540" t="s">
@@ -40277,10 +40277,10 @@
     </row>
     <row r="545">
       <c r="A545" t="s">
-        <v>749</v>
+        <v>1181</v>
       </c>
       <c r="B545" t="s">
-        <v>776</v>
+        <v>1237</v>
       </c>
       <c r="C545" s="0"/>
       <c r="D545" t="s">
@@ -40293,10 +40293,10 @@
     </row>
     <row r="546">
       <c r="A546" t="s">
-        <v>1181</v>
+        <v>749</v>
       </c>
       <c r="B546" t="s">
-        <v>1237</v>
+        <v>776</v>
       </c>
       <c r="C546" s="0"/>
       <c r="D546" t="s">
@@ -40785,10 +40785,10 @@
     </row>
     <row r="575">
       <c r="A575" t="s">
-        <v>752</v>
+        <v>1181</v>
       </c>
       <c r="B575" t="s">
-        <v>979</v>
+        <v>984</v>
       </c>
       <c r="C575" s="0"/>
       <c r="D575" t="s">
@@ -40803,10 +40803,10 @@
     </row>
     <row r="576">
       <c r="A576" t="s">
-        <v>1181</v>
+        <v>752</v>
       </c>
       <c r="B576" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="C576" s="0"/>
       <c r="D576" t="s">
@@ -41027,10 +41027,10 @@
     </row>
     <row r="589">
       <c r="A589" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B589" t="s">
-        <v>790</v>
+        <v>262</v>
       </c>
       <c r="C589" s="0"/>
       <c r="D589" t="s">
@@ -41043,10 +41043,10 @@
     </row>
     <row r="590">
       <c r="A590" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B590" t="s">
-        <v>264</v>
+        <v>790</v>
       </c>
       <c r="C590" s="0"/>
       <c r="D590" t="s">
@@ -41059,10 +41059,10 @@
     </row>
     <row r="591">
       <c r="A591" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B591" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C591" s="0"/>
       <c r="D591" t="s">
@@ -41150,7 +41150,7 @@
         <v>1181</v>
       </c>
       <c r="B596" t="s">
-        <v>996</v>
+        <v>275</v>
       </c>
       <c r="C596" s="0"/>
       <c r="D596" t="s">
@@ -41186,7 +41186,7 @@
         <v>1181</v>
       </c>
       <c r="B598" t="s">
-        <v>275</v>
+        <v>996</v>
       </c>
       <c r="C598" s="0"/>
       <c r="D598" t="s">
@@ -41240,7 +41240,7 @@
         <v>748</v>
       </c>
       <c r="B601" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="C601" s="0"/>
       <c r="D601" t="s">
@@ -41258,7 +41258,7 @@
         <v>748</v>
       </c>
       <c r="B602" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="C602" s="0"/>
       <c r="D602" t="s">
@@ -41745,10 +41745,10 @@
     </row>
     <row r="631">
       <c r="A631" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B631" t="s">
-        <v>1012</v>
+        <v>448</v>
       </c>
       <c r="C631" s="0"/>
       <c r="D631" t="s">
@@ -41763,10 +41763,10 @@
     </row>
     <row r="632">
       <c r="A632" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B632" t="s">
-        <v>448</v>
+        <v>1013</v>
       </c>
       <c r="C632" s="0"/>
       <c r="D632" t="s">
@@ -41781,10 +41781,10 @@
     </row>
     <row r="633">
       <c r="A633" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="B633" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C633" s="0"/>
       <c r="D633" t="s">
@@ -41917,10 +41917,10 @@
     </row>
     <row r="641">
       <c r="A641" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="B641" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="C641" s="0"/>
       <c r="D641" t="s">
@@ -41933,10 +41933,10 @@
     </row>
     <row r="642">
       <c r="A642" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="B642" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C642" s="0"/>
       <c r="D642" t="s">
@@ -42123,10 +42123,10 @@
     </row>
     <row r="653">
       <c r="A653" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B653" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="C653" s="0"/>
       <c r="D653" t="s">
@@ -42139,10 +42139,10 @@
     </row>
     <row r="654">
       <c r="A654" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B654" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="C654" s="0"/>
       <c r="D654" t="s">
@@ -42503,10 +42503,10 @@
     </row>
     <row r="676">
       <c r="A676" t="s">
-        <v>749</v>
+        <v>1181</v>
       </c>
       <c r="B676" t="s">
-        <v>273</v>
+        <v>925</v>
       </c>
       <c r="C676" s="0"/>
       <c r="D676" t="s">
@@ -42519,10 +42519,10 @@
     </row>
     <row r="677">
       <c r="A677" t="s">
-        <v>1181</v>
+        <v>749</v>
       </c>
       <c r="B677" t="s">
-        <v>925</v>
+        <v>273</v>
       </c>
       <c r="C677" s="0"/>
       <c r="D677" t="s">
@@ -42619,10 +42619,10 @@
     </row>
     <row r="683">
       <c r="A683" t="s">
-        <v>748</v>
+        <v>1181</v>
       </c>
       <c r="B683" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="C683" s="0"/>
       <c r="D683" t="s">
@@ -42633,10 +42633,10 @@
     </row>
     <row r="684">
       <c r="A684" t="s">
-        <v>1181</v>
+        <v>748</v>
       </c>
       <c r="B684" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="C684" s="0"/>
       <c r="D684" t="s">
@@ -42783,10 +42783,10 @@
     </row>
     <row r="693">
       <c r="A693" t="s">
-        <v>1181</v>
+        <v>748</v>
       </c>
       <c r="B693" t="s">
-        <v>547</v>
+        <v>689</v>
       </c>
       <c r="C693" s="0"/>
       <c r="D693" t="s">
@@ -42801,10 +42801,10 @@
     </row>
     <row r="694">
       <c r="A694" t="s">
-        <v>748</v>
+        <v>1181</v>
       </c>
       <c r="B694" t="s">
-        <v>689</v>
+        <v>547</v>
       </c>
       <c r="C694" s="0"/>
       <c r="D694" t="s">
@@ -42922,7 +42922,7 @@
         <v>750</v>
       </c>
       <c r="B701" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="C701" s="0"/>
       <c r="D701" t="s">
@@ -42938,7 +42938,7 @@
         <v>750</v>
       </c>
       <c r="B702" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="C702" s="0"/>
       <c r="D702" t="s">
@@ -43347,10 +43347,10 @@
     </row>
     <row r="726">
       <c r="A726" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B726" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="C726" s="0"/>
       <c r="D726" t="s">
@@ -43363,10 +43363,10 @@
     </row>
     <row r="727">
       <c r="A727" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B727" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="C727" s="0"/>
       <c r="D727" t="s">
@@ -43547,10 +43547,10 @@
     </row>
     <row r="738">
       <c r="A738" t="s">
-        <v>1181</v>
+        <v>755</v>
       </c>
       <c r="B738" t="s">
-        <v>736</v>
+        <v>1052</v>
       </c>
       <c r="C738" s="0"/>
       <c r="D738" t="s">
@@ -43565,10 +43565,10 @@
     </row>
     <row r="739">
       <c r="A739" t="s">
-        <v>755</v>
+        <v>1181</v>
       </c>
       <c r="B739" t="s">
-        <v>1052</v>
+        <v>736</v>
       </c>
       <c r="C739" s="0"/>
       <c r="D739" t="s">
@@ -43864,7 +43864,7 @@
         <v>750</v>
       </c>
       <c r="B756" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="C756" s="0"/>
       <c r="D756" t="s">
@@ -43882,7 +43882,7 @@
         <v>750</v>
       </c>
       <c r="B757" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C757" s="0"/>
       <c r="D757" t="s">
@@ -44210,7 +44210,7 @@
         <v>750</v>
       </c>
       <c r="B776" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="C776" s="0"/>
       <c r="D776" t="s">
@@ -44226,7 +44226,7 @@
         <v>750</v>
       </c>
       <c r="B777" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="C777" s="0"/>
       <c r="D777" t="s">
@@ -44270,7 +44270,7 @@
         <v>748</v>
       </c>
       <c r="B780" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="C780" s="0"/>
       <c r="D780" t="s">
@@ -44284,7 +44284,7 @@
         <v>748</v>
       </c>
       <c r="B781" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="C781" s="0"/>
       <c r="D781" t="s">
@@ -44298,7 +44298,7 @@
         <v>750</v>
       </c>
       <c r="B782" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="C782" s="0"/>
       <c r="D782" t="s">
@@ -44314,7 +44314,7 @@
         <v>750</v>
       </c>
       <c r="B783" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C783" s="0"/>
       <c r="D783" t="s">
@@ -44863,10 +44863,10 @@
     </row>
     <row r="815">
       <c r="A815" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B815" t="s">
-        <v>773</v>
+        <v>1082</v>
       </c>
       <c r="C815" s="0"/>
       <c r="D815" t="s">
@@ -44881,10 +44881,10 @@
     </row>
     <row r="816">
       <c r="A816" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B816" t="s">
-        <v>1082</v>
+        <v>773</v>
       </c>
       <c r="C816" s="0"/>
       <c r="D816" t="s">
@@ -44971,10 +44971,10 @@
     </row>
     <row r="821">
       <c r="A821" t="s">
-        <v>750</v>
+        <v>1181</v>
       </c>
       <c r="B821" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="C821" s="0"/>
       <c r="D821" t="s">
@@ -44989,10 +44989,10 @@
     </row>
     <row r="822">
       <c r="A822" t="s">
-        <v>1181</v>
+        <v>750</v>
       </c>
       <c r="B822" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C822" s="0"/>
       <c r="D822" t="s">
@@ -45267,10 +45267,10 @@
     </row>
     <row r="838">
       <c r="A838" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B838" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="C838" s="0"/>
       <c r="D838" t="s">
@@ -45281,10 +45281,10 @@
     </row>
     <row r="839">
       <c r="A839" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B839" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="C839" s="0"/>
       <c r="D839" t="s">
@@ -45515,10 +45515,10 @@
     </row>
     <row r="854">
       <c r="A854" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B854" t="s">
-        <v>1100</v>
+        <v>821</v>
       </c>
       <c r="C854" s="0"/>
       <c r="D854" t="s">
@@ -45531,10 +45531,10 @@
     </row>
     <row r="855">
       <c r="A855" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B855" t="s">
-        <v>821</v>
+        <v>1100</v>
       </c>
       <c r="C855" s="0"/>
       <c r="D855" t="s">
@@ -45813,10 +45813,10 @@
     </row>
     <row r="872">
       <c r="A872" t="s">
-        <v>750</v>
+        <v>1181</v>
       </c>
       <c r="B872" t="s">
-        <v>262</v>
+        <v>973</v>
       </c>
       <c r="C872" s="0"/>
       <c r="D872" t="s">
@@ -45831,10 +45831,10 @@
     </row>
     <row r="873">
       <c r="A873" t="s">
-        <v>1181</v>
+        <v>750</v>
       </c>
       <c r="B873" t="s">
-        <v>973</v>
+        <v>262</v>
       </c>
       <c r="C873" s="0"/>
       <c r="D873" t="s">
@@ -47762,7 +47762,7 @@
         <v>750</v>
       </c>
       <c r="B986" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C986" s="0"/>
       <c r="D986" t="s">
@@ -47780,7 +47780,7 @@
         <v>750</v>
       </c>
       <c r="B987" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="C987" s="0"/>
       <c r="D987" t="s">
@@ -47813,10 +47813,10 @@
     </row>
     <row r="989">
       <c r="A989" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B989" t="s">
-        <v>264</v>
+        <v>300</v>
       </c>
       <c r="C989" s="0"/>
       <c r="D989" t="s">
@@ -47829,10 +47829,10 @@
     </row>
     <row r="990">
       <c r="A990" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B990" t="s">
-        <v>300</v>
+        <v>264</v>
       </c>
       <c r="C990" s="0"/>
       <c r="D990" t="s">

--- a/Occupations/Occupations.xlsx
+++ b/Occupations/Occupations.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245999" uniqueCount="1314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249020" uniqueCount="1314">
   <si>
     <t>occupationname</t>
   </si>
@@ -31091,10 +31091,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B2" t="s">
-        <v>486</v>
+        <v>773</v>
       </c>
       <c r="C2" s="0"/>
       <c r="D2" t="s">
@@ -31109,10 +31109,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B3" t="s">
-        <v>773</v>
+        <v>486</v>
       </c>
       <c r="C3" s="0"/>
       <c r="D3" t="s">
@@ -31127,10 +31127,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B4" t="s">
-        <v>773</v>
+        <v>48</v>
       </c>
       <c r="C4" s="0"/>
       <c r="D4" t="s">
@@ -31145,10 +31145,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>773</v>
       </c>
       <c r="C5" s="0"/>
       <c r="D5" t="s">
@@ -31163,10 +31163,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B6" t="s">
-        <v>309</v>
+        <v>1184</v>
       </c>
       <c r="C6" s="0"/>
       <c r="D6" t="s">
@@ -31179,10 +31179,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B7" t="s">
-        <v>1184</v>
+        <v>309</v>
       </c>
       <c r="C7" s="0"/>
       <c r="D7" t="s">
@@ -31273,10 +31273,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="B13" t="s">
-        <v>775</v>
+        <v>262</v>
       </c>
       <c r="C13" s="0"/>
       <c r="D13" t="s">
@@ -31309,10 +31309,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="B15" t="s">
-        <v>262</v>
+        <v>775</v>
       </c>
       <c r="C15" s="0"/>
       <c r="D15" t="s">
@@ -31363,10 +31363,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B18" t="s">
-        <v>198</v>
+        <v>777</v>
       </c>
       <c r="C18" s="0"/>
       <c r="D18" t="s">
@@ -31381,10 +31381,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B19" t="s">
-        <v>777</v>
+        <v>198</v>
       </c>
       <c r="C19" s="0"/>
       <c r="D19" t="s">
@@ -31501,10 +31501,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>750</v>
+        <v>1181</v>
       </c>
       <c r="B26" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C26" s="0"/>
       <c r="D26" t="s">
@@ -31519,10 +31519,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>1181</v>
+        <v>750</v>
       </c>
       <c r="B27" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C27" s="0"/>
       <c r="D27" t="s">
@@ -31643,10 +31643,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B34" t="s">
-        <v>776</v>
+        <v>264</v>
       </c>
       <c r="C34" s="0"/>
       <c r="D34" t="s">
@@ -31659,10 +31659,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B35" t="s">
-        <v>264</v>
+        <v>776</v>
       </c>
       <c r="C35" s="0"/>
       <c r="D35" t="s">
@@ -31768,7 +31768,7 @@
         <v>748</v>
       </c>
       <c r="B41" t="s">
-        <v>787</v>
+        <v>262</v>
       </c>
       <c r="C41" s="0"/>
       <c r="D41" t="s">
@@ -31784,7 +31784,7 @@
         <v>748</v>
       </c>
       <c r="B42" t="s">
-        <v>262</v>
+        <v>787</v>
       </c>
       <c r="C42" s="0"/>
       <c r="D42" t="s">
@@ -31797,10 +31797,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B43" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C43" s="0"/>
       <c r="D43" t="s">
@@ -31815,10 +31815,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B44" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C44" s="0"/>
       <c r="D44" t="s">
@@ -31849,10 +31849,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>752</v>
+        <v>1181</v>
       </c>
       <c r="B46" t="s">
-        <v>309</v>
+        <v>1185</v>
       </c>
       <c r="C46" s="0"/>
       <c r="D46" t="s">
@@ -31863,10 +31863,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>1181</v>
+        <v>752</v>
       </c>
       <c r="B47" t="s">
-        <v>1185</v>
+        <v>309</v>
       </c>
       <c r="C47" s="0"/>
       <c r="D47" t="s">
@@ -31969,10 +31969,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B54" t="s">
-        <v>264</v>
+        <v>1189</v>
       </c>
       <c r="C54" s="0"/>
       <c r="D54" t="s">
@@ -31985,10 +31985,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B55" t="s">
-        <v>1189</v>
+        <v>264</v>
       </c>
       <c r="C55" s="0"/>
       <c r="D55" t="s">
@@ -32069,10 +32069,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B60" t="s">
-        <v>300</v>
+        <v>790</v>
       </c>
       <c r="C60" s="0"/>
       <c r="D60" t="s">
@@ -32087,10 +32087,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B61" t="s">
-        <v>790</v>
+        <v>300</v>
       </c>
       <c r="C61" s="0"/>
       <c r="D61" t="s">
@@ -32126,7 +32126,7 @@
         <v>1181</v>
       </c>
       <c r="B63" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C63" s="0"/>
       <c r="D63" t="s">
@@ -32144,7 +32144,7 @@
         <v>1181</v>
       </c>
       <c r="B64" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C64" s="0"/>
       <c r="D64" t="s">
@@ -32507,10 +32507,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B85" t="s">
-        <v>804</v>
+        <v>280</v>
       </c>
       <c r="C85" s="0"/>
       <c r="D85" t="s">
@@ -32525,10 +32525,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B86" t="s">
-        <v>624</v>
+        <v>804</v>
       </c>
       <c r="C86" s="0"/>
       <c r="D86" t="s">
@@ -32543,10 +32543,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B87" t="s">
-        <v>280</v>
+        <v>624</v>
       </c>
       <c r="C87" s="0"/>
       <c r="D87" t="s">
@@ -32561,10 +32561,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="B88" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C88" s="0"/>
       <c r="D88" t="s">
@@ -32577,10 +32577,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="B89" t="s">
-        <v>280</v>
+        <v>805</v>
       </c>
       <c r="C89" s="0"/>
       <c r="D89" t="s">
@@ -32596,7 +32596,7 @@
         <v>748</v>
       </c>
       <c r="B90" t="s">
-        <v>804</v>
+        <v>280</v>
       </c>
       <c r="C90" s="0"/>
       <c r="D90" t="s">
@@ -32943,10 +32943,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>1181</v>
+        <v>748</v>
       </c>
       <c r="B111" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="C111" s="0"/>
       <c r="D111" t="s">
@@ -32959,10 +32959,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>748</v>
+        <v>1181</v>
       </c>
       <c r="B112" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C112" s="0"/>
       <c r="D112" t="s">
@@ -33095,10 +33095,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B120" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="C120" s="0"/>
       <c r="D120" t="s">
@@ -33113,10 +33113,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B121" t="s">
-        <v>286</v>
+        <v>309</v>
       </c>
       <c r="C121" s="0"/>
       <c r="D121" t="s">
@@ -33326,7 +33326,7 @@
         <v>750</v>
       </c>
       <c r="B133" t="s">
-        <v>821</v>
+        <v>827</v>
       </c>
       <c r="C133" s="0"/>
       <c r="D133" t="s">
@@ -33344,7 +33344,7 @@
         <v>750</v>
       </c>
       <c r="B134" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="C134" s="0"/>
       <c r="D134" t="s">
@@ -33362,7 +33362,7 @@
         <v>750</v>
       </c>
       <c r="B135" t="s">
-        <v>486</v>
+        <v>336</v>
       </c>
       <c r="C135" s="0"/>
       <c r="D135" t="s">
@@ -33378,7 +33378,7 @@
         <v>750</v>
       </c>
       <c r="B136" t="s">
-        <v>336</v>
+        <v>486</v>
       </c>
       <c r="C136" s="0"/>
       <c r="D136" t="s">
@@ -33394,7 +33394,7 @@
         <v>748</v>
       </c>
       <c r="B137" t="s">
-        <v>262</v>
+        <v>336</v>
       </c>
       <c r="C137" s="0"/>
       <c r="D137" t="s">
@@ -33410,7 +33410,7 @@
         <v>748</v>
       </c>
       <c r="B138" t="s">
-        <v>336</v>
+        <v>262</v>
       </c>
       <c r="C138" s="0"/>
       <c r="D138" t="s">
@@ -33457,10 +33457,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="B141" t="s">
-        <v>47</v>
+        <v>805</v>
       </c>
       <c r="C141" s="0"/>
       <c r="D141" t="s">
@@ -33475,10 +33475,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="B142" t="s">
-        <v>805</v>
+        <v>47</v>
       </c>
       <c r="C142" s="0"/>
       <c r="D142" t="s">
@@ -33737,10 +33737,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B158" t="s">
-        <v>791</v>
+        <v>300</v>
       </c>
       <c r="C158" s="0"/>
       <c r="D158" t="s">
@@ -33755,10 +33755,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B159" t="s">
-        <v>300</v>
+        <v>791</v>
       </c>
       <c r="C159" s="0"/>
       <c r="D159" t="s">
@@ -34345,10 +34345,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>1181</v>
+        <v>752</v>
       </c>
       <c r="B194" t="s">
-        <v>343</v>
+        <v>1199</v>
       </c>
       <c r="C194" s="0"/>
       <c r="D194" t="s">
@@ -34361,10 +34361,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>752</v>
+        <v>1181</v>
       </c>
       <c r="B195" t="s">
-        <v>1199</v>
+        <v>343</v>
       </c>
       <c r="C195" s="0"/>
       <c r="D195" t="s">
@@ -34411,10 +34411,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B198" t="s">
-        <v>282</v>
+        <v>813</v>
       </c>
       <c r="C198" s="0"/>
       <c r="D198" t="s">
@@ -34429,10 +34429,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B199" t="s">
-        <v>813</v>
+        <v>282</v>
       </c>
       <c r="C199" s="0"/>
       <c r="D199" t="s">
@@ -34549,10 +34549,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>748</v>
+        <v>1181</v>
       </c>
       <c r="B206" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C206" s="0"/>
       <c r="D206" t="s">
@@ -34565,10 +34565,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>1181</v>
+        <v>748</v>
       </c>
       <c r="B207" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="C207" s="0"/>
       <c r="D207" t="s">
@@ -34613,10 +34613,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>1181</v>
+        <v>749</v>
       </c>
       <c r="B210" t="s">
-        <v>846</v>
+        <v>790</v>
       </c>
       <c r="C210" s="0"/>
       <c r="D210" t="s">
@@ -34631,10 +34631,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>749</v>
+        <v>1181</v>
       </c>
       <c r="B211" t="s">
-        <v>790</v>
+        <v>846</v>
       </c>
       <c r="C211" s="0"/>
       <c r="D211" t="s">
@@ -35004,7 +35004,7 @@
         <v>750</v>
       </c>
       <c r="B233" t="s">
-        <v>822</v>
+        <v>851</v>
       </c>
       <c r="C233" s="0"/>
       <c r="D233" t="s">
@@ -35020,7 +35020,7 @@
         <v>750</v>
       </c>
       <c r="B234" t="s">
-        <v>851</v>
+        <v>822</v>
       </c>
       <c r="C234" s="0"/>
       <c r="D234" t="s">
@@ -35419,10 +35419,10 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B258" t="s">
-        <v>860</v>
+        <v>786</v>
       </c>
       <c r="C258" s="0"/>
       <c r="D258" t="s">
@@ -35437,10 +35437,10 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B259" t="s">
-        <v>786</v>
+        <v>860</v>
       </c>
       <c r="C259" s="0"/>
       <c r="D259" t="s">
@@ -35455,10 +35455,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B260" t="s">
-        <v>860</v>
+        <v>786</v>
       </c>
       <c r="C260" s="0"/>
       <c r="D260" t="s">
@@ -35471,10 +35471,10 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B261" t="s">
-        <v>786</v>
+        <v>860</v>
       </c>
       <c r="C261" s="0"/>
       <c r="D261" t="s">
@@ -35587,10 +35587,10 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>750</v>
+        <v>1181</v>
       </c>
       <c r="B268" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C268" s="0"/>
       <c r="D268" t="s">
@@ -35603,10 +35603,10 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>1181</v>
+        <v>750</v>
       </c>
       <c r="B269" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="C269" s="0"/>
       <c r="D269" t="s">
@@ -35767,10 +35767,10 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B279" t="s">
-        <v>535</v>
+        <v>867</v>
       </c>
       <c r="C279" s="0"/>
       <c r="D279" t="s">
@@ -35785,10 +35785,10 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B280" t="s">
-        <v>867</v>
+        <v>535</v>
       </c>
       <c r="C280" s="0"/>
       <c r="D280" t="s">
@@ -36007,10 +36007,10 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>754</v>
+        <v>1181</v>
       </c>
       <c r="B293" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C293" s="0"/>
       <c r="D293" t="s">
@@ -36025,10 +36025,10 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>1181</v>
+        <v>754</v>
       </c>
       <c r="B294" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C294" s="0"/>
       <c r="D294" t="s">
@@ -36079,10 +36079,10 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>1181</v>
+        <v>748</v>
       </c>
       <c r="B297" t="s">
-        <v>875</v>
+        <v>823</v>
       </c>
       <c r="C297" s="0"/>
       <c r="D297" t="s">
@@ -36097,10 +36097,10 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>748</v>
+        <v>1181</v>
       </c>
       <c r="B298" t="s">
-        <v>823</v>
+        <v>875</v>
       </c>
       <c r="C298" s="0"/>
       <c r="D298" t="s">
@@ -36195,10 +36195,10 @@
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B304" t="s">
-        <v>324</v>
+        <v>517</v>
       </c>
       <c r="C304" s="0"/>
       <c r="D304" t="s">
@@ -36213,10 +36213,10 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B305" t="s">
-        <v>517</v>
+        <v>324</v>
       </c>
       <c r="C305" s="0"/>
       <c r="D305" t="s">
@@ -37015,10 +37015,10 @@
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B352" t="s">
-        <v>813</v>
+        <v>891</v>
       </c>
       <c r="C352" s="0"/>
       <c r="D352" t="s">
@@ -37031,10 +37031,10 @@
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B353" t="s">
-        <v>891</v>
+        <v>813</v>
       </c>
       <c r="C353" s="0"/>
       <c r="D353" t="s">
@@ -37068,7 +37068,7 @@
         <v>748</v>
       </c>
       <c r="B355" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C355" s="0"/>
       <c r="D355" t="s">
@@ -37084,7 +37084,7 @@
         <v>748</v>
       </c>
       <c r="B356" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="C356" s="0"/>
       <c r="D356" t="s">
@@ -37654,7 +37654,7 @@
         <v>748</v>
       </c>
       <c r="B389" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="C389" s="0"/>
       <c r="D389" t="s">
@@ -37670,7 +37670,7 @@
         <v>748</v>
       </c>
       <c r="B390" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="C390" s="0"/>
       <c r="D390" t="s">
@@ -38442,7 +38442,7 @@
         <v>750</v>
       </c>
       <c r="B436" t="s">
-        <v>517</v>
+        <v>932</v>
       </c>
       <c r="C436" s="0"/>
       <c r="D436" t="s">
@@ -38458,7 +38458,7 @@
         <v>750</v>
       </c>
       <c r="B437" t="s">
-        <v>932</v>
+        <v>517</v>
       </c>
       <c r="C437" s="0"/>
       <c r="D437" t="s">
@@ -38911,10 +38911,10 @@
     </row>
     <row r="464">
       <c r="A464" t="s">
-        <v>750</v>
+        <v>1181</v>
       </c>
       <c r="B464" t="s">
-        <v>278</v>
+        <v>899</v>
       </c>
       <c r="C464" s="0"/>
       <c r="D464" t="s">
@@ -38929,10 +38929,10 @@
     </row>
     <row r="465">
       <c r="A465" t="s">
-        <v>1181</v>
+        <v>750</v>
       </c>
       <c r="B465" t="s">
-        <v>899</v>
+        <v>278</v>
       </c>
       <c r="C465" s="0"/>
       <c r="D465" t="s">
@@ -39061,10 +39061,10 @@
     </row>
     <row r="473">
       <c r="A473" t="s">
-        <v>1181</v>
+        <v>752</v>
       </c>
       <c r="B473" t="s">
-        <v>1129</v>
+        <v>1224</v>
       </c>
       <c r="C473" s="0"/>
       <c r="D473" t="s">
@@ -39093,10 +39093,10 @@
     </row>
     <row r="475">
       <c r="A475" t="s">
-        <v>752</v>
+        <v>1181</v>
       </c>
       <c r="B475" t="s">
-        <v>1224</v>
+        <v>1129</v>
       </c>
       <c r="C475" s="0"/>
       <c r="D475" t="s">
@@ -39125,10 +39125,10 @@
     </row>
     <row r="477">
       <c r="A477" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B477" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="C477" s="0"/>
       <c r="D477" t="s">
@@ -39139,10 +39139,10 @@
     </row>
     <row r="478">
       <c r="A478" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B478" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="C478" s="0"/>
       <c r="D478" t="s">
@@ -40185,10 +40185,10 @@
     </row>
     <row r="539">
       <c r="A539" t="s">
-        <v>1181</v>
+        <v>750</v>
       </c>
       <c r="B539" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="C539" s="0"/>
       <c r="D539" t="s">
@@ -40201,10 +40201,10 @@
     </row>
     <row r="540">
       <c r="A540" t="s">
-        <v>750</v>
+        <v>1181</v>
       </c>
       <c r="B540" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C540" s="0"/>
       <c r="D540" t="s">
@@ -40345,10 +40345,10 @@
     </row>
     <row r="549">
       <c r="A549" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B549" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="C549" s="0"/>
       <c r="D549" t="s">
@@ -40359,10 +40359,10 @@
     </row>
     <row r="550">
       <c r="A550" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B550" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="C550" s="0"/>
       <c r="D550" t="s">
@@ -40857,10 +40857,10 @@
     </row>
     <row r="579">
       <c r="A579" t="s">
-        <v>748</v>
+        <v>1181</v>
       </c>
       <c r="B579" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="C579" s="0"/>
       <c r="D579" t="s">
@@ -40873,10 +40873,10 @@
     </row>
     <row r="580">
       <c r="A580" t="s">
-        <v>1181</v>
+        <v>748</v>
       </c>
       <c r="B580" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="C580" s="0"/>
       <c r="D580" t="s">
@@ -41027,10 +41027,10 @@
     </row>
     <row r="589">
       <c r="A589" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B589" t="s">
-        <v>262</v>
+        <v>790</v>
       </c>
       <c r="C589" s="0"/>
       <c r="D589" t="s">
@@ -41043,10 +41043,10 @@
     </row>
     <row r="590">
       <c r="A590" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B590" t="s">
-        <v>790</v>
+        <v>262</v>
       </c>
       <c r="C590" s="0"/>
       <c r="D590" t="s">
@@ -41150,7 +41150,7 @@
         <v>1181</v>
       </c>
       <c r="B596" t="s">
-        <v>275</v>
+        <v>996</v>
       </c>
       <c r="C596" s="0"/>
       <c r="D596" t="s">
@@ -41186,7 +41186,7 @@
         <v>1181</v>
       </c>
       <c r="B598" t="s">
-        <v>996</v>
+        <v>275</v>
       </c>
       <c r="C598" s="0"/>
       <c r="D598" t="s">
@@ -41745,10 +41745,10 @@
     </row>
     <row r="631">
       <c r="A631" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B631" t="s">
-        <v>448</v>
+        <v>1012</v>
       </c>
       <c r="C631" s="0"/>
       <c r="D631" t="s">
@@ -41763,10 +41763,10 @@
     </row>
     <row r="632">
       <c r="A632" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B632" t="s">
-        <v>1013</v>
+        <v>448</v>
       </c>
       <c r="C632" s="0"/>
       <c r="D632" t="s">
@@ -41781,10 +41781,10 @@
     </row>
     <row r="633">
       <c r="A633" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="B633" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="C633" s="0"/>
       <c r="D633" t="s">
@@ -41917,10 +41917,10 @@
     </row>
     <row r="641">
       <c r="A641" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="B641" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C641" s="0"/>
       <c r="D641" t="s">
@@ -41933,10 +41933,10 @@
     </row>
     <row r="642">
       <c r="A642" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="B642" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="C642" s="0"/>
       <c r="D642" t="s">
@@ -42123,10 +42123,10 @@
     </row>
     <row r="653">
       <c r="A653" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B653" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="C653" s="0"/>
       <c r="D653" t="s">
@@ -42139,10 +42139,10 @@
     </row>
     <row r="654">
       <c r="A654" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B654" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="C654" s="0"/>
       <c r="D654" t="s">
@@ -42271,10 +42271,10 @@
     </row>
     <row r="662">
       <c r="A662" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="B662" t="s">
-        <v>667</v>
+        <v>286</v>
       </c>
       <c r="C662" s="0"/>
       <c r="D662" t="s">
@@ -42285,10 +42285,10 @@
     </row>
     <row r="663">
       <c r="A663" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="B663" t="s">
-        <v>286</v>
+        <v>667</v>
       </c>
       <c r="C663" s="0"/>
       <c r="D663" t="s">
@@ -42619,10 +42619,10 @@
     </row>
     <row r="683">
       <c r="A683" t="s">
-        <v>1181</v>
+        <v>748</v>
       </c>
       <c r="B683" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="C683" s="0"/>
       <c r="D683" t="s">
@@ -42633,10 +42633,10 @@
     </row>
     <row r="684">
       <c r="A684" t="s">
-        <v>748</v>
+        <v>1181</v>
       </c>
       <c r="B684" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="C684" s="0"/>
       <c r="D684" t="s">
@@ -42922,7 +42922,7 @@
         <v>750</v>
       </c>
       <c r="B701" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="C701" s="0"/>
       <c r="D701" t="s">
@@ -42938,7 +42938,7 @@
         <v>750</v>
       </c>
       <c r="B702" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="C702" s="0"/>
       <c r="D702" t="s">
@@ -42954,7 +42954,7 @@
         <v>750</v>
       </c>
       <c r="B703" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="C703" s="0"/>
       <c r="D703" t="s">
@@ -42970,7 +42970,7 @@
         <v>750</v>
       </c>
       <c r="B704" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C704" s="0"/>
       <c r="D704" t="s">
@@ -43196,7 +43196,7 @@
         <v>750</v>
       </c>
       <c r="B717" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="C717" s="0"/>
       <c r="D717" t="s">
@@ -43214,7 +43214,7 @@
         <v>750</v>
       </c>
       <c r="B718" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C718" s="0"/>
       <c r="D718" t="s">
@@ -43547,10 +43547,10 @@
     </row>
     <row r="738">
       <c r="A738" t="s">
-        <v>755</v>
+        <v>1181</v>
       </c>
       <c r="B738" t="s">
-        <v>1052</v>
+        <v>736</v>
       </c>
       <c r="C738" s="0"/>
       <c r="D738" t="s">
@@ -43565,10 +43565,10 @@
     </row>
     <row r="739">
       <c r="A739" t="s">
-        <v>1181</v>
+        <v>755</v>
       </c>
       <c r="B739" t="s">
-        <v>736</v>
+        <v>1052</v>
       </c>
       <c r="C739" s="0"/>
       <c r="D739" t="s">
@@ -43864,7 +43864,7 @@
         <v>750</v>
       </c>
       <c r="B756" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C756" s="0"/>
       <c r="D756" t="s">
@@ -43882,7 +43882,7 @@
         <v>750</v>
       </c>
       <c r="B757" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="C757" s="0"/>
       <c r="D757" t="s">
@@ -44175,10 +44175,10 @@
     </row>
     <row r="774">
       <c r="A774" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B774" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="C774" s="0"/>
       <c r="D774" t="s">
@@ -44191,10 +44191,10 @@
     </row>
     <row r="775">
       <c r="A775" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B775" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C775" s="0"/>
       <c r="D775" t="s">
@@ -44210,7 +44210,7 @@
         <v>750</v>
       </c>
       <c r="B776" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="C776" s="0"/>
       <c r="D776" t="s">
@@ -44226,7 +44226,7 @@
         <v>750</v>
       </c>
       <c r="B777" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="C777" s="0"/>
       <c r="D777" t="s">
@@ -44242,7 +44242,7 @@
         <v>748</v>
       </c>
       <c r="B778" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="C778" s="0"/>
       <c r="D778" t="s">
@@ -44256,7 +44256,7 @@
         <v>748</v>
       </c>
       <c r="B779" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C779" s="0"/>
       <c r="D779" t="s">
@@ -44298,7 +44298,7 @@
         <v>750</v>
       </c>
       <c r="B782" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C782" s="0"/>
       <c r="D782" t="s">
@@ -44314,7 +44314,7 @@
         <v>750</v>
       </c>
       <c r="B783" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="C783" s="0"/>
       <c r="D783" t="s">
@@ -44330,7 +44330,7 @@
         <v>750</v>
       </c>
       <c r="B784" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C784" s="0"/>
       <c r="D784" t="s">
@@ -44344,7 +44344,7 @@
         <v>750</v>
       </c>
       <c r="B785" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="C785" s="0"/>
       <c r="D785" t="s">
@@ -44549,10 +44549,10 @@
     </row>
     <row r="797">
       <c r="A797" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B797" t="s">
-        <v>548</v>
+        <v>287</v>
       </c>
       <c r="C797" s="0"/>
       <c r="D797" t="s">
@@ -44565,10 +44565,10 @@
     </row>
     <row r="798">
       <c r="A798" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B798" t="s">
-        <v>287</v>
+        <v>548</v>
       </c>
       <c r="C798" s="0"/>
       <c r="D798" t="s">
@@ -44617,10 +44617,10 @@
     </row>
     <row r="801">
       <c r="A801" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B801" t="s">
-        <v>938</v>
+        <v>198</v>
       </c>
       <c r="C801" s="0"/>
       <c r="D801" t="s">
@@ -44635,10 +44635,10 @@
     </row>
     <row r="802">
       <c r="A802" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B802" t="s">
-        <v>198</v>
+        <v>938</v>
       </c>
       <c r="C802" s="0"/>
       <c r="D802" t="s">
@@ -44863,10 +44863,10 @@
     </row>
     <row r="815">
       <c r="A815" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B815" t="s">
-        <v>1082</v>
+        <v>773</v>
       </c>
       <c r="C815" s="0"/>
       <c r="D815" t="s">
@@ -44881,10 +44881,10 @@
     </row>
     <row r="816">
       <c r="A816" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B816" t="s">
-        <v>773</v>
+        <v>1082</v>
       </c>
       <c r="C816" s="0"/>
       <c r="D816" t="s">
@@ -44935,10 +44935,10 @@
     </row>
     <row r="819">
       <c r="A819" t="s">
-        <v>750</v>
+        <v>1181</v>
       </c>
       <c r="B819" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C819" s="0"/>
       <c r="D819" t="s">
@@ -44953,10 +44953,10 @@
     </row>
     <row r="820">
       <c r="A820" t="s">
-        <v>1181</v>
+        <v>750</v>
       </c>
       <c r="B820" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="C820" s="0"/>
       <c r="D820" t="s">
@@ -44971,10 +44971,10 @@
     </row>
     <row r="821">
       <c r="A821" t="s">
-        <v>1181</v>
+        <v>750</v>
       </c>
       <c r="B821" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C821" s="0"/>
       <c r="D821" t="s">
@@ -44989,10 +44989,10 @@
     </row>
     <row r="822">
       <c r="A822" t="s">
-        <v>750</v>
+        <v>1181</v>
       </c>
       <c r="B822" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="C822" s="0"/>
       <c r="D822" t="s">
@@ -45177,10 +45177,10 @@
     </row>
     <row r="833">
       <c r="A833" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B833" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C833" s="0"/>
       <c r="D833" t="s">
@@ -45195,10 +45195,10 @@
     </row>
     <row r="834">
       <c r="A834" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B834" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="C834" s="0"/>
       <c r="D834" t="s">
@@ -45216,7 +45216,7 @@
         <v>1181</v>
       </c>
       <c r="B835" t="s">
-        <v>1094</v>
+        <v>842</v>
       </c>
       <c r="C835" s="0"/>
       <c r="D835" t="s">
@@ -45234,7 +45234,7 @@
         <v>1181</v>
       </c>
       <c r="B836" t="s">
-        <v>842</v>
+        <v>1094</v>
       </c>
       <c r="C836" s="0"/>
       <c r="D836" t="s">
@@ -45339,10 +45339,10 @@
     </row>
     <row r="843">
       <c r="A843" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B843" t="s">
-        <v>1257</v>
+        <v>1286</v>
       </c>
       <c r="C843" s="0"/>
       <c r="D843" t="s">
@@ -45355,10 +45355,10 @@
     </row>
     <row r="844">
       <c r="A844" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B844" t="s">
-        <v>1286</v>
+        <v>1257</v>
       </c>
       <c r="C844" s="0"/>
       <c r="D844" t="s">
@@ -45444,7 +45444,7 @@
         <v>748</v>
       </c>
       <c r="B849" t="s">
-        <v>1098</v>
+        <v>802</v>
       </c>
       <c r="C849" s="0"/>
       <c r="D849" t="s">
@@ -45460,7 +45460,7 @@
         <v>748</v>
       </c>
       <c r="B850" t="s">
-        <v>802</v>
+        <v>1098</v>
       </c>
       <c r="C850" s="0"/>
       <c r="D850" t="s">
@@ -45515,10 +45515,10 @@
     </row>
     <row r="854">
       <c r="A854" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B854" t="s">
-        <v>821</v>
+        <v>1100</v>
       </c>
       <c r="C854" s="0"/>
       <c r="D854" t="s">
@@ -45531,10 +45531,10 @@
     </row>
     <row r="855">
       <c r="A855" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B855" t="s">
-        <v>1100</v>
+        <v>821</v>
       </c>
       <c r="C855" s="0"/>
       <c r="D855" t="s">
@@ -45620,7 +45620,7 @@
         <v>748</v>
       </c>
       <c r="B860" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="C860" s="0"/>
       <c r="D860" t="s">
@@ -45638,7 +45638,7 @@
         <v>748</v>
       </c>
       <c r="B861" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="C861" s="0"/>
       <c r="D861" t="s">
@@ -45813,10 +45813,10 @@
     </row>
     <row r="872">
       <c r="A872" t="s">
-        <v>1181</v>
+        <v>750</v>
       </c>
       <c r="B872" t="s">
-        <v>973</v>
+        <v>262</v>
       </c>
       <c r="C872" s="0"/>
       <c r="D872" t="s">
@@ -45831,10 +45831,10 @@
     </row>
     <row r="873">
       <c r="A873" t="s">
-        <v>750</v>
+        <v>1181</v>
       </c>
       <c r="B873" t="s">
-        <v>262</v>
+        <v>973</v>
       </c>
       <c r="C873" s="0"/>
       <c r="D873" t="s">
@@ -46027,10 +46027,10 @@
     </row>
     <row r="885">
       <c r="A885" t="s">
-        <v>1181</v>
+        <v>750</v>
       </c>
       <c r="B885" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="C885" s="0"/>
       <c r="D885" t="s">
@@ -46045,10 +46045,10 @@
     </row>
     <row r="886">
       <c r="A886" t="s">
-        <v>750</v>
+        <v>1181</v>
       </c>
       <c r="B886" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="C886" s="0"/>
       <c r="D886" t="s">
@@ -47311,10 +47311,10 @@
     </row>
     <row r="960">
       <c r="A960" t="s">
-        <v>750</v>
+        <v>1181</v>
       </c>
       <c r="B960" t="s">
-        <v>1155</v>
+        <v>1111</v>
       </c>
       <c r="C960" s="0"/>
       <c r="D960" t="s">
@@ -47329,10 +47329,10 @@
     </row>
     <row r="961">
       <c r="A961" t="s">
-        <v>1181</v>
+        <v>750</v>
       </c>
       <c r="B961" t="s">
-        <v>1111</v>
+        <v>1155</v>
       </c>
       <c r="C961" s="0"/>
       <c r="D961" t="s">
@@ -47404,7 +47404,7 @@
         <v>748</v>
       </c>
       <c r="B965" t="s">
-        <v>1293</v>
+        <v>299</v>
       </c>
       <c r="C965" s="0"/>
       <c r="D965" t="s">
@@ -47418,7 +47418,7 @@
         <v>748</v>
       </c>
       <c r="B966" t="s">
-        <v>299</v>
+        <v>1293</v>
       </c>
       <c r="C966" s="0"/>
       <c r="D966" t="s">
@@ -47762,7 +47762,7 @@
         <v>750</v>
       </c>
       <c r="B986" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="C986" s="0"/>
       <c r="D986" t="s">
@@ -47780,7 +47780,7 @@
         <v>750</v>
       </c>
       <c r="B987" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C987" s="0"/>
       <c r="D987" t="s">
@@ -48056,7 +48056,7 @@
         <v>750</v>
       </c>
       <c r="B1003" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="C1003" s="0"/>
       <c r="D1003" t="s">
@@ -48070,7 +48070,7 @@
         <v>750</v>
       </c>
       <c r="B1004" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="C1004" s="0"/>
       <c r="D1004" t="s">

--- a/Occupations/Occupations.xlsx
+++ b/Occupations/Occupations.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249020" uniqueCount="1314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252041" uniqueCount="1314">
   <si>
     <t>occupationname</t>
   </si>
@@ -31091,10 +31091,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B2" t="s">
-        <v>773</v>
+        <v>486</v>
       </c>
       <c r="C2" s="0"/>
       <c r="D2" t="s">
@@ -31109,10 +31109,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B3" t="s">
-        <v>486</v>
+        <v>773</v>
       </c>
       <c r="C3" s="0"/>
       <c r="D3" t="s">
@@ -31127,10 +31127,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>773</v>
       </c>
       <c r="C4" s="0"/>
       <c r="D4" t="s">
@@ -31145,10 +31145,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B5" t="s">
-        <v>773</v>
+        <v>48</v>
       </c>
       <c r="C5" s="0"/>
       <c r="D5" t="s">
@@ -31248,7 +31248,7 @@
         <v>748</v>
       </c>
       <c r="B11" t="s">
-        <v>336</v>
+        <v>804</v>
       </c>
       <c r="C11" s="0"/>
       <c r="D11" t="s">
@@ -31262,7 +31262,7 @@
         <v>748</v>
       </c>
       <c r="B12" t="s">
-        <v>804</v>
+        <v>336</v>
       </c>
       <c r="C12" s="0"/>
       <c r="D12" t="s">
@@ -31276,7 +31276,7 @@
         <v>748</v>
       </c>
       <c r="B13" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C13" s="0"/>
       <c r="D13" t="s">
@@ -31291,10 +31291,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="B14" t="s">
-        <v>264</v>
+        <v>775</v>
       </c>
       <c r="C14" s="0"/>
       <c r="D14" t="s">
@@ -31309,10 +31309,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="B15" t="s">
-        <v>775</v>
+        <v>262</v>
       </c>
       <c r="C15" s="0"/>
       <c r="D15" t="s">
@@ -31327,10 +31327,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B16" t="s">
-        <v>262</v>
+        <v>776</v>
       </c>
       <c r="C16" s="0"/>
       <c r="D16" t="s">
@@ -31345,10 +31345,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B17" t="s">
-        <v>776</v>
+        <v>262</v>
       </c>
       <c r="C17" s="0"/>
       <c r="D17" t="s">
@@ -31435,10 +31435,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>1181</v>
+        <v>748</v>
       </c>
       <c r="B22" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C22" s="0"/>
       <c r="D22" t="s">
@@ -31451,10 +31451,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>748</v>
+        <v>1181</v>
       </c>
       <c r="B23" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C23" s="0"/>
       <c r="D23" t="s">
@@ -31501,10 +31501,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>1181</v>
+        <v>750</v>
       </c>
       <c r="B26" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C26" s="0"/>
       <c r="D26" t="s">
@@ -31519,10 +31519,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>750</v>
+        <v>1181</v>
       </c>
       <c r="B27" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C27" s="0"/>
       <c r="D27" t="s">
@@ -31643,10 +31643,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B34" t="s">
-        <v>264</v>
+        <v>776</v>
       </c>
       <c r="C34" s="0"/>
       <c r="D34" t="s">
@@ -31659,10 +31659,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B35" t="s">
-        <v>776</v>
+        <v>264</v>
       </c>
       <c r="C35" s="0"/>
       <c r="D35" t="s">
@@ -31849,10 +31849,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>1181</v>
+        <v>748</v>
       </c>
       <c r="B46" t="s">
-        <v>1185</v>
+        <v>48</v>
       </c>
       <c r="C46" s="0"/>
       <c r="D46" t="s">
@@ -31863,10 +31863,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="B47" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="C47" s="0"/>
       <c r="D47" t="s">
@@ -31877,10 +31877,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="B48" t="s">
-        <v>286</v>
+        <v>309</v>
       </c>
       <c r="C48" s="0"/>
       <c r="D48" t="s">
@@ -31891,10 +31891,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>748</v>
+        <v>1181</v>
       </c>
       <c r="B49" t="s">
-        <v>48</v>
+        <v>1185</v>
       </c>
       <c r="C49" s="0"/>
       <c r="D49" t="s">
@@ -31937,10 +31937,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>1181</v>
+        <v>749</v>
       </c>
       <c r="B52" t="s">
-        <v>1188</v>
+        <v>790</v>
       </c>
       <c r="C52" s="0"/>
       <c r="D52" t="s">
@@ -31953,10 +31953,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>749</v>
+        <v>1181</v>
       </c>
       <c r="B53" t="s">
-        <v>790</v>
+        <v>1188</v>
       </c>
       <c r="C53" s="0"/>
       <c r="D53" t="s">
@@ -32018,7 +32018,7 @@
         <v>750</v>
       </c>
       <c r="B57" t="s">
-        <v>789</v>
+        <v>486</v>
       </c>
       <c r="C57" s="0"/>
       <c r="D57" t="s">
@@ -32036,7 +32036,7 @@
         <v>750</v>
       </c>
       <c r="B58" t="s">
-        <v>486</v>
+        <v>789</v>
       </c>
       <c r="C58" s="0"/>
       <c r="D58" t="s">
@@ -32069,10 +32069,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B60" t="s">
-        <v>790</v>
+        <v>300</v>
       </c>
       <c r="C60" s="0"/>
       <c r="D60" t="s">
@@ -32087,10 +32087,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B61" t="s">
-        <v>300</v>
+        <v>790</v>
       </c>
       <c r="C61" s="0"/>
       <c r="D61" t="s">
@@ -32421,10 +32421,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B80" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="C80" s="0"/>
       <c r="D80" t="s">
@@ -32439,10 +32439,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B81" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C81" s="0"/>
       <c r="D81" t="s">
@@ -32525,10 +32525,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B86" t="s">
-        <v>804</v>
+        <v>624</v>
       </c>
       <c r="C86" s="0"/>
       <c r="D86" t="s">
@@ -32543,10 +32543,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B87" t="s">
-        <v>624</v>
+        <v>804</v>
       </c>
       <c r="C87" s="0"/>
       <c r="D87" t="s">
@@ -32561,10 +32561,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="B88" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C88" s="0"/>
       <c r="D88" t="s">
@@ -32577,10 +32577,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="B89" t="s">
-        <v>805</v>
+        <v>280</v>
       </c>
       <c r="C89" s="0"/>
       <c r="D89" t="s">
@@ -32596,7 +32596,7 @@
         <v>748</v>
       </c>
       <c r="B90" t="s">
-        <v>280</v>
+        <v>804</v>
       </c>
       <c r="C90" s="0"/>
       <c r="D90" t="s">
@@ -33095,10 +33095,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B120" t="s">
-        <v>286</v>
+        <v>309</v>
       </c>
       <c r="C120" s="0"/>
       <c r="D120" t="s">
@@ -33113,10 +33113,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B121" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="C121" s="0"/>
       <c r="D121" t="s">
@@ -33362,7 +33362,7 @@
         <v>750</v>
       </c>
       <c r="B135" t="s">
-        <v>336</v>
+        <v>486</v>
       </c>
       <c r="C135" s="0"/>
       <c r="D135" t="s">
@@ -33378,7 +33378,7 @@
         <v>750</v>
       </c>
       <c r="B136" t="s">
-        <v>486</v>
+        <v>336</v>
       </c>
       <c r="C136" s="0"/>
       <c r="D136" t="s">
@@ -33737,10 +33737,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B158" t="s">
-        <v>300</v>
+        <v>791</v>
       </c>
       <c r="C158" s="0"/>
       <c r="D158" t="s">
@@ -33755,10 +33755,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B159" t="s">
-        <v>791</v>
+        <v>300</v>
       </c>
       <c r="C159" s="0"/>
       <c r="D159" t="s">
@@ -33919,10 +33919,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B169" t="s">
-        <v>47</v>
+        <v>804</v>
       </c>
       <c r="C169" s="0"/>
       <c r="D169" t="s">
@@ -33935,10 +33935,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B170" t="s">
-        <v>804</v>
+        <v>47</v>
       </c>
       <c r="C170" s="0"/>
       <c r="D170" t="s">
@@ -34313,10 +34313,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B192" t="s">
-        <v>536</v>
+        <v>1198</v>
       </c>
       <c r="C192" s="0"/>
       <c r="D192" t="s">
@@ -34329,10 +34329,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B193" t="s">
-        <v>1198</v>
+        <v>536</v>
       </c>
       <c r="C193" s="0"/>
       <c r="D193" t="s">
@@ -34581,10 +34581,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>748</v>
+        <v>1181</v>
       </c>
       <c r="B208" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C208" s="0"/>
       <c r="D208" t="s">
@@ -34597,10 +34597,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>1181</v>
+        <v>748</v>
       </c>
       <c r="B209" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="C209" s="0"/>
       <c r="D209" t="s">
@@ -34733,10 +34733,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B217" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C217" s="0"/>
       <c r="D217" t="s">
@@ -34749,10 +34749,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B218" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C218" s="0"/>
       <c r="D218" t="s">
@@ -34781,10 +34781,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B220" t="s">
-        <v>821</v>
+        <v>309</v>
       </c>
       <c r="C220" s="0"/>
       <c r="D220" t="s">
@@ -34817,10 +34817,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B222" t="s">
-        <v>309</v>
+        <v>821</v>
       </c>
       <c r="C222" s="0"/>
       <c r="D222" t="s">
@@ -34853,10 +34853,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>748</v>
+        <v>1181</v>
       </c>
       <c r="B224" t="s">
-        <v>817</v>
+        <v>842</v>
       </c>
       <c r="C224" s="0"/>
       <c r="D224" t="s">
@@ -34871,10 +34871,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>1181</v>
+        <v>748</v>
       </c>
       <c r="B225" t="s">
-        <v>842</v>
+        <v>817</v>
       </c>
       <c r="C225" s="0"/>
       <c r="D225" t="s">
@@ -34937,10 +34937,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B229" t="s">
-        <v>820</v>
+        <v>780</v>
       </c>
       <c r="C229" s="0"/>
       <c r="D229" t="s">
@@ -34953,10 +34953,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B230" t="s">
-        <v>780</v>
+        <v>820</v>
       </c>
       <c r="C230" s="0"/>
       <c r="D230" t="s">
@@ -35455,10 +35455,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B260" t="s">
-        <v>786</v>
+        <v>860</v>
       </c>
       <c r="C260" s="0"/>
       <c r="D260" t="s">
@@ -35471,10 +35471,10 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B261" t="s">
-        <v>860</v>
+        <v>786</v>
       </c>
       <c r="C261" s="0"/>
       <c r="D261" t="s">
@@ -35587,10 +35587,10 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>1181</v>
+        <v>750</v>
       </c>
       <c r="B268" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="C268" s="0"/>
       <c r="D268" t="s">
@@ -35603,10 +35603,10 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>750</v>
+        <v>1181</v>
       </c>
       <c r="B269" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C269" s="0"/>
       <c r="D269" t="s">
@@ -35767,10 +35767,10 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B279" t="s">
-        <v>867</v>
+        <v>535</v>
       </c>
       <c r="C279" s="0"/>
       <c r="D279" t="s">
@@ -35785,10 +35785,10 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B280" t="s">
-        <v>535</v>
+        <v>867</v>
       </c>
       <c r="C280" s="0"/>
       <c r="D280" t="s">
@@ -36079,10 +36079,10 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>748</v>
+        <v>1181</v>
       </c>
       <c r="B297" t="s">
-        <v>823</v>
+        <v>875</v>
       </c>
       <c r="C297" s="0"/>
       <c r="D297" t="s">
@@ -36097,10 +36097,10 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>1181</v>
+        <v>748</v>
       </c>
       <c r="B298" t="s">
-        <v>875</v>
+        <v>823</v>
       </c>
       <c r="C298" s="0"/>
       <c r="D298" t="s">
@@ -37015,10 +37015,10 @@
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B352" t="s">
-        <v>891</v>
+        <v>813</v>
       </c>
       <c r="C352" s="0"/>
       <c r="D352" t="s">
@@ -37031,10 +37031,10 @@
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B353" t="s">
-        <v>813</v>
+        <v>891</v>
       </c>
       <c r="C353" s="0"/>
       <c r="D353" t="s">
@@ -37274,7 +37274,7 @@
         <v>750</v>
       </c>
       <c r="B367" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="C367" s="0"/>
       <c r="D367" t="s">
@@ -37292,7 +37292,7 @@
         <v>750</v>
       </c>
       <c r="B368" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C368" s="0"/>
       <c r="D368" t="s">
@@ -37323,10 +37323,10 @@
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B370" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="C370" s="0"/>
       <c r="D370" t="s">
@@ -37339,10 +37339,10 @@
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B371" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C371" s="0"/>
       <c r="D371" t="s">
@@ -37654,7 +37654,7 @@
         <v>748</v>
       </c>
       <c r="B389" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="C389" s="0"/>
       <c r="D389" t="s">
@@ -37686,7 +37686,7 @@
         <v>748</v>
       </c>
       <c r="B391" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C391" s="0"/>
       <c r="D391" t="s">
@@ -38541,10 +38541,10 @@
     </row>
     <row r="442">
       <c r="A442" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B442" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="C442" s="0"/>
       <c r="D442" t="s">
@@ -38555,10 +38555,10 @@
     </row>
     <row r="443">
       <c r="A443" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B443" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="C443" s="0"/>
       <c r="D443" t="s">
@@ -38622,7 +38622,7 @@
         <v>750</v>
       </c>
       <c r="B447" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="C447" s="0"/>
       <c r="D447" t="s">
@@ -38640,7 +38640,7 @@
         <v>750</v>
       </c>
       <c r="B448" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="C448" s="0"/>
       <c r="D448" t="s">
@@ -38658,7 +38658,7 @@
         <v>750</v>
       </c>
       <c r="B449" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="C449" s="0"/>
       <c r="D449" t="s">
@@ -38740,7 +38740,7 @@
         <v>750</v>
       </c>
       <c r="B454" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="C454" s="0"/>
       <c r="D454" t="s">
@@ -38756,7 +38756,7 @@
         <v>750</v>
       </c>
       <c r="B455" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C455" s="0"/>
       <c r="D455" t="s">
@@ -38911,10 +38911,10 @@
     </row>
     <row r="464">
       <c r="A464" t="s">
-        <v>1181</v>
+        <v>750</v>
       </c>
       <c r="B464" t="s">
-        <v>899</v>
+        <v>278</v>
       </c>
       <c r="C464" s="0"/>
       <c r="D464" t="s">
@@ -38929,10 +38929,10 @@
     </row>
     <row r="465">
       <c r="A465" t="s">
-        <v>750</v>
+        <v>1181</v>
       </c>
       <c r="B465" t="s">
-        <v>278</v>
+        <v>899</v>
       </c>
       <c r="C465" s="0"/>
       <c r="D465" t="s">
@@ -39077,10 +39077,10 @@
     </row>
     <row r="474">
       <c r="A474" t="s">
-        <v>750</v>
+        <v>1181</v>
       </c>
       <c r="B474" t="s">
-        <v>429</v>
+        <v>1129</v>
       </c>
       <c r="C474" s="0"/>
       <c r="D474" t="s">
@@ -39093,10 +39093,10 @@
     </row>
     <row r="475">
       <c r="A475" t="s">
-        <v>1181</v>
+        <v>750</v>
       </c>
       <c r="B475" t="s">
-        <v>1129</v>
+        <v>429</v>
       </c>
       <c r="C475" s="0"/>
       <c r="D475" t="s">
@@ -39125,10 +39125,10 @@
     </row>
     <row r="477">
       <c r="A477" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B477" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="C477" s="0"/>
       <c r="D477" t="s">
@@ -39139,10 +39139,10 @@
     </row>
     <row r="478">
       <c r="A478" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B478" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="C478" s="0"/>
       <c r="D478" t="s">
@@ -39192,7 +39192,7 @@
         <v>750</v>
       </c>
       <c r="B481" t="s">
-        <v>946</v>
+        <v>316</v>
       </c>
       <c r="C481" s="0"/>
       <c r="D481" t="s">
@@ -39210,7 +39210,7 @@
         <v>750</v>
       </c>
       <c r="B482" t="s">
-        <v>316</v>
+        <v>946</v>
       </c>
       <c r="C482" s="0"/>
       <c r="D482" t="s">
@@ -39503,10 +39503,10 @@
     </row>
     <row r="499">
       <c r="A499" t="s">
-        <v>1181</v>
+        <v>750</v>
       </c>
       <c r="B499" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="C499" s="0"/>
       <c r="D499" t="s">
@@ -39521,10 +39521,10 @@
     </row>
     <row r="500">
       <c r="A500" t="s">
-        <v>750</v>
+        <v>1181</v>
       </c>
       <c r="B500" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="C500" s="0"/>
       <c r="D500" t="s">
@@ -39711,10 +39711,10 @@
     </row>
     <row r="511">
       <c r="A511" t="s">
-        <v>1181</v>
+        <v>749</v>
       </c>
       <c r="B511" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="C511" s="0"/>
       <c r="D511" t="s">
@@ -39727,10 +39727,10 @@
     </row>
     <row r="512">
       <c r="A512" t="s">
-        <v>749</v>
+        <v>1181</v>
       </c>
       <c r="B512" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="C512" s="0"/>
       <c r="D512" t="s">
@@ -39890,7 +39890,7 @@
         <v>748</v>
       </c>
       <c r="B522" t="s">
-        <v>804</v>
+        <v>47</v>
       </c>
       <c r="C522" s="0"/>
       <c r="D522" t="s">
@@ -39908,7 +39908,7 @@
         <v>748</v>
       </c>
       <c r="B523" t="s">
-        <v>47</v>
+        <v>804</v>
       </c>
       <c r="C523" s="0"/>
       <c r="D523" t="s">
@@ -40185,10 +40185,10 @@
     </row>
     <row r="539">
       <c r="A539" t="s">
-        <v>750</v>
+        <v>1181</v>
       </c>
       <c r="B539" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C539" s="0"/>
       <c r="D539" t="s">
@@ -40201,10 +40201,10 @@
     </row>
     <row r="540">
       <c r="A540" t="s">
-        <v>1181</v>
+        <v>750</v>
       </c>
       <c r="B540" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="C540" s="0"/>
       <c r="D540" t="s">
@@ -40277,10 +40277,10 @@
     </row>
     <row r="545">
       <c r="A545" t="s">
-        <v>1181</v>
+        <v>749</v>
       </c>
       <c r="B545" t="s">
-        <v>1237</v>
+        <v>776</v>
       </c>
       <c r="C545" s="0"/>
       <c r="D545" t="s">
@@ -40293,10 +40293,10 @@
     </row>
     <row r="546">
       <c r="A546" t="s">
-        <v>749</v>
+        <v>1181</v>
       </c>
       <c r="B546" t="s">
-        <v>776</v>
+        <v>1237</v>
       </c>
       <c r="C546" s="0"/>
       <c r="D546" t="s">
@@ -40857,10 +40857,10 @@
     </row>
     <row r="579">
       <c r="A579" t="s">
-        <v>1181</v>
+        <v>748</v>
       </c>
       <c r="B579" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="C579" s="0"/>
       <c r="D579" t="s">
@@ -40873,10 +40873,10 @@
     </row>
     <row r="580">
       <c r="A580" t="s">
-        <v>748</v>
+        <v>1181</v>
       </c>
       <c r="B580" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="C580" s="0"/>
       <c r="D580" t="s">
@@ -41027,10 +41027,10 @@
     </row>
     <row r="589">
       <c r="A589" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B589" t="s">
-        <v>790</v>
+        <v>264</v>
       </c>
       <c r="C589" s="0"/>
       <c r="D589" t="s">
@@ -41059,10 +41059,10 @@
     </row>
     <row r="591">
       <c r="A591" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B591" t="s">
-        <v>264</v>
+        <v>790</v>
       </c>
       <c r="C591" s="0"/>
       <c r="D591" t="s">
@@ -41150,7 +41150,7 @@
         <v>1181</v>
       </c>
       <c r="B596" t="s">
-        <v>996</v>
+        <v>275</v>
       </c>
       <c r="C596" s="0"/>
       <c r="D596" t="s">
@@ -41168,7 +41168,7 @@
         <v>1181</v>
       </c>
       <c r="B597" t="s">
-        <v>727</v>
+        <v>996</v>
       </c>
       <c r="C597" s="0"/>
       <c r="D597" t="s">
@@ -41186,7 +41186,7 @@
         <v>1181</v>
       </c>
       <c r="B598" t="s">
-        <v>275</v>
+        <v>727</v>
       </c>
       <c r="C598" s="0"/>
       <c r="D598" t="s">
@@ -41240,7 +41240,7 @@
         <v>748</v>
       </c>
       <c r="B601" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="C601" s="0"/>
       <c r="D601" t="s">
@@ -41258,7 +41258,7 @@
         <v>748</v>
       </c>
       <c r="B602" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="C602" s="0"/>
       <c r="D602" t="s">
@@ -41394,7 +41394,7 @@
         <v>748</v>
       </c>
       <c r="B610" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C610" s="0"/>
       <c r="D610" t="s">
@@ -41412,7 +41412,7 @@
         <v>748</v>
       </c>
       <c r="B611" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="C611" s="0"/>
       <c r="D611" t="s">
@@ -41917,10 +41917,10 @@
     </row>
     <row r="641">
       <c r="A641" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="B641" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="C641" s="0"/>
       <c r="D641" t="s">
@@ -41933,10 +41933,10 @@
     </row>
     <row r="642">
       <c r="A642" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="B642" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C642" s="0"/>
       <c r="D642" t="s">
@@ -42619,10 +42619,10 @@
     </row>
     <row r="683">
       <c r="A683" t="s">
-        <v>748</v>
+        <v>1181</v>
       </c>
       <c r="B683" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="C683" s="0"/>
       <c r="D683" t="s">
@@ -42633,10 +42633,10 @@
     </row>
     <row r="684">
       <c r="A684" t="s">
-        <v>1181</v>
+        <v>748</v>
       </c>
       <c r="B684" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="C684" s="0"/>
       <c r="D684" t="s">
@@ -42922,7 +42922,7 @@
         <v>750</v>
       </c>
       <c r="B701" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="C701" s="0"/>
       <c r="D701" t="s">
@@ -42938,7 +42938,7 @@
         <v>750</v>
       </c>
       <c r="B702" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="C702" s="0"/>
       <c r="D702" t="s">
@@ -42954,7 +42954,7 @@
         <v>750</v>
       </c>
       <c r="B703" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C703" s="0"/>
       <c r="D703" t="s">
@@ -42970,7 +42970,7 @@
         <v>750</v>
       </c>
       <c r="B704" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="C704" s="0"/>
       <c r="D704" t="s">
@@ -43196,7 +43196,7 @@
         <v>750</v>
       </c>
       <c r="B717" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C717" s="0"/>
       <c r="D717" t="s">
@@ -43214,7 +43214,7 @@
         <v>750</v>
       </c>
       <c r="B718" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="C718" s="0"/>
       <c r="D718" t="s">
@@ -43347,10 +43347,10 @@
     </row>
     <row r="726">
       <c r="A726" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B726" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="C726" s="0"/>
       <c r="D726" t="s">
@@ -43363,10 +43363,10 @@
     </row>
     <row r="727">
       <c r="A727" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B727" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="C727" s="0"/>
       <c r="D727" t="s">
@@ -43379,10 +43379,10 @@
     </row>
     <row r="728">
       <c r="A728" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B728" t="s">
-        <v>987</v>
+        <v>1048</v>
       </c>
       <c r="C728" s="0"/>
       <c r="D728" t="s">
@@ -43395,10 +43395,10 @@
     </row>
     <row r="729">
       <c r="A729" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B729" t="s">
-        <v>1048</v>
+        <v>987</v>
       </c>
       <c r="C729" s="0"/>
       <c r="D729" t="s">
@@ -44175,10 +44175,10 @@
     </row>
     <row r="774">
       <c r="A774" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B774" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C774" s="0"/>
       <c r="D774" t="s">
@@ -44191,10 +44191,10 @@
     </row>
     <row r="775">
       <c r="A775" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B775" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="C775" s="0"/>
       <c r="D775" t="s">
@@ -44242,7 +44242,7 @@
         <v>748</v>
       </c>
       <c r="B778" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C778" s="0"/>
       <c r="D778" t="s">
@@ -44256,7 +44256,7 @@
         <v>748</v>
       </c>
       <c r="B779" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="C779" s="0"/>
       <c r="D779" t="s">
@@ -44298,7 +44298,7 @@
         <v>750</v>
       </c>
       <c r="B782" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="C782" s="0"/>
       <c r="D782" t="s">
@@ -44314,7 +44314,7 @@
         <v>750</v>
       </c>
       <c r="B783" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C783" s="0"/>
       <c r="D783" t="s">
@@ -44482,7 +44482,7 @@
         <v>748</v>
       </c>
       <c r="B793" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C793" s="0"/>
       <c r="D793" t="s">
@@ -44500,7 +44500,7 @@
         <v>748</v>
       </c>
       <c r="B794" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="C794" s="0"/>
       <c r="D794" t="s">
@@ -44617,10 +44617,10 @@
     </row>
     <row r="801">
       <c r="A801" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B801" t="s">
-        <v>198</v>
+        <v>938</v>
       </c>
       <c r="C801" s="0"/>
       <c r="D801" t="s">
@@ -44635,10 +44635,10 @@
     </row>
     <row r="802">
       <c r="A802" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B802" t="s">
-        <v>938</v>
+        <v>198</v>
       </c>
       <c r="C802" s="0"/>
       <c r="D802" t="s">
@@ -44863,10 +44863,10 @@
     </row>
     <row r="815">
       <c r="A815" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B815" t="s">
-        <v>773</v>
+        <v>1082</v>
       </c>
       <c r="C815" s="0"/>
       <c r="D815" t="s">
@@ -44881,10 +44881,10 @@
     </row>
     <row r="816">
       <c r="A816" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B816" t="s">
-        <v>1082</v>
+        <v>773</v>
       </c>
       <c r="C816" s="0"/>
       <c r="D816" t="s">
@@ -44971,10 +44971,10 @@
     </row>
     <row r="821">
       <c r="A821" t="s">
-        <v>750</v>
+        <v>1181</v>
       </c>
       <c r="B821" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="C821" s="0"/>
       <c r="D821" t="s">
@@ -44989,10 +44989,10 @@
     </row>
     <row r="822">
       <c r="A822" t="s">
-        <v>1181</v>
+        <v>750</v>
       </c>
       <c r="B822" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C822" s="0"/>
       <c r="D822" t="s">
@@ -45177,10 +45177,10 @@
     </row>
     <row r="833">
       <c r="A833" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B833" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="C833" s="0"/>
       <c r="D833" t="s">
@@ -45195,10 +45195,10 @@
     </row>
     <row r="834">
       <c r="A834" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B834" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C834" s="0"/>
       <c r="D834" t="s">
@@ -45216,7 +45216,7 @@
         <v>1181</v>
       </c>
       <c r="B835" t="s">
-        <v>842</v>
+        <v>1094</v>
       </c>
       <c r="C835" s="0"/>
       <c r="D835" t="s">
@@ -45234,7 +45234,7 @@
         <v>1181</v>
       </c>
       <c r="B836" t="s">
-        <v>1094</v>
+        <v>842</v>
       </c>
       <c r="C836" s="0"/>
       <c r="D836" t="s">
@@ -45339,10 +45339,10 @@
     </row>
     <row r="843">
       <c r="A843" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B843" t="s">
-        <v>1286</v>
+        <v>1257</v>
       </c>
       <c r="C843" s="0"/>
       <c r="D843" t="s">
@@ -45355,10 +45355,10 @@
     </row>
     <row r="844">
       <c r="A844" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B844" t="s">
-        <v>1257</v>
+        <v>1286</v>
       </c>
       <c r="C844" s="0"/>
       <c r="D844" t="s">
@@ -45813,10 +45813,10 @@
     </row>
     <row r="872">
       <c r="A872" t="s">
-        <v>750</v>
+        <v>1181</v>
       </c>
       <c r="B872" t="s">
-        <v>262</v>
+        <v>973</v>
       </c>
       <c r="C872" s="0"/>
       <c r="D872" t="s">
@@ -45831,10 +45831,10 @@
     </row>
     <row r="873">
       <c r="A873" t="s">
-        <v>1181</v>
+        <v>750</v>
       </c>
       <c r="B873" t="s">
-        <v>973</v>
+        <v>262</v>
       </c>
       <c r="C873" s="0"/>
       <c r="D873" t="s">
@@ -46027,10 +46027,10 @@
     </row>
     <row r="885">
       <c r="A885" t="s">
-        <v>750</v>
+        <v>1181</v>
       </c>
       <c r="B885" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="C885" s="0"/>
       <c r="D885" t="s">
@@ -46045,10 +46045,10 @@
     </row>
     <row r="886">
       <c r="A886" t="s">
-        <v>1181</v>
+        <v>750</v>
       </c>
       <c r="B886" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="C886" s="0"/>
       <c r="D886" t="s">
@@ -47762,7 +47762,7 @@
         <v>750</v>
       </c>
       <c r="B986" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C986" s="0"/>
       <c r="D986" t="s">
@@ -47780,7 +47780,7 @@
         <v>750</v>
       </c>
       <c r="B987" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="C987" s="0"/>
       <c r="D987" t="s">
@@ -47813,10 +47813,10 @@
     </row>
     <row r="989">
       <c r="A989" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B989" t="s">
-        <v>300</v>
+        <v>264</v>
       </c>
       <c r="C989" s="0"/>
       <c r="D989" t="s">
@@ -47829,10 +47829,10 @@
     </row>
     <row r="990">
       <c r="A990" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B990" t="s">
-        <v>264</v>
+        <v>300</v>
       </c>
       <c r="C990" s="0"/>
       <c r="D990" t="s">

--- a/Occupations/Occupations.xlsx
+++ b/Occupations/Occupations.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252041" uniqueCount="1314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255062" uniqueCount="1314">
   <si>
     <t>occupationname</t>
   </si>
@@ -31127,10 +31127,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B4" t="s">
-        <v>773</v>
+        <v>48</v>
       </c>
       <c r="C4" s="0"/>
       <c r="D4" t="s">
@@ -31145,10 +31145,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>773</v>
       </c>
       <c r="C5" s="0"/>
       <c r="D5" t="s">
@@ -31163,10 +31163,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B6" t="s">
-        <v>1184</v>
+        <v>309</v>
       </c>
       <c r="C6" s="0"/>
       <c r="D6" t="s">
@@ -31179,10 +31179,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B7" t="s">
-        <v>309</v>
+        <v>1184</v>
       </c>
       <c r="C7" s="0"/>
       <c r="D7" t="s">
@@ -31273,10 +31273,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="B13" t="s">
-        <v>264</v>
+        <v>775</v>
       </c>
       <c r="C13" s="0"/>
       <c r="D13" t="s">
@@ -31291,10 +31291,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="B14" t="s">
-        <v>775</v>
+        <v>262</v>
       </c>
       <c r="C14" s="0"/>
       <c r="D14" t="s">
@@ -31312,7 +31312,7 @@
         <v>748</v>
       </c>
       <c r="B15" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C15" s="0"/>
       <c r="D15" t="s">
@@ -31501,10 +31501,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>750</v>
+        <v>1181</v>
       </c>
       <c r="B26" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C26" s="0"/>
       <c r="D26" t="s">
@@ -31519,10 +31519,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>1181</v>
+        <v>750</v>
       </c>
       <c r="B27" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C27" s="0"/>
       <c r="D27" t="s">
@@ -31675,10 +31675,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B36" t="s">
-        <v>775</v>
+        <v>463</v>
       </c>
       <c r="C36" s="0"/>
       <c r="D36" t="s">
@@ -31693,10 +31693,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B37" t="s">
-        <v>463</v>
+        <v>775</v>
       </c>
       <c r="C37" s="0"/>
       <c r="D37" t="s">
@@ -31852,7 +31852,7 @@
         <v>748</v>
       </c>
       <c r="B46" t="s">
-        <v>48</v>
+        <v>286</v>
       </c>
       <c r="C46" s="0"/>
       <c r="D46" t="s">
@@ -31866,7 +31866,7 @@
         <v>748</v>
       </c>
       <c r="B47" t="s">
-        <v>286</v>
+        <v>48</v>
       </c>
       <c r="C47" s="0"/>
       <c r="D47" t="s">
@@ -31877,10 +31877,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>752</v>
+        <v>1181</v>
       </c>
       <c r="B48" t="s">
-        <v>309</v>
+        <v>1185</v>
       </c>
       <c r="C48" s="0"/>
       <c r="D48" t="s">
@@ -31891,10 +31891,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>1181</v>
+        <v>752</v>
       </c>
       <c r="B49" t="s">
-        <v>1185</v>
+        <v>309</v>
       </c>
       <c r="C49" s="0"/>
       <c r="D49" t="s">
@@ -31937,10 +31937,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>749</v>
+        <v>1181</v>
       </c>
       <c r="B52" t="s">
-        <v>790</v>
+        <v>1188</v>
       </c>
       <c r="C52" s="0"/>
       <c r="D52" t="s">
@@ -31953,10 +31953,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>1181</v>
+        <v>749</v>
       </c>
       <c r="B53" t="s">
-        <v>1188</v>
+        <v>790</v>
       </c>
       <c r="C53" s="0"/>
       <c r="D53" t="s">
@@ -32018,7 +32018,7 @@
         <v>750</v>
       </c>
       <c r="B57" t="s">
-        <v>486</v>
+        <v>789</v>
       </c>
       <c r="C57" s="0"/>
       <c r="D57" t="s">
@@ -32036,7 +32036,7 @@
         <v>750</v>
       </c>
       <c r="B58" t="s">
-        <v>789</v>
+        <v>486</v>
       </c>
       <c r="C58" s="0"/>
       <c r="D58" t="s">
@@ -32126,7 +32126,7 @@
         <v>1181</v>
       </c>
       <c r="B63" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C63" s="0"/>
       <c r="D63" t="s">
@@ -32144,7 +32144,7 @@
         <v>1181</v>
       </c>
       <c r="B64" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C64" s="0"/>
       <c r="D64" t="s">
@@ -32525,10 +32525,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B86" t="s">
-        <v>624</v>
+        <v>804</v>
       </c>
       <c r="C86" s="0"/>
       <c r="D86" t="s">
@@ -32543,10 +32543,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B87" t="s">
-        <v>804</v>
+        <v>624</v>
       </c>
       <c r="C87" s="0"/>
       <c r="D87" t="s">
@@ -32580,7 +32580,7 @@
         <v>748</v>
       </c>
       <c r="B89" t="s">
-        <v>280</v>
+        <v>804</v>
       </c>
       <c r="C89" s="0"/>
       <c r="D89" t="s">
@@ -32596,7 +32596,7 @@
         <v>748</v>
       </c>
       <c r="B90" t="s">
-        <v>804</v>
+        <v>280</v>
       </c>
       <c r="C90" s="0"/>
       <c r="D90" t="s">
@@ -32943,10 +32943,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>748</v>
+        <v>1181</v>
       </c>
       <c r="B111" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C111" s="0"/>
       <c r="D111" t="s">
@@ -32959,10 +32959,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>1181</v>
+        <v>748</v>
       </c>
       <c r="B112" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="C112" s="0"/>
       <c r="D112" t="s">
@@ -33095,10 +33095,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B120" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="C120" s="0"/>
       <c r="D120" t="s">
@@ -33113,10 +33113,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B121" t="s">
-        <v>286</v>
+        <v>309</v>
       </c>
       <c r="C121" s="0"/>
       <c r="D121" t="s">
@@ -33239,10 +33239,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B128" t="s">
-        <v>286</v>
+        <v>309</v>
       </c>
       <c r="C128" s="0"/>
       <c r="D128" t="s">
@@ -33255,10 +33255,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B129" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="C129" s="0"/>
       <c r="D129" t="s">
@@ -33326,7 +33326,7 @@
         <v>750</v>
       </c>
       <c r="B133" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="C133" s="0"/>
       <c r="D133" t="s">
@@ -33344,7 +33344,7 @@
         <v>750</v>
       </c>
       <c r="B134" t="s">
-        <v>821</v>
+        <v>827</v>
       </c>
       <c r="C134" s="0"/>
       <c r="D134" t="s">
@@ -33362,7 +33362,7 @@
         <v>750</v>
       </c>
       <c r="B135" t="s">
-        <v>486</v>
+        <v>336</v>
       </c>
       <c r="C135" s="0"/>
       <c r="D135" t="s">
@@ -33378,7 +33378,7 @@
         <v>750</v>
       </c>
       <c r="B136" t="s">
-        <v>336</v>
+        <v>486</v>
       </c>
       <c r="C136" s="0"/>
       <c r="D136" t="s">
@@ -33394,7 +33394,7 @@
         <v>748</v>
       </c>
       <c r="B137" t="s">
-        <v>336</v>
+        <v>262</v>
       </c>
       <c r="C137" s="0"/>
       <c r="D137" t="s">
@@ -33410,7 +33410,7 @@
         <v>748</v>
       </c>
       <c r="B138" t="s">
-        <v>262</v>
+        <v>336</v>
       </c>
       <c r="C138" s="0"/>
       <c r="D138" t="s">
@@ -33737,10 +33737,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B158" t="s">
-        <v>791</v>
+        <v>300</v>
       </c>
       <c r="C158" s="0"/>
       <c r="D158" t="s">
@@ -33755,10 +33755,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B159" t="s">
-        <v>300</v>
+        <v>791</v>
       </c>
       <c r="C159" s="0"/>
       <c r="D159" t="s">
@@ -34089,10 +34089,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B179" t="s">
-        <v>775</v>
+        <v>791</v>
       </c>
       <c r="C179" s="0"/>
       <c r="D179" t="s">
@@ -34107,10 +34107,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B180" t="s">
-        <v>791</v>
+        <v>775</v>
       </c>
       <c r="C180" s="0"/>
       <c r="D180" t="s">
@@ -34313,10 +34313,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B192" t="s">
-        <v>1198</v>
+        <v>536</v>
       </c>
       <c r="C192" s="0"/>
       <c r="D192" t="s">
@@ -34329,10 +34329,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B193" t="s">
-        <v>536</v>
+        <v>1198</v>
       </c>
       <c r="C193" s="0"/>
       <c r="D193" t="s">
@@ -34345,10 +34345,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>752</v>
+        <v>1181</v>
       </c>
       <c r="B194" t="s">
-        <v>1199</v>
+        <v>343</v>
       </c>
       <c r="C194" s="0"/>
       <c r="D194" t="s">
@@ -34361,10 +34361,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>1181</v>
+        <v>752</v>
       </c>
       <c r="B195" t="s">
-        <v>343</v>
+        <v>1199</v>
       </c>
       <c r="C195" s="0"/>
       <c r="D195" t="s">
@@ -34479,10 +34479,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B202" t="s">
-        <v>262</v>
+        <v>789</v>
       </c>
       <c r="C202" s="0"/>
       <c r="D202" t="s">
@@ -34497,10 +34497,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B203" t="s">
-        <v>789</v>
+        <v>262</v>
       </c>
       <c r="C203" s="0"/>
       <c r="D203" t="s">
@@ -34613,10 +34613,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>749</v>
+        <v>1181</v>
       </c>
       <c r="B210" t="s">
-        <v>790</v>
+        <v>846</v>
       </c>
       <c r="C210" s="0"/>
       <c r="D210" t="s">
@@ -34631,10 +34631,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>1181</v>
+        <v>749</v>
       </c>
       <c r="B211" t="s">
-        <v>846</v>
+        <v>790</v>
       </c>
       <c r="C211" s="0"/>
       <c r="D211" t="s">
@@ -34733,10 +34733,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B217" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C217" s="0"/>
       <c r="D217" t="s">
@@ -34749,10 +34749,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B218" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C218" s="0"/>
       <c r="D218" t="s">
@@ -34781,10 +34781,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B220" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="C220" s="0"/>
       <c r="D220" t="s">
@@ -34799,10 +34799,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B221" t="s">
-        <v>286</v>
+        <v>309</v>
       </c>
       <c r="C221" s="0"/>
       <c r="D221" t="s">
@@ -34937,10 +34937,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B229" t="s">
-        <v>780</v>
+        <v>820</v>
       </c>
       <c r="C229" s="0"/>
       <c r="D229" t="s">
@@ -34953,10 +34953,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B230" t="s">
-        <v>820</v>
+        <v>780</v>
       </c>
       <c r="C230" s="0"/>
       <c r="D230" t="s">
@@ -35150,7 +35150,7 @@
         <v>748</v>
       </c>
       <c r="B242" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C242" s="0"/>
       <c r="D242" t="s">
@@ -35166,7 +35166,7 @@
         <v>748</v>
       </c>
       <c r="B243" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="C243" s="0"/>
       <c r="D243" t="s">
@@ -35419,10 +35419,10 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B258" t="s">
-        <v>786</v>
+        <v>860</v>
       </c>
       <c r="C258" s="0"/>
       <c r="D258" t="s">
@@ -35437,10 +35437,10 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B259" t="s">
-        <v>860</v>
+        <v>786</v>
       </c>
       <c r="C259" s="0"/>
       <c r="D259" t="s">
@@ -35455,10 +35455,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B260" t="s">
-        <v>860</v>
+        <v>786</v>
       </c>
       <c r="C260" s="0"/>
       <c r="D260" t="s">
@@ -35471,10 +35471,10 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B261" t="s">
-        <v>786</v>
+        <v>860</v>
       </c>
       <c r="C261" s="0"/>
       <c r="D261" t="s">
@@ -35587,10 +35587,10 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>750</v>
+        <v>1181</v>
       </c>
       <c r="B268" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C268" s="0"/>
       <c r="D268" t="s">
@@ -35603,10 +35603,10 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>1181</v>
+        <v>750</v>
       </c>
       <c r="B269" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="C269" s="0"/>
       <c r="D269" t="s">
@@ -35767,10 +35767,10 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B279" t="s">
-        <v>535</v>
+        <v>867</v>
       </c>
       <c r="C279" s="0"/>
       <c r="D279" t="s">
@@ -35785,10 +35785,10 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B280" t="s">
-        <v>867</v>
+        <v>535</v>
       </c>
       <c r="C280" s="0"/>
       <c r="D280" t="s">
@@ -36079,10 +36079,10 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>1181</v>
+        <v>748</v>
       </c>
       <c r="B297" t="s">
-        <v>875</v>
+        <v>823</v>
       </c>
       <c r="C297" s="0"/>
       <c r="D297" t="s">
@@ -36097,10 +36097,10 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>748</v>
+        <v>1181</v>
       </c>
       <c r="B298" t="s">
-        <v>823</v>
+        <v>875</v>
       </c>
       <c r="C298" s="0"/>
       <c r="D298" t="s">
@@ -36267,10 +36267,10 @@
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
       <c r="B308" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C308" s="0"/>
       <c r="D308" t="s">
@@ -36285,10 +36285,10 @@
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="B309" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="C309" s="0"/>
       <c r="D309" t="s">
@@ -37068,7 +37068,7 @@
         <v>748</v>
       </c>
       <c r="B355" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="C355" s="0"/>
       <c r="D355" t="s">
@@ -37084,7 +37084,7 @@
         <v>748</v>
       </c>
       <c r="B356" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C356" s="0"/>
       <c r="D356" t="s">
@@ -37371,10 +37371,10 @@
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="B373" t="s">
-        <v>278</v>
+        <v>904</v>
       </c>
       <c r="C373" s="0"/>
       <c r="D373" t="s">
@@ -37389,10 +37389,10 @@
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="B374" t="s">
-        <v>904</v>
+        <v>278</v>
       </c>
       <c r="C374" s="0"/>
       <c r="D374" t="s">
@@ -37654,7 +37654,7 @@
         <v>748</v>
       </c>
       <c r="B389" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C389" s="0"/>
       <c r="D389" t="s">
@@ -37670,7 +37670,7 @@
         <v>748</v>
       </c>
       <c r="B390" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C390" s="0"/>
       <c r="D390" t="s">
@@ -37686,7 +37686,7 @@
         <v>748</v>
       </c>
       <c r="B391" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="C391" s="0"/>
       <c r="D391" t="s">
@@ -38373,10 +38373,10 @@
     </row>
     <row r="432">
       <c r="A432" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B432" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C432" s="0"/>
       <c r="D432" t="s">
@@ -38389,10 +38389,10 @@
     </row>
     <row r="433">
       <c r="A433" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B433" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C433" s="0"/>
       <c r="D433" t="s">
@@ -38442,7 +38442,7 @@
         <v>750</v>
       </c>
       <c r="B436" t="s">
-        <v>932</v>
+        <v>517</v>
       </c>
       <c r="C436" s="0"/>
       <c r="D436" t="s">
@@ -38458,7 +38458,7 @@
         <v>750</v>
       </c>
       <c r="B437" t="s">
-        <v>517</v>
+        <v>932</v>
       </c>
       <c r="C437" s="0"/>
       <c r="D437" t="s">
@@ -38471,10 +38471,10 @@
     </row>
     <row r="438">
       <c r="A438" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B438" t="s">
-        <v>324</v>
+        <v>517</v>
       </c>
       <c r="C438" s="0"/>
       <c r="D438" t="s">
@@ -38489,10 +38489,10 @@
     </row>
     <row r="439">
       <c r="A439" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B439" t="s">
-        <v>517</v>
+        <v>324</v>
       </c>
       <c r="C439" s="0"/>
       <c r="D439" t="s">
@@ -38622,7 +38622,7 @@
         <v>750</v>
       </c>
       <c r="B447" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C447" s="0"/>
       <c r="D447" t="s">
@@ -38658,7 +38658,7 @@
         <v>750</v>
       </c>
       <c r="B449" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="C449" s="0"/>
       <c r="D449" t="s">
@@ -38911,10 +38911,10 @@
     </row>
     <row r="464">
       <c r="A464" t="s">
-        <v>750</v>
+        <v>1181</v>
       </c>
       <c r="B464" t="s">
-        <v>278</v>
+        <v>899</v>
       </c>
       <c r="C464" s="0"/>
       <c r="D464" t="s">
@@ -38929,10 +38929,10 @@
     </row>
     <row r="465">
       <c r="A465" t="s">
-        <v>1181</v>
+        <v>750</v>
       </c>
       <c r="B465" t="s">
-        <v>899</v>
+        <v>278</v>
       </c>
       <c r="C465" s="0"/>
       <c r="D465" t="s">
@@ -38963,10 +38963,10 @@
     </row>
     <row r="467">
       <c r="A467" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B467" t="s">
-        <v>300</v>
+        <v>1223</v>
       </c>
       <c r="C467" s="0"/>
       <c r="D467" t="s">
@@ -38977,10 +38977,10 @@
     </row>
     <row r="468">
       <c r="A468" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B468" t="s">
-        <v>1223</v>
+        <v>300</v>
       </c>
       <c r="C468" s="0"/>
       <c r="D468" t="s">
@@ -39061,10 +39061,10 @@
     </row>
     <row r="473">
       <c r="A473" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B473" t="s">
-        <v>1224</v>
+        <v>429</v>
       </c>
       <c r="C473" s="0"/>
       <c r="D473" t="s">
@@ -39093,10 +39093,10 @@
     </row>
     <row r="475">
       <c r="A475" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B475" t="s">
-        <v>429</v>
+        <v>1224</v>
       </c>
       <c r="C475" s="0"/>
       <c r="D475" t="s">
@@ -39192,7 +39192,7 @@
         <v>750</v>
       </c>
       <c r="B481" t="s">
-        <v>316</v>
+        <v>946</v>
       </c>
       <c r="C481" s="0"/>
       <c r="D481" t="s">
@@ -39210,7 +39210,7 @@
         <v>750</v>
       </c>
       <c r="B482" t="s">
-        <v>946</v>
+        <v>316</v>
       </c>
       <c r="C482" s="0"/>
       <c r="D482" t="s">
@@ -39246,7 +39246,7 @@
         <v>1181</v>
       </c>
       <c r="B484" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="C484" s="0"/>
       <c r="D484" t="s">
@@ -39262,7 +39262,7 @@
         <v>1181</v>
       </c>
       <c r="B485" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="C485" s="0"/>
       <c r="D485" t="s">
@@ -39503,10 +39503,10 @@
     </row>
     <row r="499">
       <c r="A499" t="s">
-        <v>750</v>
+        <v>1181</v>
       </c>
       <c r="B499" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="C499" s="0"/>
       <c r="D499" t="s">
@@ -39521,10 +39521,10 @@
     </row>
     <row r="500">
       <c r="A500" t="s">
-        <v>1181</v>
+        <v>750</v>
       </c>
       <c r="B500" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="C500" s="0"/>
       <c r="D500" t="s">
@@ -39890,7 +39890,7 @@
         <v>748</v>
       </c>
       <c r="B522" t="s">
-        <v>47</v>
+        <v>804</v>
       </c>
       <c r="C522" s="0"/>
       <c r="D522" t="s">
@@ -39908,7 +39908,7 @@
         <v>748</v>
       </c>
       <c r="B523" t="s">
-        <v>804</v>
+        <v>47</v>
       </c>
       <c r="C523" s="0"/>
       <c r="D523" t="s">
@@ -40131,10 +40131,10 @@
     </row>
     <row r="536">
       <c r="A536" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B536" t="s">
-        <v>967</v>
+        <v>198</v>
       </c>
       <c r="C536" s="0"/>
       <c r="D536" t="s">
@@ -40149,10 +40149,10 @@
     </row>
     <row r="537">
       <c r="A537" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B537" t="s">
-        <v>198</v>
+        <v>967</v>
       </c>
       <c r="C537" s="0"/>
       <c r="D537" t="s">
@@ -40185,10 +40185,10 @@
     </row>
     <row r="539">
       <c r="A539" t="s">
-        <v>1181</v>
+        <v>750</v>
       </c>
       <c r="B539" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="C539" s="0"/>
       <c r="D539" t="s">
@@ -40201,10 +40201,10 @@
     </row>
     <row r="540">
       <c r="A540" t="s">
-        <v>750</v>
+        <v>1181</v>
       </c>
       <c r="B540" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C540" s="0"/>
       <c r="D540" t="s">
@@ -41027,10 +41027,10 @@
     </row>
     <row r="589">
       <c r="A589" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B589" t="s">
-        <v>264</v>
+        <v>790</v>
       </c>
       <c r="C589" s="0"/>
       <c r="D589" t="s">
@@ -41043,10 +41043,10 @@
     </row>
     <row r="590">
       <c r="A590" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B590" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C590" s="0"/>
       <c r="D590" t="s">
@@ -41059,10 +41059,10 @@
     </row>
     <row r="591">
       <c r="A591" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B591" t="s">
-        <v>790</v>
+        <v>262</v>
       </c>
       <c r="C591" s="0"/>
       <c r="D591" t="s">
@@ -41394,7 +41394,7 @@
         <v>748</v>
       </c>
       <c r="B610" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="C610" s="0"/>
       <c r="D610" t="s">
@@ -41412,7 +41412,7 @@
         <v>748</v>
       </c>
       <c r="B611" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C611" s="0"/>
       <c r="D611" t="s">
@@ -41745,10 +41745,10 @@
     </row>
     <row r="631">
       <c r="A631" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B631" t="s">
-        <v>1012</v>
+        <v>448</v>
       </c>
       <c r="C631" s="0"/>
       <c r="D631" t="s">
@@ -41763,10 +41763,10 @@
     </row>
     <row r="632">
       <c r="A632" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B632" t="s">
-        <v>448</v>
+        <v>1012</v>
       </c>
       <c r="C632" s="0"/>
       <c r="D632" t="s">
@@ -41917,10 +41917,10 @@
     </row>
     <row r="641">
       <c r="A641" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="B641" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C641" s="0"/>
       <c r="D641" t="s">
@@ -41933,10 +41933,10 @@
     </row>
     <row r="642">
       <c r="A642" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="B642" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="C642" s="0"/>
       <c r="D642" t="s">
@@ -42123,10 +42123,10 @@
     </row>
     <row r="653">
       <c r="A653" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B653" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="C653" s="0"/>
       <c r="D653" t="s">
@@ -42139,10 +42139,10 @@
     </row>
     <row r="654">
       <c r="A654" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B654" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="C654" s="0"/>
       <c r="D654" t="s">
@@ -42503,10 +42503,10 @@
     </row>
     <row r="676">
       <c r="A676" t="s">
-        <v>1181</v>
+        <v>749</v>
       </c>
       <c r="B676" t="s">
-        <v>925</v>
+        <v>273</v>
       </c>
       <c r="C676" s="0"/>
       <c r="D676" t="s">
@@ -42519,10 +42519,10 @@
     </row>
     <row r="677">
       <c r="A677" t="s">
-        <v>749</v>
+        <v>1181</v>
       </c>
       <c r="B677" t="s">
-        <v>273</v>
+        <v>925</v>
       </c>
       <c r="C677" s="0"/>
       <c r="D677" t="s">
@@ -42535,10 +42535,10 @@
     </row>
     <row r="678">
       <c r="A678" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="B678" t="s">
-        <v>925</v>
+        <v>273</v>
       </c>
       <c r="C678" s="0"/>
       <c r="D678" t="s">
@@ -42551,10 +42551,10 @@
     </row>
     <row r="679">
       <c r="A679" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="B679" t="s">
-        <v>273</v>
+        <v>925</v>
       </c>
       <c r="C679" s="0"/>
       <c r="D679" t="s">
@@ -42783,10 +42783,10 @@
     </row>
     <row r="693">
       <c r="A693" t="s">
-        <v>748</v>
+        <v>1181</v>
       </c>
       <c r="B693" t="s">
-        <v>689</v>
+        <v>547</v>
       </c>
       <c r="C693" s="0"/>
       <c r="D693" t="s">
@@ -42801,10 +42801,10 @@
     </row>
     <row r="694">
       <c r="A694" t="s">
-        <v>1181</v>
+        <v>748</v>
       </c>
       <c r="B694" t="s">
-        <v>547</v>
+        <v>689</v>
       </c>
       <c r="C694" s="0"/>
       <c r="D694" t="s">
@@ -42954,7 +42954,7 @@
         <v>750</v>
       </c>
       <c r="B703" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="C703" s="0"/>
       <c r="D703" t="s">
@@ -42970,7 +42970,7 @@
         <v>750</v>
       </c>
       <c r="B704" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C704" s="0"/>
       <c r="D704" t="s">
@@ -43347,10 +43347,10 @@
     </row>
     <row r="726">
       <c r="A726" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B726" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="C726" s="0"/>
       <c r="D726" t="s">
@@ -43363,10 +43363,10 @@
     </row>
     <row r="727">
       <c r="A727" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B727" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="C727" s="0"/>
       <c r="D727" t="s">
@@ -44210,7 +44210,7 @@
         <v>750</v>
       </c>
       <c r="B776" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="C776" s="0"/>
       <c r="D776" t="s">
@@ -44226,7 +44226,7 @@
         <v>750</v>
       </c>
       <c r="B777" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="C777" s="0"/>
       <c r="D777" t="s">
@@ -44242,7 +44242,7 @@
         <v>748</v>
       </c>
       <c r="B778" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="C778" s="0"/>
       <c r="D778" t="s">
@@ -44256,7 +44256,7 @@
         <v>748</v>
       </c>
       <c r="B779" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C779" s="0"/>
       <c r="D779" t="s">
@@ -44330,7 +44330,7 @@
         <v>750</v>
       </c>
       <c r="B784" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="C784" s="0"/>
       <c r="D784" t="s">
@@ -44344,7 +44344,7 @@
         <v>750</v>
       </c>
       <c r="B785" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C785" s="0"/>
       <c r="D785" t="s">
@@ -44389,10 +44389,10 @@
     </row>
     <row r="788">
       <c r="A788" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B788" t="s">
-        <v>1068</v>
+        <v>548</v>
       </c>
       <c r="C788" s="0"/>
       <c r="D788" t="s">
@@ -44407,10 +44407,10 @@
     </row>
     <row r="789">
       <c r="A789" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B789" t="s">
-        <v>548</v>
+        <v>1068</v>
       </c>
       <c r="C789" s="0"/>
       <c r="D789" t="s">
@@ -44482,7 +44482,7 @@
         <v>748</v>
       </c>
       <c r="B793" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="C793" s="0"/>
       <c r="D793" t="s">
@@ -44500,7 +44500,7 @@
         <v>748</v>
       </c>
       <c r="B794" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C794" s="0"/>
       <c r="D794" t="s">
@@ -44971,10 +44971,10 @@
     </row>
     <row r="821">
       <c r="A821" t="s">
-        <v>1181</v>
+        <v>750</v>
       </c>
       <c r="B821" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C821" s="0"/>
       <c r="D821" t="s">
@@ -44989,10 +44989,10 @@
     </row>
     <row r="822">
       <c r="A822" t="s">
-        <v>750</v>
+        <v>1181</v>
       </c>
       <c r="B822" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="C822" s="0"/>
       <c r="D822" t="s">
@@ -45216,7 +45216,7 @@
         <v>1181</v>
       </c>
       <c r="B835" t="s">
-        <v>1094</v>
+        <v>842</v>
       </c>
       <c r="C835" s="0"/>
       <c r="D835" t="s">
@@ -45234,7 +45234,7 @@
         <v>1181</v>
       </c>
       <c r="B836" t="s">
-        <v>842</v>
+        <v>1094</v>
       </c>
       <c r="C836" s="0"/>
       <c r="D836" t="s">
@@ -45298,7 +45298,7 @@
         <v>748</v>
       </c>
       <c r="B840" t="s">
-        <v>1257</v>
+        <v>1283</v>
       </c>
       <c r="C840" s="0"/>
       <c r="D840" t="s">
@@ -45312,7 +45312,7 @@
         <v>748</v>
       </c>
       <c r="B841" t="s">
-        <v>1283</v>
+        <v>1257</v>
       </c>
       <c r="C841" s="0"/>
       <c r="D841" t="s">
@@ -45339,10 +45339,10 @@
     </row>
     <row r="843">
       <c r="A843" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B843" t="s">
-        <v>1257</v>
+        <v>1286</v>
       </c>
       <c r="C843" s="0"/>
       <c r="D843" t="s">
@@ -45355,10 +45355,10 @@
     </row>
     <row r="844">
       <c r="A844" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B844" t="s">
-        <v>1286</v>
+        <v>1257</v>
       </c>
       <c r="C844" s="0"/>
       <c r="D844" t="s">
@@ -45490,7 +45490,7 @@
         <v>748</v>
       </c>
       <c r="B852" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="C852" s="0"/>
       <c r="D852" t="s">
@@ -45504,7 +45504,7 @@
         <v>748</v>
       </c>
       <c r="B853" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C853" s="0"/>
       <c r="D853" t="s">
@@ -45620,7 +45620,7 @@
         <v>748</v>
       </c>
       <c r="B860" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="C860" s="0"/>
       <c r="D860" t="s">
@@ -45638,7 +45638,7 @@
         <v>748</v>
       </c>
       <c r="B861" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="C861" s="0"/>
       <c r="D861" t="s">
@@ -45813,10 +45813,10 @@
     </row>
     <row r="872">
       <c r="A872" t="s">
-        <v>1181</v>
+        <v>750</v>
       </c>
       <c r="B872" t="s">
-        <v>973</v>
+        <v>262</v>
       </c>
       <c r="C872" s="0"/>
       <c r="D872" t="s">
@@ -45831,10 +45831,10 @@
     </row>
     <row r="873">
       <c r="A873" t="s">
-        <v>750</v>
+        <v>1181</v>
       </c>
       <c r="B873" t="s">
-        <v>262</v>
+        <v>973</v>
       </c>
       <c r="C873" s="0"/>
       <c r="D873" t="s">
@@ -47311,10 +47311,10 @@
     </row>
     <row r="960">
       <c r="A960" t="s">
-        <v>1181</v>
+        <v>750</v>
       </c>
       <c r="B960" t="s">
-        <v>1111</v>
+        <v>1155</v>
       </c>
       <c r="C960" s="0"/>
       <c r="D960" t="s">
@@ -47329,10 +47329,10 @@
     </row>
     <row r="961">
       <c r="A961" t="s">
-        <v>750</v>
+        <v>1181</v>
       </c>
       <c r="B961" t="s">
-        <v>1155</v>
+        <v>1111</v>
       </c>
       <c r="C961" s="0"/>
       <c r="D961" t="s">
@@ -47617,10 +47617,10 @@
     </row>
     <row r="978">
       <c r="A978" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="B978" t="s">
-        <v>1164</v>
+        <v>278</v>
       </c>
       <c r="C978" s="0"/>
       <c r="D978" t="s">
@@ -47635,10 +47635,10 @@
     </row>
     <row r="979">
       <c r="A979" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="B979" t="s">
-        <v>278</v>
+        <v>1164</v>
       </c>
       <c r="C979" s="0"/>
       <c r="D979" t="s">
@@ -48056,7 +48056,7 @@
         <v>750</v>
       </c>
       <c r="B1003" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="C1003" s="0"/>
       <c r="D1003" t="s">
@@ -48070,7 +48070,7 @@
         <v>750</v>
       </c>
       <c r="B1004" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="C1004" s="0"/>
       <c r="D1004" t="s">

--- a/Occupations/Occupations.xlsx
+++ b/Occupations/Occupations.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255062" uniqueCount="1314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258083" uniqueCount="1314">
   <si>
     <t>occupationname</t>
   </si>
@@ -31091,10 +31091,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B2" t="s">
-        <v>486</v>
+        <v>773</v>
       </c>
       <c r="C2" s="0"/>
       <c r="D2" t="s">
@@ -31109,10 +31109,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B3" t="s">
-        <v>773</v>
+        <v>486</v>
       </c>
       <c r="C3" s="0"/>
       <c r="D3" t="s">
@@ -31127,10 +31127,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>773</v>
       </c>
       <c r="C4" s="0"/>
       <c r="D4" t="s">
@@ -31145,10 +31145,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B5" t="s">
-        <v>773</v>
+        <v>48</v>
       </c>
       <c r="C5" s="0"/>
       <c r="D5" t="s">
@@ -31273,10 +31273,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="B13" t="s">
-        <v>775</v>
+        <v>262</v>
       </c>
       <c r="C13" s="0"/>
       <c r="D13" t="s">
@@ -31294,7 +31294,7 @@
         <v>748</v>
       </c>
       <c r="B14" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C14" s="0"/>
       <c r="D14" t="s">
@@ -31309,10 +31309,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="B15" t="s">
-        <v>264</v>
+        <v>775</v>
       </c>
       <c r="C15" s="0"/>
       <c r="D15" t="s">
@@ -31327,10 +31327,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B16" t="s">
-        <v>776</v>
+        <v>262</v>
       </c>
       <c r="C16" s="0"/>
       <c r="D16" t="s">
@@ -31345,10 +31345,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B17" t="s">
-        <v>262</v>
+        <v>776</v>
       </c>
       <c r="C17" s="0"/>
       <c r="D17" t="s">
@@ -31435,10 +31435,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>748</v>
+        <v>1181</v>
       </c>
       <c r="B22" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C22" s="0"/>
       <c r="D22" t="s">
@@ -31451,10 +31451,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>1181</v>
+        <v>748</v>
       </c>
       <c r="B23" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C23" s="0"/>
       <c r="D23" t="s">
@@ -31501,10 +31501,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>1181</v>
+        <v>750</v>
       </c>
       <c r="B26" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C26" s="0"/>
       <c r="D26" t="s">
@@ -31519,10 +31519,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>750</v>
+        <v>1181</v>
       </c>
       <c r="B27" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C27" s="0"/>
       <c r="D27" t="s">
@@ -31643,10 +31643,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B34" t="s">
-        <v>776</v>
+        <v>264</v>
       </c>
       <c r="C34" s="0"/>
       <c r="D34" t="s">
@@ -31659,10 +31659,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B35" t="s">
-        <v>264</v>
+        <v>776</v>
       </c>
       <c r="C35" s="0"/>
       <c r="D35" t="s">
@@ -31675,10 +31675,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B36" t="s">
-        <v>463</v>
+        <v>775</v>
       </c>
       <c r="C36" s="0"/>
       <c r="D36" t="s">
@@ -31693,10 +31693,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B37" t="s">
-        <v>775</v>
+        <v>463</v>
       </c>
       <c r="C37" s="0"/>
       <c r="D37" t="s">
@@ -31849,10 +31849,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="B46" t="s">
-        <v>286</v>
+        <v>309</v>
       </c>
       <c r="C46" s="0"/>
       <c r="D46" t="s">
@@ -31863,10 +31863,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>748</v>
+        <v>1181</v>
       </c>
       <c r="B47" t="s">
-        <v>48</v>
+        <v>1185</v>
       </c>
       <c r="C47" s="0"/>
       <c r="D47" t="s">
@@ -31877,10 +31877,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>1181</v>
+        <v>748</v>
       </c>
       <c r="B48" t="s">
-        <v>1185</v>
+        <v>48</v>
       </c>
       <c r="C48" s="0"/>
       <c r="D48" t="s">
@@ -31891,10 +31891,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="B49" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="C49" s="0"/>
       <c r="D49" t="s">
@@ -32069,10 +32069,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B60" t="s">
-        <v>300</v>
+        <v>790</v>
       </c>
       <c r="C60" s="0"/>
       <c r="D60" t="s">
@@ -32087,10 +32087,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B61" t="s">
-        <v>790</v>
+        <v>300</v>
       </c>
       <c r="C61" s="0"/>
       <c r="D61" t="s">
@@ -32126,7 +32126,7 @@
         <v>1181</v>
       </c>
       <c r="B63" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C63" s="0"/>
       <c r="D63" t="s">
@@ -32144,7 +32144,7 @@
         <v>1181</v>
       </c>
       <c r="B64" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C64" s="0"/>
       <c r="D64" t="s">
@@ -32421,10 +32421,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B80" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C80" s="0"/>
       <c r="D80" t="s">
@@ -32439,10 +32439,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B81" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="C81" s="0"/>
       <c r="D81" t="s">
@@ -32525,10 +32525,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B86" t="s">
-        <v>804</v>
+        <v>624</v>
       </c>
       <c r="C86" s="0"/>
       <c r="D86" t="s">
@@ -32543,10 +32543,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B87" t="s">
-        <v>624</v>
+        <v>804</v>
       </c>
       <c r="C87" s="0"/>
       <c r="D87" t="s">
@@ -32561,10 +32561,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="B88" t="s">
-        <v>805</v>
+        <v>280</v>
       </c>
       <c r="C88" s="0"/>
       <c r="D88" t="s">
@@ -32593,10 +32593,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="B90" t="s">
-        <v>280</v>
+        <v>805</v>
       </c>
       <c r="C90" s="0"/>
       <c r="D90" t="s">
@@ -33095,10 +33095,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B120" t="s">
-        <v>286</v>
+        <v>309</v>
       </c>
       <c r="C120" s="0"/>
       <c r="D120" t="s">
@@ -33113,10 +33113,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B121" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="C121" s="0"/>
       <c r="D121" t="s">
@@ -33239,10 +33239,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B128" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="C128" s="0"/>
       <c r="D128" t="s">
@@ -33255,10 +33255,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B129" t="s">
-        <v>286</v>
+        <v>309</v>
       </c>
       <c r="C129" s="0"/>
       <c r="D129" t="s">
@@ -33326,7 +33326,7 @@
         <v>750</v>
       </c>
       <c r="B133" t="s">
-        <v>821</v>
+        <v>827</v>
       </c>
       <c r="C133" s="0"/>
       <c r="D133" t="s">
@@ -33344,7 +33344,7 @@
         <v>750</v>
       </c>
       <c r="B134" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="C134" s="0"/>
       <c r="D134" t="s">
@@ -33677,10 +33677,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B154" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="C154" s="0"/>
       <c r="D154" t="s">
@@ -33691,10 +33691,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B155" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C155" s="0"/>
       <c r="D155" t="s">
@@ -33919,10 +33919,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B169" t="s">
-        <v>804</v>
+        <v>47</v>
       </c>
       <c r="C169" s="0"/>
       <c r="D169" t="s">
@@ -33935,10 +33935,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B170" t="s">
-        <v>47</v>
+        <v>804</v>
       </c>
       <c r="C170" s="0"/>
       <c r="D170" t="s">
@@ -34089,10 +34089,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B179" t="s">
-        <v>791</v>
+        <v>775</v>
       </c>
       <c r="C179" s="0"/>
       <c r="D179" t="s">
@@ -34107,10 +34107,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B180" t="s">
-        <v>775</v>
+        <v>791</v>
       </c>
       <c r="C180" s="0"/>
       <c r="D180" t="s">
@@ -34313,10 +34313,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B192" t="s">
-        <v>536</v>
+        <v>1198</v>
       </c>
       <c r="C192" s="0"/>
       <c r="D192" t="s">
@@ -34329,10 +34329,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B193" t="s">
-        <v>1198</v>
+        <v>536</v>
       </c>
       <c r="C193" s="0"/>
       <c r="D193" t="s">
@@ -34345,10 +34345,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>1181</v>
+        <v>752</v>
       </c>
       <c r="B194" t="s">
-        <v>343</v>
+        <v>1199</v>
       </c>
       <c r="C194" s="0"/>
       <c r="D194" t="s">
@@ -34361,10 +34361,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>752</v>
+        <v>1181</v>
       </c>
       <c r="B195" t="s">
-        <v>1199</v>
+        <v>343</v>
       </c>
       <c r="C195" s="0"/>
       <c r="D195" t="s">
@@ -34479,10 +34479,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B202" t="s">
-        <v>789</v>
+        <v>262</v>
       </c>
       <c r="C202" s="0"/>
       <c r="D202" t="s">
@@ -34497,10 +34497,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B203" t="s">
-        <v>262</v>
+        <v>789</v>
       </c>
       <c r="C203" s="0"/>
       <c r="D203" t="s">
@@ -34581,10 +34581,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>1181</v>
+        <v>748</v>
       </c>
       <c r="B208" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="C208" s="0"/>
       <c r="D208" t="s">
@@ -34597,10 +34597,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>748</v>
+        <v>1181</v>
       </c>
       <c r="B209" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C209" s="0"/>
       <c r="D209" t="s">
@@ -34781,10 +34781,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B220" t="s">
-        <v>286</v>
+        <v>821</v>
       </c>
       <c r="C220" s="0"/>
       <c r="D220" t="s">
@@ -34817,10 +34817,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B222" t="s">
-        <v>821</v>
+        <v>286</v>
       </c>
       <c r="C222" s="0"/>
       <c r="D222" t="s">
@@ -34853,10 +34853,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>1181</v>
+        <v>748</v>
       </c>
       <c r="B224" t="s">
-        <v>842</v>
+        <v>817</v>
       </c>
       <c r="C224" s="0"/>
       <c r="D224" t="s">
@@ -34871,10 +34871,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>748</v>
+        <v>1181</v>
       </c>
       <c r="B225" t="s">
-        <v>817</v>
+        <v>842</v>
       </c>
       <c r="C225" s="0"/>
       <c r="D225" t="s">
@@ -34937,10 +34937,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B229" t="s">
-        <v>820</v>
+        <v>780</v>
       </c>
       <c r="C229" s="0"/>
       <c r="D229" t="s">
@@ -34953,10 +34953,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B230" t="s">
-        <v>780</v>
+        <v>820</v>
       </c>
       <c r="C230" s="0"/>
       <c r="D230" t="s">
@@ -35004,7 +35004,7 @@
         <v>750</v>
       </c>
       <c r="B233" t="s">
-        <v>851</v>
+        <v>822</v>
       </c>
       <c r="C233" s="0"/>
       <c r="D233" t="s">
@@ -35020,7 +35020,7 @@
         <v>750</v>
       </c>
       <c r="B234" t="s">
-        <v>822</v>
+        <v>851</v>
       </c>
       <c r="C234" s="0"/>
       <c r="D234" t="s">
@@ -35419,10 +35419,10 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B258" t="s">
-        <v>860</v>
+        <v>786</v>
       </c>
       <c r="C258" s="0"/>
       <c r="D258" t="s">
@@ -35437,10 +35437,10 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B259" t="s">
-        <v>786</v>
+        <v>860</v>
       </c>
       <c r="C259" s="0"/>
       <c r="D259" t="s">
@@ -36007,10 +36007,10 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>1181</v>
+        <v>754</v>
       </c>
       <c r="B293" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C293" s="0"/>
       <c r="D293" t="s">
@@ -36025,10 +36025,10 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>754</v>
+        <v>1181</v>
       </c>
       <c r="B294" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C294" s="0"/>
       <c r="D294" t="s">
@@ -36195,10 +36195,10 @@
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B304" t="s">
-        <v>517</v>
+        <v>324</v>
       </c>
       <c r="C304" s="0"/>
       <c r="D304" t="s">
@@ -36213,10 +36213,10 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B305" t="s">
-        <v>324</v>
+        <v>517</v>
       </c>
       <c r="C305" s="0"/>
       <c r="D305" t="s">
@@ -36267,10 +36267,10 @@
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="B308" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="C308" s="0"/>
       <c r="D308" t="s">
@@ -36285,10 +36285,10 @@
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
       <c r="B309" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C309" s="0"/>
       <c r="D309" t="s">
@@ -37068,7 +37068,7 @@
         <v>748</v>
       </c>
       <c r="B355" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C355" s="0"/>
       <c r="D355" t="s">
@@ -37084,7 +37084,7 @@
         <v>748</v>
       </c>
       <c r="B356" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="C356" s="0"/>
       <c r="D356" t="s">
@@ -37274,7 +37274,7 @@
         <v>750</v>
       </c>
       <c r="B367" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C367" s="0"/>
       <c r="D367" t="s">
@@ -37292,7 +37292,7 @@
         <v>750</v>
       </c>
       <c r="B368" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="C368" s="0"/>
       <c r="D368" t="s">
@@ -37323,10 +37323,10 @@
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B370" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C370" s="0"/>
       <c r="D370" t="s">
@@ -37339,10 +37339,10 @@
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B371" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="C371" s="0"/>
       <c r="D371" t="s">
@@ -37371,10 +37371,10 @@
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="B373" t="s">
-        <v>904</v>
+        <v>278</v>
       </c>
       <c r="C373" s="0"/>
       <c r="D373" t="s">
@@ -37389,10 +37389,10 @@
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="B374" t="s">
-        <v>278</v>
+        <v>904</v>
       </c>
       <c r="C374" s="0"/>
       <c r="D374" t="s">
@@ -37654,7 +37654,7 @@
         <v>748</v>
       </c>
       <c r="B389" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="C389" s="0"/>
       <c r="D389" t="s">
@@ -37670,7 +37670,7 @@
         <v>748</v>
       </c>
       <c r="B390" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C390" s="0"/>
       <c r="D390" t="s">
@@ -37945,10 +37945,10 @@
     </row>
     <row r="407">
       <c r="A407" t="s">
-        <v>749</v>
+        <v>1181</v>
       </c>
       <c r="B407" t="s">
-        <v>1217</v>
+        <v>727</v>
       </c>
       <c r="C407" s="0"/>
       <c r="D407" t="s">
@@ -37961,10 +37961,10 @@
     </row>
     <row r="408">
       <c r="A408" t="s">
-        <v>1181</v>
+        <v>749</v>
       </c>
       <c r="B408" t="s">
-        <v>727</v>
+        <v>1217</v>
       </c>
       <c r="C408" s="0"/>
       <c r="D408" t="s">
@@ -38322,7 +38322,7 @@
         <v>748</v>
       </c>
       <c r="B429" t="s">
-        <v>914</v>
+        <v>930</v>
       </c>
       <c r="C429" s="0"/>
       <c r="D429" t="s">
@@ -38340,7 +38340,7 @@
         <v>748</v>
       </c>
       <c r="B430" t="s">
-        <v>930</v>
+        <v>914</v>
       </c>
       <c r="C430" s="0"/>
       <c r="D430" t="s">
@@ -38373,10 +38373,10 @@
     </row>
     <row r="432">
       <c r="A432" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B432" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C432" s="0"/>
       <c r="D432" t="s">
@@ -38389,10 +38389,10 @@
     </row>
     <row r="433">
       <c r="A433" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B433" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C433" s="0"/>
       <c r="D433" t="s">
@@ -38442,7 +38442,7 @@
         <v>750</v>
       </c>
       <c r="B436" t="s">
-        <v>517</v>
+        <v>932</v>
       </c>
       <c r="C436" s="0"/>
       <c r="D436" t="s">
@@ -38458,7 +38458,7 @@
         <v>750</v>
       </c>
       <c r="B437" t="s">
-        <v>932</v>
+        <v>517</v>
       </c>
       <c r="C437" s="0"/>
       <c r="D437" t="s">
@@ -38622,7 +38622,7 @@
         <v>750</v>
       </c>
       <c r="B447" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C447" s="0"/>
       <c r="D447" t="s">
@@ -38640,7 +38640,7 @@
         <v>750</v>
       </c>
       <c r="B448" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="C448" s="0"/>
       <c r="D448" t="s">
@@ -39061,10 +39061,10 @@
     </row>
     <row r="473">
       <c r="A473" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B473" t="s">
-        <v>429</v>
+        <v>1224</v>
       </c>
       <c r="C473" s="0"/>
       <c r="D473" t="s">
@@ -39077,10 +39077,10 @@
     </row>
     <row r="474">
       <c r="A474" t="s">
-        <v>1181</v>
+        <v>750</v>
       </c>
       <c r="B474" t="s">
-        <v>1129</v>
+        <v>429</v>
       </c>
       <c r="C474" s="0"/>
       <c r="D474" t="s">
@@ -39093,10 +39093,10 @@
     </row>
     <row r="475">
       <c r="A475" t="s">
-        <v>752</v>
+        <v>1181</v>
       </c>
       <c r="B475" t="s">
-        <v>1224</v>
+        <v>1129</v>
       </c>
       <c r="C475" s="0"/>
       <c r="D475" t="s">
@@ -39125,10 +39125,10 @@
     </row>
     <row r="477">
       <c r="A477" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B477" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="C477" s="0"/>
       <c r="D477" t="s">
@@ -39139,10 +39139,10 @@
     </row>
     <row r="478">
       <c r="A478" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B478" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="C478" s="0"/>
       <c r="D478" t="s">
@@ -39711,10 +39711,10 @@
     </row>
     <row r="511">
       <c r="A511" t="s">
-        <v>749</v>
+        <v>1181</v>
       </c>
       <c r="B511" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="C511" s="0"/>
       <c r="D511" t="s">
@@ -39727,10 +39727,10 @@
     </row>
     <row r="512">
       <c r="A512" t="s">
-        <v>1181</v>
+        <v>749</v>
       </c>
       <c r="B512" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="C512" s="0"/>
       <c r="D512" t="s">
@@ -40131,10 +40131,10 @@
     </row>
     <row r="536">
       <c r="A536" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B536" t="s">
-        <v>198</v>
+        <v>967</v>
       </c>
       <c r="C536" s="0"/>
       <c r="D536" t="s">
@@ -40149,10 +40149,10 @@
     </row>
     <row r="537">
       <c r="A537" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B537" t="s">
-        <v>967</v>
+        <v>198</v>
       </c>
       <c r="C537" s="0"/>
       <c r="D537" t="s">
@@ -40185,10 +40185,10 @@
     </row>
     <row r="539">
       <c r="A539" t="s">
-        <v>750</v>
+        <v>1181</v>
       </c>
       <c r="B539" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C539" s="0"/>
       <c r="D539" t="s">
@@ -40201,10 +40201,10 @@
     </row>
     <row r="540">
       <c r="A540" t="s">
-        <v>1181</v>
+        <v>750</v>
       </c>
       <c r="B540" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="C540" s="0"/>
       <c r="D540" t="s">
@@ -40277,10 +40277,10 @@
     </row>
     <row r="545">
       <c r="A545" t="s">
-        <v>749</v>
+        <v>1181</v>
       </c>
       <c r="B545" t="s">
-        <v>776</v>
+        <v>1237</v>
       </c>
       <c r="C545" s="0"/>
       <c r="D545" t="s">
@@ -40293,10 +40293,10 @@
     </row>
     <row r="546">
       <c r="A546" t="s">
-        <v>1181</v>
+        <v>749</v>
       </c>
       <c r="B546" t="s">
-        <v>1237</v>
+        <v>776</v>
       </c>
       <c r="C546" s="0"/>
       <c r="D546" t="s">
@@ -41027,10 +41027,10 @@
     </row>
     <row r="589">
       <c r="A589" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B589" t="s">
-        <v>790</v>
+        <v>264</v>
       </c>
       <c r="C589" s="0"/>
       <c r="D589" t="s">
@@ -41043,10 +41043,10 @@
     </row>
     <row r="590">
       <c r="A590" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B590" t="s">
-        <v>264</v>
+        <v>790</v>
       </c>
       <c r="C590" s="0"/>
       <c r="D590" t="s">
@@ -41150,7 +41150,7 @@
         <v>1181</v>
       </c>
       <c r="B596" t="s">
-        <v>275</v>
+        <v>727</v>
       </c>
       <c r="C596" s="0"/>
       <c r="D596" t="s">
@@ -41168,7 +41168,7 @@
         <v>1181</v>
       </c>
       <c r="B597" t="s">
-        <v>996</v>
+        <v>275</v>
       </c>
       <c r="C597" s="0"/>
       <c r="D597" t="s">
@@ -41186,7 +41186,7 @@
         <v>1181</v>
       </c>
       <c r="B598" t="s">
-        <v>727</v>
+        <v>996</v>
       </c>
       <c r="C598" s="0"/>
       <c r="D598" t="s">
@@ -41240,7 +41240,7 @@
         <v>748</v>
       </c>
       <c r="B601" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="C601" s="0"/>
       <c r="D601" t="s">
@@ -41258,7 +41258,7 @@
         <v>748</v>
       </c>
       <c r="B602" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="C602" s="0"/>
       <c r="D602" t="s">
@@ -41745,10 +41745,10 @@
     </row>
     <row r="631">
       <c r="A631" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B631" t="s">
-        <v>448</v>
+        <v>1012</v>
       </c>
       <c r="C631" s="0"/>
       <c r="D631" t="s">
@@ -41763,10 +41763,10 @@
     </row>
     <row r="632">
       <c r="A632" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B632" t="s">
-        <v>1012</v>
+        <v>448</v>
       </c>
       <c r="C632" s="0"/>
       <c r="D632" t="s">
@@ -41917,10 +41917,10 @@
     </row>
     <row r="641">
       <c r="A641" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="B641" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="C641" s="0"/>
       <c r="D641" t="s">
@@ -41933,10 +41933,10 @@
     </row>
     <row r="642">
       <c r="A642" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="B642" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C642" s="0"/>
       <c r="D642" t="s">
@@ -42271,10 +42271,10 @@
     </row>
     <row r="662">
       <c r="A662" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="B662" t="s">
-        <v>286</v>
+        <v>667</v>
       </c>
       <c r="C662" s="0"/>
       <c r="D662" t="s">
@@ -42285,10 +42285,10 @@
     </row>
     <row r="663">
       <c r="A663" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="B663" t="s">
-        <v>667</v>
+        <v>286</v>
       </c>
       <c r="C663" s="0"/>
       <c r="D663" t="s">
@@ -42503,10 +42503,10 @@
     </row>
     <row r="676">
       <c r="A676" t="s">
-        <v>749</v>
+        <v>1181</v>
       </c>
       <c r="B676" t="s">
-        <v>273</v>
+        <v>925</v>
       </c>
       <c r="C676" s="0"/>
       <c r="D676" t="s">
@@ -42519,10 +42519,10 @@
     </row>
     <row r="677">
       <c r="A677" t="s">
-        <v>1181</v>
+        <v>749</v>
       </c>
       <c r="B677" t="s">
-        <v>925</v>
+        <v>273</v>
       </c>
       <c r="C677" s="0"/>
       <c r="D677" t="s">
@@ -42535,10 +42535,10 @@
     </row>
     <row r="678">
       <c r="A678" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="B678" t="s">
-        <v>273</v>
+        <v>925</v>
       </c>
       <c r="C678" s="0"/>
       <c r="D678" t="s">
@@ -42551,10 +42551,10 @@
     </row>
     <row r="679">
       <c r="A679" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="B679" t="s">
-        <v>925</v>
+        <v>273</v>
       </c>
       <c r="C679" s="0"/>
       <c r="D679" t="s">
@@ -42922,7 +42922,7 @@
         <v>750</v>
       </c>
       <c r="B701" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="C701" s="0"/>
       <c r="D701" t="s">
@@ -42938,7 +42938,7 @@
         <v>750</v>
       </c>
       <c r="B702" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="C702" s="0"/>
       <c r="D702" t="s">
@@ -42954,7 +42954,7 @@
         <v>750</v>
       </c>
       <c r="B703" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C703" s="0"/>
       <c r="D703" t="s">
@@ -42970,7 +42970,7 @@
         <v>750</v>
       </c>
       <c r="B704" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="C704" s="0"/>
       <c r="D704" t="s">
@@ -43196,7 +43196,7 @@
         <v>750</v>
       </c>
       <c r="B717" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="C717" s="0"/>
       <c r="D717" t="s">
@@ -43214,7 +43214,7 @@
         <v>750</v>
       </c>
       <c r="B718" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C718" s="0"/>
       <c r="D718" t="s">
@@ -43379,10 +43379,10 @@
     </row>
     <row r="728">
       <c r="A728" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B728" t="s">
-        <v>1048</v>
+        <v>987</v>
       </c>
       <c r="C728" s="0"/>
       <c r="D728" t="s">
@@ -43395,10 +43395,10 @@
     </row>
     <row r="729">
       <c r="A729" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B729" t="s">
-        <v>987</v>
+        <v>1048</v>
       </c>
       <c r="C729" s="0"/>
       <c r="D729" t="s">
@@ -44175,10 +44175,10 @@
     </row>
     <row r="774">
       <c r="A774" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B774" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="C774" s="0"/>
       <c r="D774" t="s">
@@ -44191,10 +44191,10 @@
     </row>
     <row r="775">
       <c r="A775" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B775" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C775" s="0"/>
       <c r="D775" t="s">
@@ -44242,7 +44242,7 @@
         <v>748</v>
       </c>
       <c r="B778" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C778" s="0"/>
       <c r="D778" t="s">
@@ -44256,7 +44256,7 @@
         <v>748</v>
       </c>
       <c r="B779" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="C779" s="0"/>
       <c r="D779" t="s">
@@ -44617,10 +44617,10 @@
     </row>
     <row r="801">
       <c r="A801" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B801" t="s">
-        <v>938</v>
+        <v>198</v>
       </c>
       <c r="C801" s="0"/>
       <c r="D801" t="s">
@@ -44635,10 +44635,10 @@
     </row>
     <row r="802">
       <c r="A802" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B802" t="s">
-        <v>198</v>
+        <v>938</v>
       </c>
       <c r="C802" s="0"/>
       <c r="D802" t="s">
@@ -44935,10 +44935,10 @@
     </row>
     <row r="819">
       <c r="A819" t="s">
-        <v>1181</v>
+        <v>750</v>
       </c>
       <c r="B819" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="C819" s="0"/>
       <c r="D819" t="s">
@@ -44953,10 +44953,10 @@
     </row>
     <row r="820">
       <c r="A820" t="s">
-        <v>750</v>
+        <v>1181</v>
       </c>
       <c r="B820" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C820" s="0"/>
       <c r="D820" t="s">
@@ -44971,10 +44971,10 @@
     </row>
     <row r="821">
       <c r="A821" t="s">
-        <v>750</v>
+        <v>1181</v>
       </c>
       <c r="B821" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="C821" s="0"/>
       <c r="D821" t="s">
@@ -44989,10 +44989,10 @@
     </row>
     <row r="822">
       <c r="A822" t="s">
-        <v>1181</v>
+        <v>750</v>
       </c>
       <c r="B822" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C822" s="0"/>
       <c r="D822" t="s">
@@ -45216,7 +45216,7 @@
         <v>1181</v>
       </c>
       <c r="B835" t="s">
-        <v>842</v>
+        <v>1094</v>
       </c>
       <c r="C835" s="0"/>
       <c r="D835" t="s">
@@ -45234,7 +45234,7 @@
         <v>1181</v>
       </c>
       <c r="B836" t="s">
-        <v>1094</v>
+        <v>842</v>
       </c>
       <c r="C836" s="0"/>
       <c r="D836" t="s">
@@ -45267,10 +45267,10 @@
     </row>
     <row r="838">
       <c r="A838" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B838" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="C838" s="0"/>
       <c r="D838" t="s">
@@ -45281,10 +45281,10 @@
     </row>
     <row r="839">
       <c r="A839" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B839" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="C839" s="0"/>
       <c r="D839" t="s">
@@ -45298,7 +45298,7 @@
         <v>748</v>
       </c>
       <c r="B840" t="s">
-        <v>1283</v>
+        <v>1257</v>
       </c>
       <c r="C840" s="0"/>
       <c r="D840" t="s">
@@ -45312,7 +45312,7 @@
         <v>748</v>
       </c>
       <c r="B841" t="s">
-        <v>1257</v>
+        <v>1283</v>
       </c>
       <c r="C841" s="0"/>
       <c r="D841" t="s">
@@ -45339,10 +45339,10 @@
     </row>
     <row r="843">
       <c r="A843" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B843" t="s">
-        <v>1286</v>
+        <v>1257</v>
       </c>
       <c r="C843" s="0"/>
       <c r="D843" t="s">
@@ -45355,10 +45355,10 @@
     </row>
     <row r="844">
       <c r="A844" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B844" t="s">
-        <v>1257</v>
+        <v>1286</v>
       </c>
       <c r="C844" s="0"/>
       <c r="D844" t="s">
@@ -46027,10 +46027,10 @@
     </row>
     <row r="885">
       <c r="A885" t="s">
-        <v>1181</v>
+        <v>750</v>
       </c>
       <c r="B885" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="C885" s="0"/>
       <c r="D885" t="s">
@@ -46045,10 +46045,10 @@
     </row>
     <row r="886">
       <c r="A886" t="s">
-        <v>750</v>
+        <v>1181</v>
       </c>
       <c r="B886" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="C886" s="0"/>
       <c r="D886" t="s">
@@ -47311,10 +47311,10 @@
     </row>
     <row r="960">
       <c r="A960" t="s">
-        <v>750</v>
+        <v>1181</v>
       </c>
       <c r="B960" t="s">
-        <v>1155</v>
+        <v>1111</v>
       </c>
       <c r="C960" s="0"/>
       <c r="D960" t="s">
@@ -47329,10 +47329,10 @@
     </row>
     <row r="961">
       <c r="A961" t="s">
-        <v>1181</v>
+        <v>750</v>
       </c>
       <c r="B961" t="s">
-        <v>1111</v>
+        <v>1155</v>
       </c>
       <c r="C961" s="0"/>
       <c r="D961" t="s">
@@ -47813,10 +47813,10 @@
     </row>
     <row r="989">
       <c r="A989" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B989" t="s">
-        <v>264</v>
+        <v>300</v>
       </c>
       <c r="C989" s="0"/>
       <c r="D989" t="s">
@@ -47829,10 +47829,10 @@
     </row>
     <row r="990">
       <c r="A990" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B990" t="s">
-        <v>300</v>
+        <v>264</v>
       </c>
       <c r="C990" s="0"/>
       <c r="D990" t="s">
@@ -47935,10 +47935,10 @@
     </row>
     <row r="996">
       <c r="A996" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B996" t="s">
-        <v>790</v>
+        <v>1311</v>
       </c>
       <c r="C996" s="0"/>
       <c r="D996" t="s">
@@ -47951,10 +47951,10 @@
     </row>
     <row r="997">
       <c r="A997" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B997" t="s">
-        <v>1311</v>
+        <v>790</v>
       </c>
       <c r="C997" s="0"/>
       <c r="D997" t="s">
